--- a/Game Boy Printer Emulator - Games Support.xlsx
+++ b/Game Boy Printer Emulator - Games Support.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="167">
   <si>
     <t>Title</t>
   </si>
@@ -54,13 +54,13 @@
     <t>Custom</t>
   </si>
   <si>
-    <t>2 colors palettes on purpose (unique known case)</t>
+    <t>Palette 0x03 (2 colors) on purpose (unique known case). You can print scores every 4 levels or at game over</t>
   </si>
   <si>
     <t>Alice in Wonderland (never released in Japan)</t>
   </si>
   <si>
-    <t>One palette for the image, another for the footer, makes no sense</t>
+    <t>One palette for the image (0xD2), another for the footer (0x47). Eur version has no printing feature, only USA.</t>
   </si>
   <si>
     <t>Animal Breeder 3 (あにまるぶりーだー3)</t>
@@ -75,189 +75,252 @@
     <t>Standard</t>
   </si>
   <si>
+    <t>Palette 0xE4</t>
+  </si>
+  <si>
     <t>Animal Breeder 4 (あにまるぶり〜だ〜4)</t>
   </si>
   <si>
+    <t>Very cute images to print</t>
+  </si>
+  <si>
+    <t>Aqualife (アクアライフ)</t>
+  </si>
+  <si>
+    <t>You can print fish information from the tank menu, not from the encyclopedia</t>
+  </si>
+  <si>
+    <t>Asteroids (never released in Japan)</t>
+  </si>
+  <si>
+    <t>One certificate at the end of game only (can be reached with cheat code). Enter "CHEATONX" as a password. Then while playing the game, press Select to display a cheat menu. Press Up or Down to select a level or Left or Right to select a zone. Press A for invincibility (001 will appear if done correctly).</t>
+  </si>
+  <si>
+    <t>Austin Powers: Oh, Behave! (never released in Japan)</t>
+  </si>
+  <si>
+    <t>Palette 0x1B, Poor printing content : shitty emails</t>
+  </si>
+  <si>
+    <t>Austin Powers: Welcome to My Underground Lair! (never released in Japan)</t>
+  </si>
+  <si>
+    <t>Cardcaptor Sakura: Itsumo Sakura-chan to Issho! (カードキャプターさくら 〜いつもさくらちゃんと一緒〜)</t>
+  </si>
+  <si>
+    <t>Cardcaptor Sakura: Tomoe Shōgakkō Daiundōkai (カードキャプターさくら 〜友枝小学校大運動会〜)</t>
+  </si>
+  <si>
+    <t>Palette 0x1B, you can print fun banners</t>
+  </si>
+  <si>
+    <t>Chee-Chai Alien (ちっちゃいエイリアン)</t>
+  </si>
+  <si>
+    <t>You have to catch monster #10 (Kirako, キラコ) of the last "pheromone" list or level (about 3 hours required), play with it the minigame with printer connected and something weird happens...</t>
+  </si>
+  <si>
+    <t>Cross Hunter - Monster Hunter Version (クロスハンター モンスター・ハンター・バージョン)</t>
+  </si>
+  <si>
+    <t>Palette 0x1B. To unlock print features, you have to access the professor laboratory (2-3 missions to complete) and discuss with him. It gives you access to all the bestiary to print.</t>
+  </si>
+  <si>
+    <t>Cross Hunter - Treasure Hunter (クロスハンター トレジャー・ハンター・バージョン)</t>
+  </si>
+  <si>
+    <t>Cross Hunter - X Hunter Version (クロスハンター エックス・ハンター・バージョン)</t>
+  </si>
+  <si>
+    <t>Daa! Daa! Daa! - Totsuzen Card de Battle de Uranai de! (だぁ!だぁ!だぁ! とつぜん★カードでバトルで占いで!?)</t>
+  </si>
+  <si>
+    <t>Daikaijuu Monogatari: The Miracle of the Zone II (大貝獣物語 ザ・ミラクル オブ ザ・ゾーンII)</t>
+  </si>
+  <si>
+    <t>Very complete printing features. You can print your card deck nearly from the beginning.</t>
+  </si>
+  <si>
+    <t>Dejiko no Mahjong Party (でじこの麻雀パーティー)</t>
+  </si>
+  <si>
+    <t>I'm currently unable to unlock something</t>
+  </si>
+  <si>
+    <t>Densha de GO! 2 (電車でGO!2)</t>
+  </si>
+  <si>
+    <t>You can print train images from the beginning</t>
+  </si>
+  <si>
+    <t>Dino Breeder 3 - Gaia Fukkatsu (ディノブリーダー3 〜ガイア復活〜)</t>
+  </si>
+  <si>
+    <t>Uses a margin of 2 lines instead of 3 usually</t>
+  </si>
+  <si>
+    <t>Disney's Dinosaur (never released in Japan)</t>
+  </si>
+  <si>
+    <t>Disney's Tarzan (ディズニーズ ターザン)</t>
+  </si>
+  <si>
+    <t>Wrong palette, is 0xE1, must be 0xD2 (LG and DG inverted)</t>
+  </si>
+  <si>
+    <t>Donkey Kong Country (ドンキーコング2001)</t>
+  </si>
+  <si>
+    <t>Palette 0xE4, you can print an alphabet and some images unlocked with level completed</t>
+  </si>
+  <si>
+    <t>Doraemon Kart 2 (ドラえもんカート2)</t>
+  </si>
+  <si>
+    <t>Poor kart game. You can print the time records</t>
+  </si>
+  <si>
+    <t>Doraemon Memories - Nobita no Omoide Daibouken (ドラえもんメモリーズ のび太の想い出大冒険)</t>
+  </si>
+  <si>
+    <t>44 images to unlock</t>
+  </si>
+  <si>
+    <t>Doraemon no Quiz Boy (ドラえもんのクイズボーイ)</t>
+  </si>
+  <si>
+    <t>E.T.: Digital Companion (never released in Japan)</t>
+  </si>
+  <si>
+    <t>Lazy end of printing with blank packets rather than standard protocol (use of margins)</t>
+  </si>
+  <si>
+    <t>Fairy Kitty no Kaiun Jiten: Yousei no Kuni no Uranai Shugyou (フェアリーキティの開運辞典 妖精の国の占い修行)</t>
+  </si>
+  <si>
+    <t>Poor gameplay</t>
+  </si>
+  <si>
+    <t>Fisher-Price Rescue Heroes: Fire Frenzy (never released in Japan)</t>
+  </si>
+  <si>
+    <t>Game Boy Camera (ポケットカメラ)</t>
+  </si>
+  <si>
+    <t>GB</t>
+  </si>
+  <si>
+    <t>One of the best game with the printer</t>
+  </si>
+  <si>
+    <t>Golf Ou: The King of Golf (ゴルフ王)</t>
+  </si>
+  <si>
+    <t>You can print your ranking</t>
+  </si>
+  <si>
+    <t>Hamster Club (ハムスター倶楽部)</t>
+  </si>
+  <si>
+    <t>88 different images to print !</t>
+  </si>
+  <si>
+    <t>Hamster Paradise (ハムスターパラダイス)</t>
+  </si>
+  <si>
+    <t>Hamster Paradise 2 (ハムスターパラダイス2)</t>
+  </si>
+  <si>
+    <t>Harvest Moon 2 (牧場物語GB2)</t>
+  </si>
+  <si>
+    <t>Palette 0xD2, you can prints events and insects from the book store in village.</t>
+  </si>
+  <si>
+    <t>Hello Kitty no Beads Koubou (ハローキティのビーズ工房)</t>
+  </si>
+  <si>
+    <t>You have to complete some puzzle rounds to allow printing something</t>
+  </si>
+  <si>
+    <t>Hello Kitty no magical museum (ハローキティのマジカルミュージアム)</t>
+  </si>
+  <si>
+    <t>Partial</t>
+  </si>
+  <si>
+    <t>Crashes before sending the print command</t>
+  </si>
+  <si>
+    <t>Hello Kitty Pocket Camera (Japan, unreleased)</t>
+  </si>
+  <si>
+    <t>Jinsei Game Tomodachi takusan Tsukurou Yo! (人生ゲーム 友達たくさんつくろうよ!)</t>
+  </si>
+  <si>
+    <t>Kakurenbo Battle Monster Tactics (モンスタータクティクス)</t>
+  </si>
+  <si>
+    <t>You have to beat 2 bosses (easy) and discuss with people until an underground passage opens on top rigth of the map (just on top of your beginning room). The underground room with "M" in front of it contains the printer feature. Warning, the surface room with "M" in front is not the good one.</t>
+  </si>
+  <si>
+    <t>Kanji Boy (漢字BOY)</t>
+  </si>
+  <si>
+    <t>Karamuchou wa Oosawagi!: Porinkiis to Okashina Nakamatachi (カラムー町は大さわぎ! 〜ポリンキーズとおかしな仲間たち〜)</t>
+  </si>
+  <si>
+    <t>Kaseki Sousei Reborn II: Monster Digger (化石創世リボーン2 〜モンスターティガー〜)</t>
+  </si>
+  <si>
+    <t>Palette 0xE8</t>
+  </si>
+  <si>
+    <t>Kidou Senkan Nadesico - Ruri Ruri Mahjong (機動戦艦ナデシコ ルリルリ麻雀)</t>
+  </si>
+  <si>
+    <t>Kisekae Monogatari (きせかえ物語)</t>
+  </si>
+  <si>
+    <t>There is a kind of "paint" tool to play with the main character girl that you can access from beginning</t>
+  </si>
+  <si>
+    <t>Klax (never released in Japan)</t>
+  </si>
+  <si>
+    <t>You can print password and an easter egg : The feature is accessed by selecting green alien, green alien, red circle, blue square. After skipping the found minigame page, a picture of a head attached to a body will display with an option to print. The heads can be selected with the D-Pad.</t>
+  </si>
+  <si>
+    <t>Little Nicky (never released in Japan)</t>
+  </si>
+  <si>
+    <t>Palette 0xC6. Poor printing options (one ugly custom image)</t>
+  </si>
+  <si>
+    <t>Logical (never released in Japan)</t>
+  </si>
+  <si>
+    <t>Palette 0xE4, the game is very hard to understand, you can print passwords (select pressed at the password screen).</t>
+  </si>
+  <si>
+    <t>Love Hina Pocket (ラブ ひな)</t>
+  </si>
+  <si>
+    <t>There is a TON of content to print (borders, stickers, sprites art)</t>
+  </si>
+  <si>
+    <t>Magical Drop (never released in Japan)</t>
+  </si>
+  <si>
+    <t>Mary-Kate and Ashley Pocket Planner (never released in Japan)</t>
+  </si>
+  <si>
+    <t>McDonald's Monogatari : Honobono Tenchou Ikusei Game (マクドナルド物語)</t>
+  </si>
+  <si>
     <t>Not tested yet</t>
   </si>
   <si>
-    <t>Aqualife (アクアライフ)</t>
-  </si>
-  <si>
-    <t>Asteroids (never released in Japan)</t>
-  </si>
-  <si>
-    <t>One image at the end of game only (can be reached with cheat code)</t>
-  </si>
-  <si>
-    <t>Austin Powers: Oh, Behave! (never released in Japan)</t>
-  </si>
-  <si>
-    <t>Inverted</t>
-  </si>
-  <si>
-    <t>Austin Powers: Welcome to My Underground Lair! (never released in Japan)</t>
-  </si>
-  <si>
-    <t>Cardcaptor Sakura: Itsumo Sakura-chan to Issho! (カードキャプターさくら 〜いつもさくらちゃんと一緒〜)</t>
-  </si>
-  <si>
-    <t>Cardcaptor Sakura: Tomoe Shōgakkō Daiundōkai (カードキャプターさくら 〜友枝小学校大運動会〜)</t>
-  </si>
-  <si>
-    <t>Chee-Chai Alien (ちっちゃいエイリアン)</t>
-  </si>
-  <si>
-    <t>Cross Hunter - Monster Hunter Version (クロスハンター モンスター・ハンター・バージョン)</t>
-  </si>
-  <si>
-    <t>Cross Hunter - Treasure Hunter (クロスハンター トレジャー・ハンター・バージョン)</t>
-  </si>
-  <si>
-    <t>Cross Hunter - X Hunter Version (クロスハンター エックス・ハンター・バージョン)</t>
-  </si>
-  <si>
-    <t>Daa! Daa! Daa! - Totsuzen Card de Battle de Uranai de! (だぁ!だぁ!だぁ! とつぜん★カードでバトルで占いで!?)</t>
-  </si>
-  <si>
-    <t>Daikaijuu Monogatari: The Miracle of the Zone II (大貝獣物語 ザ・ミラクル オブ ザ・ゾーンII)</t>
-  </si>
-  <si>
-    <t>Dejiko no Mahjong Party (でじこの麻雀パーティー)</t>
-  </si>
-  <si>
-    <t>Densha de GO! 2 (電車でGO!2)</t>
-  </si>
-  <si>
-    <t>Dino Breeder 3 - Gaia Fukkatsu (ディノブリーダー3 〜ガイア復活〜)</t>
-  </si>
-  <si>
-    <t>Uses a margin of 2 lines instead of 3 usually</t>
-  </si>
-  <si>
-    <t>Disney's Dinosaur (never released in Japan)</t>
-  </si>
-  <si>
-    <t>Disney's Tarzan (ディズニーズ ターザン)</t>
-  </si>
-  <si>
-    <t>Wrong palette, is 0xE1, must be 0xD2 (LG and DG inverted)</t>
-  </si>
-  <si>
-    <t>Donkey Kong Country (ドンキーコング2001)</t>
-  </si>
-  <si>
-    <t>Doraemon Kart 2 (ドラえもんカート2)</t>
-  </si>
-  <si>
-    <t>Doraemon Memories - Nobita no Omoide Daibouken (ドラえもんメモリーズ のび太の想い出大冒険)</t>
-  </si>
-  <si>
-    <t>44 images to unlock</t>
-  </si>
-  <si>
-    <t>Doraemon no Quiz Boy (ドラえもんのクイズボーイ)</t>
-  </si>
-  <si>
-    <t>E.T.: Digital Companion (never released in Japan)</t>
-  </si>
-  <si>
-    <t>Lazy end of printing with blank packets rather than standard protocol (use of margins)</t>
-  </si>
-  <si>
-    <t>Fairy Kitty no Kaiun Jiten: Yousei no Kuni no Uranai Shugyou (フェアリーキティの開運辞典 妖精の国の占い修行)</t>
-  </si>
-  <si>
-    <t>Fisher-Price Rescue Heroes: Fire Frenzy (never released in Japan)</t>
-  </si>
-  <si>
-    <t>Fishing teacher 2 (釣り先生2)</t>
-  </si>
-  <si>
-    <t>Game Boy Camera (ポケットカメラ)</t>
-  </si>
-  <si>
-    <t>GB</t>
-  </si>
-  <si>
-    <t>One of the best game with the printer</t>
-  </si>
-  <si>
-    <t>Hamster Club (ハムスター倶楽部)</t>
-  </si>
-  <si>
-    <t>88 different images to print !</t>
-  </si>
-  <si>
-    <t>Hamster Paradise (ハムスターパラダイス)</t>
-  </si>
-  <si>
-    <t>Hamster Paradise 2 (ハムスターパラダイス2)</t>
-  </si>
-  <si>
-    <t>Harvest Moon 2 (牧場物語GB2)</t>
-  </si>
-  <si>
-    <t>Hello Kitty no Beads Koubou (ハローキティのビーズ工房)</t>
-  </si>
-  <si>
-    <t>Hello Kitty no magical museum (ハローキティのマジカルミュージアム)</t>
-  </si>
-  <si>
-    <t>Hello Kitty Pocket Camera (Japan, unreleasd)</t>
-  </si>
-  <si>
-    <t>Jinsei Game Tomodachi takusan Tsukurou Yo! (人生ゲーム 友達たくさんつくろうよ!)</t>
-  </si>
-  <si>
-    <t>Kakurenbo Battle Monster Tactics (モンスタータクティクス)</t>
-  </si>
-  <si>
-    <t>Kanji Boy (漢字BOY)</t>
-  </si>
-  <si>
-    <t>Karamuchou wa Oosawagi!: Porinkiis to Okashina Nakamatachi (カラムー町は大さわぎ! 〜ポリンキーズとおかしな仲間たち〜)</t>
-  </si>
-  <si>
-    <t>Kaseki Sousei Reborn II: Monster Digger (化石創世リボーン2 〜モンスターティガー〜)</t>
-  </si>
-  <si>
-    <t>Palette 0xE8</t>
-  </si>
-  <si>
-    <t>Kisekae Monogatari (きせかえ物語)</t>
-  </si>
-  <si>
-    <t>Klax (never released in Japan)</t>
-  </si>
-  <si>
-    <t>Little Nicky (never released in Japan)</t>
-  </si>
-  <si>
-    <t>Poor printing options (one ugly custom image)</t>
-  </si>
-  <si>
-    <t>Logical (never released in Japan)</t>
-  </si>
-  <si>
-    <t>Love Hina Pocket (ラブ ひな)</t>
-  </si>
-  <si>
-    <t>There is a TON of content to print (borders, stickers, sprites art)</t>
-  </si>
-  <si>
-    <t>Magical Drop (never released in Japan)</t>
-  </si>
-  <si>
-    <t>Martian Successor Nadesico: Ruriruri Mahjong (機動戦艦ナデシコ ルリルリ麻雀)</t>
-  </si>
-  <si>
-    <t>Mary-Kate and Ashley Pocket Planner (never released in Japan)</t>
-  </si>
-  <si>
-    <t>McDonald's Story (マクドナルド物語)</t>
-  </si>
-  <si>
     <t>Mickey's Racing Adventure (never released in Japan)</t>
   </si>
   <si>
@@ -270,18 +333,30 @@
     <t>Monster ★ Race 2 (もんすたあ★レース2)</t>
   </si>
   <si>
-    <t>Monster Race ★ Okawari (もんすたあ★レース おかわり)</t>
+    <t>You have to unlock the passage to the south (forest) from the first village to get a kind of pokedex that serves as printing feature (after about one hour of gameplay)</t>
+  </si>
+  <si>
+    <t>Monster ★ Race Okawari (もんすたあ★レース おかわり)</t>
+  </si>
+  <si>
+    <t>You can rapidely print something after choosing your starter (after about 10 minutes of gameplay), from your individual menu</t>
   </si>
   <si>
     <t>Nakayoshi Cooking Series 1 - Oishii Cake-ya-san (なかよしクッキングシリーズ1 おいしいケーキ屋さん)</t>
   </si>
   <si>
+    <t>Palette 0x07 (2 colors) just send a white packet (full of 0xFFs) when trying to print a recipe.</t>
+  </si>
+  <si>
     <t>Nakayoshi Cooking Series 2 - Oishii Panya-san (なかよしクッキングシリーズ2 おいしいパン屋さん)</t>
   </si>
   <si>
     <t>Nakayoshi Cooking Series 3 - Tanoshii Obentou (なかよしクッキングシリーズ3 たのしいお弁当)</t>
   </si>
   <si>
+    <t>Palette 0x1B, weird protocol but works</t>
+  </si>
+  <si>
     <t>Nakayoshi Cooking Series 4 - Tanoshii Dessert (なかよしクッキングシリーズ4 たのしいデザート)</t>
   </si>
   <si>
@@ -291,24 +366,24 @@
     <t>Nakayoshi Pet Series 1: Kawaii Hamster (なかよしペットシリーズ1 かわいいハムスター)</t>
   </si>
   <si>
+    <t>Palette 0x1B</t>
+  </si>
+  <si>
     <t>Nakayoshi Pet Series 2: Kawaii Usagi (なかよしペットシリーズ2 かわいいウサギ)</t>
   </si>
   <si>
     <t>Nakayoshi Pet Series 3: Kawaii koinu (なかよしペットシリーズ3 かわいい仔犬)</t>
   </si>
   <si>
-    <t>Palette 0x1B</t>
-  </si>
-  <si>
-    <t>Neon Genesis Evangelion Mahjong Complementary Plan (新世紀エヴァンゲリオン 麻雀補完計画)</t>
-  </si>
-  <si>
     <t>NFL Blitz (never released in Japan)</t>
   </si>
   <si>
     <t>Nintama Rantarou GB: Eawase Challenge Puzzle (忍たま乱太郎GB えあわせチャレンジパズル)</t>
   </si>
   <si>
+    <t>You can unlock many cute "seals" by playing minigames. Cheatcodes are available to obtain them.</t>
+  </si>
+  <si>
     <t>Ojarumaru: Mitsunegai Jinja no Ennichi de Ojaru! (おじゃる丸 〜満願神社は縁日でおじゃる!〜)</t>
   </si>
   <si>
@@ -321,6 +396,9 @@
     <t>Perfect Dark (never released in Japan)</t>
   </si>
   <si>
+    <t>Each level completed unlock an image</t>
+  </si>
+  <si>
     <t>Pocket Family 2 (ポケットファミリーGB2)</t>
   </si>
   <si>
@@ -348,6 +426,9 @@
     <t>Pokémon Pinball (ポケモンピンボール)</t>
   </si>
   <si>
+    <t>Palette 0xE4, you can print the highscores</t>
+  </si>
+  <si>
     <t>Pokémon Silver (ポケットモンスター 銀)</t>
   </si>
   <si>
@@ -363,18 +444,33 @@
     <t>Puzzled (never released in Japan)</t>
   </si>
   <si>
+    <t>Palette 0xE4, you can print passwords</t>
+  </si>
+  <si>
     <t>Quest for Camelot (never released in Japan)</t>
   </si>
   <si>
+    <t>Press Select on cartoon animations to print screen</t>
+  </si>
+  <si>
     <t>Roadsters Trophy (never released in Japan)</t>
   </si>
   <si>
+    <t>Palette 0x27, you can print you password after a victory.</t>
+  </si>
+  <si>
     <t>Sanrio Timenet: Kako Hen (サンリオタイムネット 過去編)</t>
   </si>
   <si>
+    <t>You can print from the Hello Kitty "Pokecenter" or from character menu</t>
+  </si>
+  <si>
     <t>Sanrio Timenet: Mirai Hen (サンリオタイムネット 未来編)</t>
   </si>
   <si>
+    <t>Shinseiki Evangelion Mahjong Hokan Keikaku (新世紀エヴァンゲリオン 麻雀補完計画)</t>
+  </si>
+  <si>
     <t>Sōko-ban Densetsu: Hikari to Yami no Kuni (倉庫番伝説 光と闇の国)</t>
   </si>
   <si>
@@ -390,6 +486,9 @@
     <t>Sweet Angel (スウィートアンジェ)</t>
   </si>
   <si>
+    <t>You can print your profile and exchange it by serial cable</t>
+  </si>
+  <si>
     <t>Sylvanian Families 3 - Hoshi Furu Yoru no Sunadokei (シルバニアファミリー３　星ふる夜のすなどけい)</t>
   </si>
   <si>
@@ -399,9 +498,6 @@
     <t>Tales of Phantasia: Nakiri's Dungeon (テイルズ オブ ファンタジア なりきりダンジョン)</t>
   </si>
   <si>
-    <t>The King of Golf (ゴルフ王)</t>
-  </si>
-  <si>
     <t>The Legend of Zelda: Link's Awakening DX (ゼルダの伝説 夢をみる島DX)</t>
   </si>
   <si>
@@ -414,7 +510,10 @@
     <t>Trade &amp; Battle: Card Hero (トレード&amp;バトル カードヒーロー)</t>
   </si>
   <si>
-    <t xml:space="preserve">palette 0x2D, LG and DG inverted on sprites. If palette 0x1E is forced, sprites are OK but text unreadable </t>
+    <t xml:space="preserve">Palette 0x2D, LG and DG inverted on sprites. If palette 0x1E is forced, sprites are OK but text unreadable </t>
+  </si>
+  <si>
+    <t>Tsuri Sensei 2 (釣り先生2)</t>
   </si>
 </sst>
 </file>
@@ -446,10 +545,10 @@
     <font>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
-      <name val="Docs-Consolas"/>
+      <name val="Consolas"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -474,6 +573,12 @@
         <bgColor rgb="FFF3F3F3"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9900"/>
+        <bgColor rgb="FFFF9900"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border/>
@@ -481,7 +586,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -503,11 +608,17 @@
     <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -867,26 +978,36 @@
       <c r="F4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="3"/>
+      <c r="G4" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
+      <c r="C5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="G5" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>17</v>
@@ -903,11 +1024,13 @@
       <c r="F6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="3"/>
+      <c r="G6" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>17</v>
@@ -925,12 +1048,12 @@
         <v>19</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>8</v>
@@ -945,13 +1068,15 @@
         <v>11</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" s="3"/>
+        <v>12</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>8</v>
@@ -966,13 +1091,15 @@
         <v>11</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" s="3"/>
+        <v>12</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>17</v>
@@ -989,11 +1116,13 @@
       <c r="F10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="3"/>
+      <c r="G10" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>8</v>
@@ -1008,73 +1137,107 @@
         <v>11</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" s="3"/>
+        <v>12</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
+      <c r="C12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="G12" s="3" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="6" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
+      <c r="C13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="G13" s="3" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="5" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
+      <c r="C14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="G14" s="3" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="6" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
+      <c r="C15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="G15" s="3" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="6" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>8</v>
@@ -1091,26 +1254,36 @@
       <c r="F16" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G16" s="8"/>
+      <c r="G16" s="7" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
+      <c r="C17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="G17" s="3" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="3" t="s">
-        <v>36</v>
+      <c r="A18" s="8" t="s">
+        <v>42</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>8</v>
@@ -1120,27 +1293,35 @@
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="3" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="6" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
+      <c r="C19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="G19" s="3" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="6" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>17</v>
@@ -1158,12 +1339,12 @@
         <v>19</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="3" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>8</v>
@@ -1180,11 +1361,13 @@
       <c r="F21" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G21" s="3"/>
+      <c r="G21" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="3" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>8</v>
@@ -1202,12 +1385,12 @@
         <v>12</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="3" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>8</v>
@@ -1224,26 +1407,36 @@
       <c r="F23" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G23" s="3"/>
+      <c r="G23" s="3" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="6" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
+      <c r="C24" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="G24" s="3" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="6" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>17</v>
@@ -1261,27 +1454,27 @@
         <v>19</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="6" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
       <c r="G26" s="3" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="3" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>8</v>
@@ -1299,27 +1492,35 @@
         <v>19</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="6" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
+      <c r="C28" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="G28" s="3" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="3" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>8</v>
@@ -1336,49 +1537,59 @@
       <c r="F29" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G29" s="3"/>
+      <c r="G29" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="30">
-      <c r="A30" s="6" t="s">
-        <v>52</v>
+      <c r="A30" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
+        <v>64</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="G30" s="3" t="s">
-        <v>21</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="3" t="s">
-        <v>53</v>
+      <c r="A31" s="6" t="s">
+        <v>66</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>19</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="3" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>17</v>
@@ -1396,12 +1607,12 @@
         <v>19</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="3" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>17</v>
@@ -1418,26 +1629,36 @@
       <c r="F33" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G33" s="3"/>
+      <c r="G33" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="3" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
+      <c r="C34" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="G34" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="3" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>17</v>
@@ -1452,46 +1673,62 @@
         <v>11</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G35" s="3"/>
+        <v>12</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="6" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
+      <c r="C36" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="G36" s="3" t="s">
-        <v>21</v>
+        <v>75</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="3" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
+      <c r="C37" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="F37" s="4"/>
       <c r="G37" s="3" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="6" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>9</v>
@@ -1505,11 +1742,13 @@
       <c r="F38" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G38" s="3"/>
+      <c r="G38" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="3" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>17</v>
@@ -1519,12 +1758,12 @@
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
       <c r="G39" s="3" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="3" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>8</v>
@@ -1541,41 +1780,51 @@
       <c r="F40" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G40" s="3"/>
+      <c r="G40" s="3" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="6" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
       <c r="G41" s="3" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="6" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
+      <c r="C42" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="G42" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="6" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>17</v>
@@ -1593,30 +1842,30 @@
         <v>12</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="6" t="s">
-        <v>70</v>
+      <c r="A44" s="3" t="s">
+        <v>87</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
+        <v>8</v>
+      </c>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
       <c r="G44" s="3" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="3" t="s">
-        <v>71</v>
+      <c r="A45" s="6" t="s">
+        <v>88</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>9</v>
@@ -1630,11 +1879,13 @@
       <c r="F45" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G45" s="3"/>
+      <c r="G45" s="3" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="3" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>8</v>
@@ -1649,15 +1900,15 @@
         <v>11</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="3" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>8</v>
@@ -1672,13 +1923,15 @@
         <v>11</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G47" s="3"/>
+        <v>12</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="6" t="s">
-        <v>75</v>
+      <c r="A48" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>8</v>
@@ -1687,57 +1940,67 @@
         <v>9</v>
       </c>
       <c r="D48" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E48" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>10</v>
-      </c>
       <c r="E49" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F49" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G49" s="3"/>
+      <c r="G49" s="3" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="3" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
+      <c r="C50" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="G50" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="3" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>17</v>
@@ -1755,12 +2018,12 @@
         <v>19</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="3" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>8</v>
@@ -1770,12 +2033,12 @@
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
       <c r="G52" s="3" t="s">
-        <v>21</v>
+        <v>101</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="3" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>8</v>
@@ -1792,11 +2055,13 @@
       <c r="F53" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G53" s="3"/>
+      <c r="G53" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="3" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>8</v>
@@ -1813,11 +2078,13 @@
       <c r="F54" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G54" s="3"/>
+      <c r="G54" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="3" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>8</v>
@@ -1834,11 +2101,13 @@
       <c r="F55" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G55" s="3"/>
+      <c r="G55" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="3" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>17</v>
@@ -1855,131 +2124,189 @@
       <c r="F56" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G56" s="3"/>
+      <c r="G56" s="3" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="3" t="s">
-        <v>85</v>
+        <v>107</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
-      <c r="E57" s="4"/>
-      <c r="F57" s="4"/>
+        <v>64</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="G57" s="3" t="s">
-        <v>21</v>
+        <v>108</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="6" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C58" s="4"/>
-      <c r="D58" s="4"/>
-      <c r="E58" s="4"/>
-      <c r="F58" s="4"/>
+      <c r="C58" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="G58" s="3" t="s">
-        <v>21</v>
+        <v>110</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="6" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C59" s="7"/>
-      <c r="D59" s="7"/>
-      <c r="E59" s="7"/>
-      <c r="F59" s="7"/>
+      <c r="C59" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="G59" s="3" t="s">
-        <v>21</v>
+        <v>110</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="6" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C60" s="7"/>
-      <c r="D60" s="7"/>
-      <c r="E60" s="7"/>
-      <c r="F60" s="7"/>
+      <c r="C60" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="G60" s="3" t="s">
-        <v>21</v>
+        <v>113</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="6" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C61" s="7"/>
-      <c r="D61" s="7"/>
-      <c r="E61" s="7"/>
-      <c r="F61" s="7"/>
+      <c r="C61" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="G61" s="3" t="s">
-        <v>21</v>
+        <v>113</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="6" t="s">
-        <v>90</v>
+      <c r="A62" s="10" t="s">
+        <v>115</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C62" s="7"/>
-      <c r="D62" s="7"/>
-      <c r="E62" s="7"/>
-      <c r="F62" s="7"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9"/>
       <c r="G62" s="3" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="6" t="s">
-        <v>91</v>
+        <v>116</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C63" s="7"/>
-      <c r="D63" s="7"/>
-      <c r="E63" s="7"/>
-      <c r="F63" s="7"/>
+      <c r="C63" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="G63" s="3" t="s">
-        <v>21</v>
+        <v>117</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="6" t="s">
-        <v>92</v>
+        <v>118</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C64" s="7"/>
-      <c r="D64" s="7"/>
-      <c r="E64" s="7"/>
-      <c r="F64" s="7"/>
+      <c r="C64" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="G64" s="3" t="s">
-        <v>21</v>
+        <v>117</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="5" t="s">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>8</v>
@@ -1997,30 +2324,38 @@
         <v>12</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>94</v>
+        <v>117</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="6" t="s">
-        <v>95</v>
+      <c r="A66" s="3" t="s">
+        <v>120</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C66" s="4"/>
-      <c r="D66" s="4"/>
-      <c r="E66" s="4"/>
-      <c r="F66" s="4"/>
+        <v>17</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="G66" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="3" t="s">
-        <v>96</v>
+      <c r="A67" s="6" t="s">
+        <v>121</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>9</v>
@@ -2034,44 +2369,54 @@
       <c r="F67" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G67" s="3"/>
+      <c r="G67" s="3" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="68">
-      <c r="A68" s="6" t="s">
-        <v>97</v>
+      <c r="A68" s="3" t="s">
+        <v>123</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C68" s="7"/>
-      <c r="D68" s="7"/>
-      <c r="E68" s="7"/>
-      <c r="F68" s="7"/>
+        <v>17</v>
+      </c>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
       <c r="G68" s="3" t="s">
-        <v>21</v>
+        <v>101</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="3" t="s">
-        <v>98</v>
+      <c r="A69" s="6" t="s">
+        <v>124</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C69" s="4"/>
-      <c r="D69" s="4"/>
-      <c r="E69" s="4"/>
-      <c r="F69" s="4"/>
+        <v>64</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="G69" s="3" t="s">
-        <v>21</v>
+        <v>125</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="6" t="s">
-        <v>99</v>
+      <c r="A70" s="3" t="s">
+        <v>126</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>9</v>
@@ -2083,54 +2428,56 @@
         <v>11</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>100</v>
+        <v>127</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="3" t="s">
+      <c r="A71" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C71" s="9"/>
+      <c r="D71" s="9"/>
+      <c r="E71" s="9"/>
+      <c r="F71" s="9"/>
+      <c r="G71" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="B71" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D71" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E71" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F71" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G71" s="3"/>
     </row>
     <row r="72">
       <c r="A72" s="6" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C72" s="7"/>
-      <c r="D72" s="7"/>
-      <c r="E72" s="7"/>
-      <c r="F72" s="7"/>
+        <v>8</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="G72" s="3" t="s">
-        <v>21</v>
+        <v>130</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="6" t="s">
-        <v>103</v>
+      <c r="A73" s="3" t="s">
+        <v>131</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>9</v>
@@ -2139,21 +2486,21 @@
         <v>10</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F73" s="4" t="s">
         <v>19</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>104</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="3" t="s">
-        <v>105</v>
+        <v>132</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>9</v>
@@ -2162,19 +2509,21 @@
         <v>10</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F74" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G74" s="3"/>
+      <c r="G74" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="3" t="s">
-        <v>106</v>
+        <v>133</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>9</v>
@@ -2188,11 +2537,13 @@
       <c r="F75" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G75" s="3"/>
+      <c r="G75" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="76">
-      <c r="A76" s="3" t="s">
-        <v>107</v>
+      <c r="A76" s="6" t="s">
+        <v>134</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>17</v>
@@ -2207,13 +2558,15 @@
         <v>11</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G76" s="3"/>
+        <v>12</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="77">
-      <c r="A77" s="6" t="s">
-        <v>108</v>
+      <c r="A77" s="3" t="s">
+        <v>136</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>17</v>
@@ -2228,15 +2581,15 @@
         <v>11</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>109</v>
+        <v>137</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="3" t="s">
-        <v>110</v>
+      <c r="A78" s="6" t="s">
+        <v>138</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>17</v>
@@ -2253,26 +2606,36 @@
       <c r="F78" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G78" s="3"/>
+      <c r="G78" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="79">
-      <c r="A79" s="6" t="s">
-        <v>111</v>
+      <c r="A79" s="3" t="s">
+        <v>139</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C79" s="4"/>
-      <c r="D79" s="4"/>
-      <c r="E79" s="4"/>
-      <c r="F79" s="4"/>
+      <c r="C79" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="G79" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="3" t="s">
-        <v>112</v>
+        <v>140</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>17</v>
@@ -2284,55 +2647,59 @@
         <v>10</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F80" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G80" s="3"/>
+      <c r="G80" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="81">
-      <c r="A81" s="3" t="s">
-        <v>113</v>
+      <c r="A81" s="6" t="s">
+        <v>141</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D81" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E81" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F81" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G81" s="3"/>
+        <v>64</v>
+      </c>
+      <c r="C81" s="9"/>
+      <c r="D81" s="9"/>
+      <c r="E81" s="9"/>
+      <c r="F81" s="9"/>
+      <c r="G81" s="3" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="82">
-      <c r="A82" s="6" t="s">
-        <v>114</v>
+      <c r="A82" s="3" t="s">
+        <v>142</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C82" s="7"/>
-      <c r="D82" s="7"/>
-      <c r="E82" s="7"/>
-      <c r="F82" s="7"/>
+        <v>8</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F82" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="G82" s="3" t="s">
-        <v>21</v>
+        <v>143</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="3" t="s">
-        <v>115</v>
+        <v>144</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>9</v>
@@ -2346,14 +2713,16 @@
       <c r="F83" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G83" s="3"/>
+      <c r="G83" s="3" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="3" t="s">
-        <v>116</v>
+        <v>146</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C84" s="4" t="s">
         <v>9</v>
@@ -2365,16 +2734,18 @@
         <v>11</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G84" s="3"/>
+        <v>12</v>
+      </c>
+      <c r="G84" s="3" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="85">
-      <c r="A85" s="3" t="s">
-        <v>117</v>
+      <c r="A85" s="6" t="s">
+        <v>148</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>9</v>
@@ -2386,58 +2757,68 @@
         <v>11</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G85" s="3"/>
+        <v>19</v>
+      </c>
+      <c r="G85" s="3" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="6" t="s">
-        <v>118</v>
+        <v>150</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C86" s="7"/>
-      <c r="D86" s="7"/>
-      <c r="E86" s="7"/>
-      <c r="F86" s="7"/>
+      <c r="C86" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F86" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="G86" s="3" t="s">
-        <v>21</v>
+        <v>149</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="6" t="s">
-        <v>119</v>
+        <v>151</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C87" s="7"/>
-      <c r="D87" s="7"/>
-      <c r="E87" s="7"/>
-      <c r="F87" s="7"/>
+        <v>8</v>
+      </c>
+      <c r="C87" s="4"/>
+      <c r="D87" s="4"/>
+      <c r="E87" s="4"/>
+      <c r="F87" s="4"/>
       <c r="G87" s="3" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="6" t="s">
-        <v>120</v>
+        <v>152</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C88" s="7"/>
-      <c r="D88" s="7"/>
-      <c r="E88" s="7"/>
-      <c r="F88" s="7"/>
+      <c r="C88" s="9"/>
+      <c r="D88" s="9"/>
+      <c r="E88" s="9"/>
+      <c r="F88" s="9"/>
       <c r="G88" s="3" t="s">
-        <v>21</v>
+        <v>101</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="6" t="s">
-        <v>121</v>
+        <v>153</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>17</v>
@@ -2454,11 +2835,13 @@
       <c r="F89" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G89" s="3"/>
+      <c r="G89" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="3" t="s">
-        <v>122</v>
+        <v>154</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>8</v>
@@ -2476,57 +2859,65 @@
         <v>19</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>123</v>
+        <v>155</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="6" t="s">
-        <v>124</v>
+        <v>156</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C91" s="7"/>
-      <c r="D91" s="7"/>
-      <c r="E91" s="7"/>
-      <c r="F91" s="7"/>
+      <c r="C91" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="G91" s="3" t="s">
-        <v>21</v>
+        <v>157</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="6" t="s">
-        <v>125</v>
+        <v>158</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C92" s="7"/>
-      <c r="D92" s="7"/>
-      <c r="E92" s="7"/>
-      <c r="F92" s="7"/>
+      <c r="C92" s="9"/>
+      <c r="D92" s="9"/>
+      <c r="E92" s="9"/>
+      <c r="F92" s="9"/>
       <c r="G92" s="3" t="s">
-        <v>21</v>
+        <v>101</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="6" t="s">
-        <v>126</v>
+        <v>159</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C93" s="7"/>
-      <c r="D93" s="7"/>
-      <c r="E93" s="7"/>
-      <c r="F93" s="7"/>
+      <c r="C93" s="9"/>
+      <c r="D93" s="9"/>
+      <c r="E93" s="9"/>
+      <c r="F93" s="9"/>
       <c r="G93" s="3" t="s">
-        <v>21</v>
+        <v>101</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="3" t="s">
-        <v>127</v>
+        <v>160</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>17</v>
@@ -2544,48 +2935,58 @@
         <v>12</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>109</v>
+        <v>135</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="6" t="s">
-        <v>128</v>
+      <c r="A95" s="3" t="s">
+        <v>161</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C95" s="7"/>
-      <c r="D95" s="7"/>
-      <c r="E95" s="7"/>
-      <c r="F95" s="7"/>
+      <c r="C95" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E95" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F95" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="G95" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="3" t="s">
-        <v>129</v>
+        <v>162</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C96" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E96" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G96" s="3"/>
+        <v>12</v>
+      </c>
+      <c r="G96" s="3" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="3" t="s">
-        <v>130</v>
+        <v>163</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>8</v>
@@ -2594,40 +2995,44 @@
         <v>9</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E97" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G97" s="3"/>
+        <v>12</v>
+      </c>
+      <c r="G97" s="3" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="3" t="s">
-        <v>131</v>
+        <v>164</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C98" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E98" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G98" s="3"/>
+        <v>12</v>
+      </c>
+      <c r="G98" s="3" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="99">
-      <c r="A99" s="3" t="s">
-        <v>132</v>
+      <c r="A99" s="6" t="s">
+        <v>166</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>17</v>
@@ -2642,10 +3047,10 @@
         <v>11</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>133</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Game Boy Printer Emulator - Games Support.xlsx
+++ b/Game Boy Printer Emulator - Games Support.xlsx
@@ -6,14 +6,14 @@
     <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$G$99</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$G$106</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="176">
   <si>
     <t>Title</t>
   </si>
@@ -132,7 +132,7 @@
     <t>Cross Hunter - X Hunter Version (クロスハンター エックス・ハンター・バージョン)</t>
   </si>
   <si>
-    <t>Daa! Daa! Daa! - Totsuzen Card de Battle de Uranai de! (だぁ!だぁ!だぁ! とつぜん★カードでバトルで占いで!?)</t>
+    <t>Daa! Daa! Daa! Totsuzen ★ Card de Battle de Uranai de!? (だぁ!だぁ!だぁ! とつぜん★カードでバトルで占いで!?)</t>
   </si>
   <si>
     <t>Daikaijuu Monogatari: The Miracle of the Zone II (大貝獣物語 ザ・ミラクル オブ ザ・ゾーンII)</t>
@@ -186,9 +186,21 @@
     <t>44 images to unlock</t>
   </si>
   <si>
+    <t>Doraemon no Game Boy de Asobouyo Deluxe 10 (ドラえもんのGBであそぼうよ デラックス10)</t>
+  </si>
+  <si>
+    <t>GB</t>
+  </si>
+  <si>
+    <t>Not tested yet</t>
+  </si>
+  <si>
     <t>Doraemon no Quiz Boy (ドラえもんのクイズボーイ)</t>
   </si>
   <si>
+    <t>Dungeon Savior (ダンジョンセイバー)</t>
+  </si>
+  <si>
     <t>E.T.: Digital Companion (never released in Japan)</t>
   </si>
   <si>
@@ -207,9 +219,6 @@
     <t>Game Boy Camera (ポケットカメラ)</t>
   </si>
   <si>
-    <t>GB</t>
-  </si>
-  <si>
     <t>One of the best game with the printer</t>
   </si>
   <si>
@@ -276,6 +285,9 @@
     <t>Palette 0xE8</t>
   </si>
   <si>
+    <t>Kettou Transformers Beast Wars - Beast Senshi Saikyou Ketteisen (決闘トランスフォーマービーストウォーズ ビースト戦士最強決定戦)</t>
+  </si>
+  <si>
     <t>Kidou Senkan Nadesico - Ruri Ruri Mahjong (機動戦艦ナデシコ ルリルリ麻雀)</t>
   </si>
   <si>
@@ -291,6 +303,12 @@
     <t>You can print password and an easter egg : The feature is accessed by selecting green alien, green alien, red circle, blue square. After skipping the found minigame page, a picture of a head attached to a body will display with an option to print. The heads can be selected with the D-Pad.</t>
   </si>
   <si>
+    <t>Konchuu Hakase 2 (昆虫博士2)</t>
+  </si>
+  <si>
+    <t>You can print your insect catched</t>
+  </si>
+  <si>
     <t>Little Nicky (never released in Japan)</t>
   </si>
   <si>
@@ -318,9 +336,6 @@
     <t>McDonald's Monogatari : Honobono Tenchou Ikusei Game (マクドナルド物語)</t>
   </si>
   <si>
-    <t>Not tested yet</t>
-  </si>
-  <si>
     <t>Mickey's Racing Adventure (never released in Japan)</t>
   </si>
   <si>
@@ -384,7 +399,7 @@
     <t>You can unlock many cute "seals" by playing minigames. Cheatcodes are available to obtain them.</t>
   </si>
   <si>
-    <t>Ojarumaru: Mitsunegai Jinja no Ennichi de Ojaru! (おじゃる丸 〜満願神社は縁日でおじゃる!〜)</t>
+    <t>Ojarumaru: Mitsunegai Jinja no Ennichi de Ojaru! (おじゃる丸 〜満願神社は縁日でおじゃる!)</t>
   </si>
   <si>
     <t>Pachinko Data Card - Chou Ataru-kun (Pachinko Data Card ちょ〜あたる君)</t>
@@ -417,7 +432,7 @@
     <t>Pokémon Gold (ポケットモンスター 金)</t>
   </si>
   <si>
-    <t>Pokémon Picross (Japan, unreleased)</t>
+    <t>Pokémon Picross (ポケモンピクロス, unreleased)</t>
   </si>
   <si>
     <t>palette 0x00, acts as 0xE4 (documented in pandocs)</t>
@@ -471,6 +486,9 @@
     <t>Shinseiki Evangelion Mahjong Hokan Keikaku (新世紀エヴァンゲリオン 麻雀補完計画)</t>
   </si>
   <si>
+    <t>SMARTCOM (never released in Japan)</t>
+  </si>
+  <si>
     <t>Sōko-ban Densetsu: Hikari to Yami no Kuni (倉庫番伝説 光と闇の国)</t>
   </si>
   <si>
@@ -489,12 +507,15 @@
     <t>You can print your profile and exchange it by serial cable</t>
   </si>
   <si>
+    <t>Sylvanian Families - Otogi no Kuni no Pendant (シルバニアファミリー 〜おとぎの国のペンダント)</t>
+  </si>
+  <si>
+    <t>Sylvanian Families 2 - Irozuku Mori no Fantasy (シルバニアファミリー2～色づく森のファンタジー)</t>
+  </si>
+  <si>
     <t>Sylvanian Families 3 - Hoshi Furu Yoru no Sunadokei (シルバニアファミリー３　星ふる夜のすなどけい)</t>
   </si>
   <si>
-    <t>Sylvanian Families: Otogi no Kuni no Pendant (シルバニアファミリー 〜おとぎの国のペンダント〜)</t>
-  </si>
-  <si>
     <t>Tales of Phantasia: Nakiri's Dungeon (テイルズ オブ ファンタジア なりきりダンジョン)</t>
   </si>
   <si>
@@ -514,6 +535,12 @@
   </si>
   <si>
     <t>Tsuri Sensei 2 (釣り先生2)</t>
+  </si>
+  <si>
+    <t>VS Lemmings (VS.レミングス)</t>
+  </si>
+  <si>
+    <t>Lemmings (USA) has no printer support but it is the same game without VS mode</t>
   </si>
 </sst>
 </file>
@@ -548,7 +575,7 @@
       <name val="Consolas"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -573,12 +600,6 @@
         <bgColor rgb="FFF3F3F3"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF9900"/>
-        <bgColor rgb="FFFF9900"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border/>
@@ -586,7 +607,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -611,13 +632,10 @@
     <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -883,7 +901,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="69.14"/>
+    <col customWidth="1" min="1" max="1" width="70.71"/>
     <col customWidth="1" min="2" max="4" width="15.86"/>
     <col customWidth="1" min="5" max="5" width="16.71"/>
     <col customWidth="1" min="6" max="6" width="19.57"/>
@@ -1282,7 +1300,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="3" t="s">
         <v>42</v>
       </c>
       <c r="B18" s="4" t="s">
@@ -1462,60 +1480,44 @@
         <v>57</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
+        <v>58</v>
+      </c>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
       <c r="G26" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="3" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>19</v>
-      </c>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
       <c r="G28" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29">
@@ -1538,15 +1540,15 @@
         <v>19</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>20</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="3" t="s">
-        <v>63</v>
+      <c r="A30" s="6" t="s">
+        <v>64</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>9</v>
@@ -1565,72 +1567,72 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="3" t="s">
         <v>66</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>19</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>67</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G32" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32" s="4" t="s">
+    </row>
+    <row r="33">
+      <c r="A33" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E32" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="3" t="s">
+      <c r="E33" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G33" s="3" t="s">
         <v>70</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="34">
@@ -1638,7 +1640,7 @@
         <v>71</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>9</v>
@@ -1653,12 +1655,12 @@
         <v>19</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>20</v>
+        <v>72</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>17</v>
@@ -1673,24 +1675,24 @@
         <v>11</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>73</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="6" t="s">
+      <c r="A36" s="3" t="s">
         <v>74</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>11</v>
@@ -1699,36 +1701,38 @@
         <v>19</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>75</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G37" s="3" t="s">
         <v>76</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F37" s="4"/>
-      <c r="G37" s="3" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>9</v>
@@ -1743,36 +1747,42 @@
         <v>19</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>20</v>
+        <v>78</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C39" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B39" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
+      <c r="D39" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="F39" s="4"/>
       <c r="G39" s="3" t="s">
-        <v>43</v>
+        <v>81</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="3" t="s">
-        <v>81</v>
+      <c r="A40" s="6" t="s">
+        <v>82</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>11</v>
@@ -1781,30 +1791,30 @@
         <v>19</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>82</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="6" t="s">
+      <c r="A41" s="3" t="s">
         <v>83</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
       <c r="G41" s="3" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="6" t="s">
+      <c r="A42" s="3" t="s">
         <v>84</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>9</v>
@@ -1819,45 +1829,45 @@
         <v>19</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>20</v>
+        <v>85</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C43" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D43" s="4" t="s">
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E43" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
+      <c r="E44" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="G44" s="3" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45">
@@ -1871,154 +1881,138 @@
         <v>9</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="3" t="s">
+      <c r="A46" s="6" t="s">
         <v>90</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>19</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
       <c r="G46" s="3" t="s">
-        <v>91</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="B47" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G47" s="3" t="s">
+      <c r="B48" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G48" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="3" t="s">
+    <row r="49">
+      <c r="A49" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B48" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G48" s="3" t="s">
+      <c r="B49" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G49" s="3" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="6" t="s">
+    <row r="50">
+      <c r="A50" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="B49" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D49" s="4" t="s">
+      <c r="B50" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E49" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F49" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G49" s="3" t="s">
+      <c r="E50" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G50" s="3" t="s">
         <v>97</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F50" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G50" s="3" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G51" s="3" t="s">
         <v>99</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G51" s="3" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="52">
@@ -2028,16 +2022,24 @@
       <c r="B52" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C52" s="4"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
-      <c r="F52" s="4"/>
+      <c r="C52" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="G52" s="3" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="3" t="s">
+      <c r="A53" s="6" t="s">
         <v>102</v>
       </c>
       <c r="B53" s="4" t="s">
@@ -2047,7 +2049,7 @@
         <v>9</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>11</v>
@@ -2056,12 +2058,12 @@
         <v>19</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>20</v>
+        <v>103</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>8</v>
@@ -2084,10 +2086,10 @@
     </row>
     <row r="55">
       <c r="A55" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>9</v>
@@ -2102,30 +2104,22 @@
         <v>19</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>20</v>
+        <v>63</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E56" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F56" s="4" t="s">
-        <v>19</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
       <c r="G56" s="3" t="s">
-        <v>106</v>
+        <v>59</v>
       </c>
     </row>
     <row r="57">
@@ -2133,7 +2127,7 @@
         <v>107</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>9</v>
@@ -2148,84 +2142,84 @@
         <v>19</v>
       </c>
       <c r="G57" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="3" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="6" t="s">
+      <c r="B58" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B58" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E58" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F58" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G58" s="3" t="s">
+      <c r="B59" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="3" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="6" t="s">
+      <c r="B60" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G60" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="B59" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E59" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F59" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="6" t="s">
+    </row>
+    <row r="61">
+      <c r="A61" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B60" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E60" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F60" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="6" t="s">
-        <v>114</v>
-      </c>
       <c r="B61" s="4" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>9</v>
@@ -2237,25 +2231,33 @@
         <v>11</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G61" s="3" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="10" t="s">
+      <c r="A62" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G62" s="3" t="s">
         <v>115</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C62" s="9"/>
-      <c r="D62" s="9"/>
-      <c r="E62" s="9"/>
-      <c r="F62" s="9"/>
-      <c r="G62" s="3" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="63">
@@ -2263,10 +2265,10 @@
         <v>116</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>9</v>
+        <v>80</v>
       </c>
       <c r="D63" s="4" t="s">
         <v>10</v>
@@ -2278,15 +2280,15 @@
         <v>12</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>9</v>
@@ -2301,11 +2303,11 @@
         <v>12</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="5" t="s">
+      <c r="A65" s="6" t="s">
         <v>119</v>
       </c>
       <c r="B65" s="4" t="s">
@@ -2324,30 +2326,22 @@
         <v>12</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="3" t="s">
+      <c r="A66" s="9" t="s">
         <v>120</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D66" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E66" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F66" s="4" t="s">
-        <v>19</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="C66" s="8"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
       <c r="G66" s="3" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
     </row>
     <row r="67">
@@ -2355,7 +2349,7 @@
         <v>121</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>9</v>
@@ -2367,33 +2361,41 @@
         <v>11</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G67" s="3" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="3" t="s">
+      <c r="A68" s="6" t="s">
         <v>123</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C68" s="4"/>
-      <c r="D68" s="4"/>
-      <c r="E68" s="4"/>
-      <c r="F68" s="4"/>
+      <c r="C68" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="G68" s="3" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="6" t="s">
+      <c r="A69" s="5" t="s">
         <v>124</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>9</v>
@@ -2408,15 +2410,15 @@
         <v>12</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>9</v>
@@ -2431,114 +2433,106 @@
         <v>19</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>127</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B71" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C71" s="9"/>
-      <c r="D71" s="9"/>
-      <c r="E71" s="9"/>
-      <c r="F71" s="9"/>
-      <c r="G71" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="6" t="s">
+      <c r="B72" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C72" s="4"/>
+      <c r="D72" s="4"/>
+      <c r="E72" s="4"/>
+      <c r="F72" s="4"/>
+      <c r="G72" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="B72" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D72" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E72" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F72" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G72" s="3" t="s">
+      <c r="B73" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G73" s="3" t="s">
         <v>130</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D73" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E73" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F73" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G73" s="3" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G74" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B74" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D74" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E74" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F74" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G74" s="3" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="75">
-      <c r="A75" s="3" t="s">
+      <c r="A75" s="6" t="s">
         <v>133</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D75" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E75" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F75" s="4" t="s">
-        <v>19</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="C75" s="8"/>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
       <c r="G75" s="3" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
     </row>
     <row r="76">
@@ -2546,7 +2540,7 @@
         <v>134</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>9</v>
@@ -2558,7 +2552,7 @@
         <v>11</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>135</v>
@@ -2578,21 +2572,21 @@
         <v>10</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F77" s="4" t="s">
         <v>19</v>
       </c>
       <c r="G77" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="3" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="6" t="s">
-        <v>138</v>
-      </c>
       <c r="B78" s="4" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>9</v>
@@ -2612,7 +2606,7 @@
     </row>
     <row r="79">
       <c r="A79" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>17</v>
@@ -2624,7 +2618,7 @@
         <v>10</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F79" s="4" t="s">
         <v>19</v>
@@ -2634,64 +2628,72 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="3" t="s">
+      <c r="A80" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F80" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G80" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="B80" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D80" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E80" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F80" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G80" s="3" t="s">
+    </row>
+    <row r="81">
+      <c r="A81" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F82" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G82" s="3" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C81" s="9"/>
-      <c r="D81" s="9"/>
-      <c r="E81" s="9"/>
-      <c r="F81" s="9"/>
-      <c r="G81" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D82" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E82" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F82" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G82" s="3" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="83">
@@ -2708,21 +2710,21 @@
         <v>10</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F83" s="4" t="s">
         <v>19</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>145</v>
+        <v>20</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C84" s="4" t="s">
         <v>9</v>
@@ -2734,86 +2736,94 @@
         <v>11</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>147</v>
+        <v>20</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C85" s="8"/>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F86" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G86" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="B85" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D85" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E85" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F85" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G85" s="3" t="s">
+    </row>
+    <row r="87">
+      <c r="A87" s="3" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="6" t="s">
+      <c r="B87" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F87" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G87" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="B86" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D86" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E86" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F86" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G86" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="6" t="s">
+    </row>
+    <row r="88">
+      <c r="A88" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="B87" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C87" s="4"/>
-      <c r="D87" s="4"/>
-      <c r="E87" s="4"/>
-      <c r="F87" s="4"/>
-      <c r="G87" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="6" t="s">
+      <c r="B88" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F88" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G88" s="3" t="s">
         <v>152</v>
-      </c>
-      <c r="B88" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C88" s="9"/>
-      <c r="D88" s="9"/>
-      <c r="E88" s="9"/>
-      <c r="F88" s="9"/>
-      <c r="G88" s="3" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="89">
@@ -2827,7 +2837,7 @@
         <v>9</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E89" s="4" t="s">
         <v>11</v>
@@ -2836,30 +2846,30 @@
         <v>19</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>20</v>
+        <v>154</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="3" t="s">
+      <c r="A90" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F90" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G90" s="3" t="s">
         <v>154</v>
-      </c>
-      <c r="B90" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D90" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E90" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F90" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G90" s="3" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="91">
@@ -2867,58 +2877,50 @@
         <v>156</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C91" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D91" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E91" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F91" s="4" t="s">
-        <v>19</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="C91" s="4"/>
+      <c r="D91" s="4"/>
+      <c r="E91" s="4"/>
+      <c r="F91" s="4"/>
       <c r="G91" s="3" t="s">
-        <v>157</v>
+        <v>43</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C92" s="9"/>
-      <c r="D92" s="9"/>
-      <c r="E92" s="9"/>
-      <c r="F92" s="9"/>
+        <v>58</v>
+      </c>
+      <c r="C92" s="4"/>
+      <c r="D92" s="4"/>
+      <c r="E92" s="4"/>
+      <c r="F92" s="4"/>
       <c r="G92" s="3" t="s">
-        <v>101</v>
+        <v>59</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C93" s="8"/>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="B93" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C93" s="9"/>
-      <c r="D93" s="9"/>
-      <c r="E93" s="9"/>
-      <c r="F93" s="9"/>
-      <c r="G93" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="3" t="s">
-        <v>160</v>
-      </c>
       <c r="B94" s="4" t="s">
         <v>17</v>
       </c>
@@ -2926,24 +2928,24 @@
         <v>9</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>135</v>
+        <v>20</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C95" s="4" t="s">
         <v>9</v>
@@ -2958,15 +2960,15 @@
         <v>19</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>20</v>
+        <v>161</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="3" t="s">
+      <c r="A96" s="6" t="s">
         <v>162</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C96" s="4" t="s">
         <v>9</v>
@@ -2978,56 +2980,40 @@
         <v>11</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>117</v>
+        <v>163</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="3" t="s">
-        <v>163</v>
+      <c r="A97" s="6" t="s">
+        <v>164</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C97" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D97" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E97" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F97" s="4" t="s">
-        <v>12</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="C97" s="8"/>
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
       <c r="G97" s="3" t="s">
-        <v>117</v>
+        <v>59</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="3" t="s">
-        <v>164</v>
+      <c r="A98" s="6" t="s">
+        <v>165</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C98" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D98" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E98" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F98" s="4" t="s">
-        <v>12</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="C98" s="8"/>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
       <c r="G98" s="3" t="s">
-        <v>165</v>
+        <v>59</v>
       </c>
     </row>
     <row r="99">
@@ -3035,69 +3021,267 @@
         <v>166</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C99" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D99" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E99" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F99" s="4" t="s">
-        <v>19</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="C99" s="8"/>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
       <c r="G99" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F100" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E101" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F101" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G101" s="3" t="s">
         <v>20</v>
       </c>
     </row>
+    <row r="102">
+      <c r="A102" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E102" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F102" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E103" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F103" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G103" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E104" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F104" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G104" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E105" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F105" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G105" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E106" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F106" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G106" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="6"/>
+      <c r="B107" s="4"/>
+      <c r="C107" s="4"/>
+      <c r="D107" s="4"/>
+      <c r="E107" s="4"/>
+      <c r="F107" s="4"/>
+      <c r="G107" s="3"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="6"/>
+      <c r="B108" s="4"/>
+      <c r="C108" s="4"/>
+      <c r="D108" s="4"/>
+      <c r="E108" s="4"/>
+      <c r="F108" s="4"/>
+      <c r="G108" s="3"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="6"/>
+      <c r="B109" s="4"/>
+      <c r="C109" s="4"/>
+      <c r="D109" s="4"/>
+      <c r="E109" s="4"/>
+      <c r="F109" s="4"/>
+      <c r="G109" s="3"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="6"/>
+      <c r="B110" s="4"/>
+      <c r="C110" s="4"/>
+      <c r="D110" s="4"/>
+      <c r="E110" s="4"/>
+      <c r="F110" s="4"/>
+      <c r="G110" s="3"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="6"/>
+      <c r="B111" s="4"/>
+      <c r="C111" s="4"/>
+      <c r="D111" s="4"/>
+      <c r="E111" s="4"/>
+      <c r="F111" s="4"/>
+      <c r="G111" s="3"/>
+    </row>
   </sheetData>
-  <autoFilter ref="$A$1:$G$99">
-    <sortState ref="A1:G99">
-      <sortCondition ref="A1:A99"/>
-      <sortCondition descending="1" ref="C1:C99"/>
-      <sortCondition ref="G1:G99"/>
-      <sortCondition ref="E1:E99"/>
-      <sortCondition ref="D1:D99"/>
-      <sortCondition ref="B1:B99"/>
+  <autoFilter ref="$A$1:$G$106">
+    <sortState ref="A1:G106">
+      <sortCondition ref="A1:A106"/>
+      <sortCondition descending="1" ref="C1:C106"/>
+      <sortCondition ref="G1:G106"/>
+      <sortCondition ref="E1:E106"/>
+      <sortCondition ref="D1:D106"/>
+      <sortCondition ref="B1:B106"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="B1:C99">
+  <conditionalFormatting sqref="B1:C111">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:C99">
+  <conditionalFormatting sqref="B1:C111">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:C99">
+  <conditionalFormatting sqref="B1:C111">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"Partial"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:G99">
+  <conditionalFormatting sqref="A1:G111">
     <cfRule type="expression" dxfId="3" priority="4">
       <formula>ISEVEN(ROW())</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" sqref="F2:F99">
+    <dataValidation type="list" allowBlank="1" sqref="F2:F111">
       <formula1>"Standard,Inverted,Custom"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="B2:B99">
+    <dataValidation type="list" allowBlank="1" sqref="B2:B111">
       <formula1>"GB,GB/GBC,GBC"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E2:E99">
+    <dataValidation type="list" allowBlank="1" sqref="E2:E111">
       <formula1>"No,Yes"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D2:D99">
+    <dataValidation type="list" allowBlank="1" sqref="D2:D111">
       <formula1>"Normal,Double"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="C2:C99">
+    <dataValidation type="list" allowBlank="1" sqref="C2:C111">
       <formula1>"Yes,Partial,No"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Game Boy Printer Emulator - Games Support.xlsx
+++ b/Game Boy Printer Emulator - Games Support.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="180">
   <si>
     <t>Title</t>
   </si>
@@ -192,102 +192,108 @@
     <t>GB</t>
   </si>
   <si>
+    <t>You can print your scores at minigames.</t>
+  </si>
+  <si>
+    <t>Doraemon no Quiz Boy (ドラえもんのクイズボーイ)</t>
+  </si>
+  <si>
+    <t>Dungeon Savior (ダンジョンセイバー)</t>
+  </si>
+  <si>
+    <t>You can print the characters of your team after their recruitment (it's a dungeon keeper game)</t>
+  </si>
+  <si>
+    <t>E.T.: Digital Companion (never released in Japan)</t>
+  </si>
+  <si>
+    <t>Lazy end of printing with blank packets rather than standard protocol (use of margins)</t>
+  </si>
+  <si>
+    <t>Fairy Kitty no Kaiun Jiten: Yousei no Kuni no Uranai Shugyou (フェアリーキティの開運辞典 妖精の国の占い修行)</t>
+  </si>
+  <si>
+    <t>Poor gameplay</t>
+  </si>
+  <si>
+    <t>Fisher-Price Rescue Heroes: Fire Frenzy (never released in Japan)</t>
+  </si>
+  <si>
+    <t>Game Boy Camera (ポケットカメラ)</t>
+  </si>
+  <si>
+    <t>One of the best game with the printer</t>
+  </si>
+  <si>
+    <t>Golf Ou: The King of Golf (ゴルフ王)</t>
+  </si>
+  <si>
+    <t>You can print your ranking</t>
+  </si>
+  <si>
+    <t>Hamster Club (ハムスター倶楽部)</t>
+  </si>
+  <si>
+    <t>88 different images to print !</t>
+  </si>
+  <si>
+    <t>Hamster Paradise (ハムスターパラダイス)</t>
+  </si>
+  <si>
+    <t>Hamster Paradise 2 (ハムスターパラダイス2)</t>
+  </si>
+  <si>
+    <t>Harvest Moon 2 (牧場物語GB2)</t>
+  </si>
+  <si>
+    <t>Palette 0xD2, you can prints events and insects from the book store in village.</t>
+  </si>
+  <si>
+    <t>Hello Kitty no Beads Koubou (ハローキティのビーズ工房)</t>
+  </si>
+  <si>
+    <t>You have to complete some puzzle rounds to allow printing something</t>
+  </si>
+  <si>
+    <t>Hello Kitty no magical museum (ハローキティのマジカルミュージアム)</t>
+  </si>
+  <si>
+    <t>Partial</t>
+  </si>
+  <si>
+    <t>Crashes before sending the print command</t>
+  </si>
+  <si>
+    <t>Hello Kitty Pocket Camera (Japan, unreleased)</t>
+  </si>
+  <si>
+    <t>Jinsei Game Tomodachi takusan Tsukurou Yo! (人生ゲーム 友達たくさんつくろうよ!)</t>
+  </si>
+  <si>
+    <t>Kakurenbo Battle Monster Tactics (モンスタータクティクス)</t>
+  </si>
+  <si>
+    <t>You have to beat 2 bosses (easy) and discuss with people until an underground passage opens on top rigth of the map (just on top of your beginning room). The underground room with "M" in front of it contains the printer feature. Warning, the surface room with "M" in front is not the good one.</t>
+  </si>
+  <si>
+    <t>Kanji Boy (漢字BOY)</t>
+  </si>
+  <si>
+    <t>Karamuchou wa Oosawagi!: Porinkiis to Okashina Nakamatachi (カラムー町は大さわぎ! 〜ポリンキーズとおかしな仲間たち〜)</t>
+  </si>
+  <si>
+    <t>Kaseki Sousei Reborn II: Monster Digger (化石創世リボーン2 〜モンスターティガー〜)</t>
+  </si>
+  <si>
+    <t>Palette 0xE8</t>
+  </si>
+  <si>
+    <t>Kettou Transformers Beast Wars - Beast Senshi Saikyou Ketteisen (決闘トランスフォーマービーストウォーズ ビースト戦士最強決定戦)</t>
+  </si>
+  <si>
     <t>Not tested yet</t>
   </si>
   <si>
-    <t>Doraemon no Quiz Boy (ドラえもんのクイズボーイ)</t>
-  </si>
-  <si>
-    <t>Dungeon Savior (ダンジョンセイバー)</t>
-  </si>
-  <si>
-    <t>E.T.: Digital Companion (never released in Japan)</t>
-  </si>
-  <si>
-    <t>Lazy end of printing with blank packets rather than standard protocol (use of margins)</t>
-  </si>
-  <si>
-    <t>Fairy Kitty no Kaiun Jiten: Yousei no Kuni no Uranai Shugyou (フェアリーキティの開運辞典 妖精の国の占い修行)</t>
-  </si>
-  <si>
-    <t>Poor gameplay</t>
-  </si>
-  <si>
-    <t>Fisher-Price Rescue Heroes: Fire Frenzy (never released in Japan)</t>
-  </si>
-  <si>
-    <t>Game Boy Camera (ポケットカメラ)</t>
-  </si>
-  <si>
-    <t>One of the best game with the printer</t>
-  </si>
-  <si>
-    <t>Golf Ou: The King of Golf (ゴルフ王)</t>
-  </si>
-  <si>
-    <t>You can print your ranking</t>
-  </si>
-  <si>
-    <t>Hamster Club (ハムスター倶楽部)</t>
-  </si>
-  <si>
-    <t>88 different images to print !</t>
-  </si>
-  <si>
-    <t>Hamster Paradise (ハムスターパラダイス)</t>
-  </si>
-  <si>
-    <t>Hamster Paradise 2 (ハムスターパラダイス2)</t>
-  </si>
-  <si>
-    <t>Harvest Moon 2 (牧場物語GB2)</t>
-  </si>
-  <si>
-    <t>Palette 0xD2, you can prints events and insects from the book store in village.</t>
-  </si>
-  <si>
-    <t>Hello Kitty no Beads Koubou (ハローキティのビーズ工房)</t>
-  </si>
-  <si>
-    <t>You have to complete some puzzle rounds to allow printing something</t>
-  </si>
-  <si>
-    <t>Hello Kitty no magical museum (ハローキティのマジカルミュージアム)</t>
-  </si>
-  <si>
-    <t>Partial</t>
-  </si>
-  <si>
-    <t>Crashes before sending the print command</t>
-  </si>
-  <si>
-    <t>Hello Kitty Pocket Camera (Japan, unreleased)</t>
-  </si>
-  <si>
-    <t>Jinsei Game Tomodachi takusan Tsukurou Yo! (人生ゲーム 友達たくさんつくろうよ!)</t>
-  </si>
-  <si>
-    <t>Kakurenbo Battle Monster Tactics (モンスタータクティクス)</t>
-  </si>
-  <si>
-    <t>You have to beat 2 bosses (easy) and discuss with people until an underground passage opens on top rigth of the map (just on top of your beginning room). The underground room with "M" in front of it contains the printer feature. Warning, the surface room with "M" in front is not the good one.</t>
-  </si>
-  <si>
-    <t>Kanji Boy (漢字BOY)</t>
-  </si>
-  <si>
-    <t>Karamuchou wa Oosawagi!: Porinkiis to Okashina Nakamatachi (カラムー町は大さわぎ! 〜ポリンキーズとおかしな仲間たち〜)</t>
-  </si>
-  <si>
-    <t>Kaseki Sousei Reborn II: Monster Digger (化石創世リボーン2 〜モンスターティガー〜)</t>
-  </si>
-  <si>
-    <t>Palette 0xE8</t>
-  </si>
-  <si>
-    <t>Kettou Transformers Beast Wars - Beast Senshi Saikyou Ketteisen (決闘トランスフォーマービーストウォーズ ビースト戦士最強決定戦)</t>
-  </si>
-  <si>
     <t>Kidou Senkan Nadesico - Ruri Ruri Mahjong (機動戦艦ナデシコ ルリルリ麻雀)</t>
   </si>
   <si>
@@ -396,7 +402,7 @@
     <t>Nintama Rantarou GB: Eawase Challenge Puzzle (忍たま乱太郎GB えあわせチャレンジパズル)</t>
   </si>
   <si>
-    <t>You can unlock many cute "seals" by playing minigames. Cheatcodes are available to obtain them.</t>
+    <t>You can unlock many cute "seals" by playing minigames or entering cheatcodes. Enter ZEEN, ININ, WINS, CUBE, ITEM, PAZA, PAZB, PAZC, STOM in the code zone to unlock seals and puzzles to print.</t>
   </si>
   <si>
     <t>Ojarumaru: Mitsunegai Jinja no Ennichi de Ojaru! (おじゃる丸 〜満願神社は縁日でおじゃる!)</t>
@@ -417,6 +423,9 @@
     <t>Pocket Family 2 (ポケットファミリーGB2)</t>
   </si>
   <si>
+    <t>Cannot be emulated, original cartridge mandatory, HuC-3 mapper</t>
+  </si>
+  <si>
     <t>Pocket Puyo Puyo-n (ぽけっとぷよぷよ〜ん)</t>
   </si>
   <si>
@@ -487,6 +496,9 @@
   </si>
   <si>
     <t>SMARTCOM (never released in Japan)</t>
+  </si>
+  <si>
+    <t>Invalid logo, cannot boot on original hardware</t>
   </si>
   <si>
     <t>Sōko-ban Densetsu: Hikari to Yami no Kuni (倉庫番伝説 光と闇の国)</t>
@@ -575,7 +587,7 @@
       <name val="Consolas"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -600,6 +612,12 @@
         <bgColor rgb="FFF3F3F3"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE06666"/>
+        <bgColor rgb="FFE06666"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border/>
@@ -607,7 +625,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -637,6 +655,15 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1482,10 +1509,18 @@
       <c r="B26" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
+      <c r="C26" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="G26" s="3" t="s">
         <v>59</v>
       </c>
@@ -1512,17 +1547,25 @@
       <c r="B28" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
+      <c r="C28" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="G28" s="3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>8</v>
@@ -1540,12 +1583,12 @@
         <v>19</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>17</v>
@@ -1563,12 +1606,12 @@
         <v>19</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>8</v>
@@ -1591,7 +1634,7 @@
     </row>
     <row r="32">
       <c r="A32" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>58</v>
@@ -1609,12 +1652,12 @@
         <v>19</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>17</v>
@@ -1632,12 +1675,12 @@
         <v>19</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>17</v>
@@ -1655,12 +1698,12 @@
         <v>19</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>17</v>
@@ -1683,7 +1726,7 @@
     </row>
     <row r="36">
       <c r="A36" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>8</v>
@@ -1706,7 +1749,7 @@
     </row>
     <row r="37">
       <c r="A37" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>17</v>
@@ -1724,12 +1767,12 @@
         <v>12</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>17</v>
@@ -1747,18 +1790,18 @@
         <v>19</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>10</v>
@@ -1768,12 +1811,12 @@
       </c>
       <c r="F39" s="4"/>
       <c r="G39" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>58</v>
@@ -1796,7 +1839,7 @@
     </row>
     <row r="41">
       <c r="A41" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>17</v>
@@ -1811,7 +1854,7 @@
     </row>
     <row r="42">
       <c r="A42" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>8</v>
@@ -1829,12 +1872,12 @@
         <v>19</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>17</v>
@@ -1849,7 +1892,7 @@
     </row>
     <row r="44">
       <c r="A44" s="6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>17</v>
@@ -1872,7 +1915,7 @@
     </row>
     <row r="45">
       <c r="A45" s="6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>17</v>
@@ -1890,12 +1933,12 @@
         <v>12</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>17</v>
@@ -1905,12 +1948,12 @@
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
       <c r="G46" s="3" t="s">
-        <v>59</v>
+        <v>92</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>8</v>
@@ -1925,7 +1968,7 @@
     </row>
     <row r="48">
       <c r="A48" s="6" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>17</v>
@@ -1943,12 +1986,12 @@
         <v>19</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>8</v>
@@ -1966,12 +2009,12 @@
         <v>19</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="6" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>17</v>
@@ -1989,12 +2032,12 @@
         <v>19</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="3" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>8</v>
@@ -2012,12 +2055,12 @@
         <v>12</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="3" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>8</v>
@@ -2035,12 +2078,12 @@
         <v>19</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="6" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>8</v>
@@ -2058,12 +2101,12 @@
         <v>19</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>8</v>
@@ -2086,7 +2129,7 @@
     </row>
     <row r="55">
       <c r="A55" s="3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>17</v>
@@ -2104,12 +2147,12 @@
         <v>19</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>8</v>
@@ -2119,12 +2162,12 @@
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
       <c r="G56" s="3" t="s">
-        <v>59</v>
+        <v>92</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="3" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>8</v>
@@ -2147,7 +2190,7 @@
     </row>
     <row r="58">
       <c r="A58" s="3" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>8</v>
@@ -2170,7 +2213,7 @@
     </row>
     <row r="59">
       <c r="A59" s="3" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>8</v>
@@ -2193,7 +2236,7 @@
     </row>
     <row r="60">
       <c r="A60" s="3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>17</v>
@@ -2211,12 +2254,12 @@
         <v>19</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="3" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>58</v>
@@ -2234,18 +2277,18 @@
         <v>19</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="6" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D62" s="4" t="s">
         <v>10</v>
@@ -2257,18 +2300,18 @@
         <v>12</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="6" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D63" s="4" t="s">
         <v>10</v>
@@ -2280,12 +2323,12 @@
         <v>12</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="6" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>8</v>
@@ -2303,12 +2346,12 @@
         <v>12</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="6" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>8</v>
@@ -2326,12 +2369,12 @@
         <v>12</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="9" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>8</v>
@@ -2346,7 +2389,7 @@
     </row>
     <row r="67">
       <c r="A67" s="6" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>17</v>
@@ -2364,12 +2407,12 @@
         <v>12</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="6" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>17</v>
@@ -2387,12 +2430,12 @@
         <v>12</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="5" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>8</v>
@@ -2410,12 +2453,12 @@
         <v>12</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>17</v>
@@ -2438,7 +2481,7 @@
     </row>
     <row r="71">
       <c r="A71" s="6" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>58</v>
@@ -2456,12 +2499,12 @@
         <v>19</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="3" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>17</v>
@@ -2471,12 +2514,12 @@
       <c r="E72" s="4"/>
       <c r="F72" s="4"/>
       <c r="G72" s="3" t="s">
-        <v>59</v>
+        <v>92</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="6" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>58</v>
@@ -2494,12 +2537,12 @@
         <v>12</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="3" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>8</v>
@@ -2517,27 +2560,27 @@
         <v>19</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="6" t="s">
-        <v>133</v>
+      <c r="A75" s="9" t="s">
+        <v>135</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C75" s="8"/>
+      <c r="C75" s="4"/>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="3" t="s">
-        <v>59</v>
+        <v>136</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="6" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>8</v>
@@ -2555,12 +2598,12 @@
         <v>19</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>17</v>
@@ -2583,7 +2626,7 @@
     </row>
     <row r="78">
       <c r="A78" s="3" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>8</v>
@@ -2606,7 +2649,7 @@
     </row>
     <row r="79">
       <c r="A79" s="3" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>17</v>
@@ -2629,7 +2672,7 @@
     </row>
     <row r="80">
       <c r="A80" s="6" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>17</v>
@@ -2647,12 +2690,12 @@
         <v>12</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="3" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>17</v>
@@ -2670,12 +2713,12 @@
         <v>19</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="6" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>17</v>
@@ -2698,7 +2741,7 @@
     </row>
     <row r="83">
       <c r="A83" s="3" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>17</v>
@@ -2721,7 +2764,7 @@
     </row>
     <row r="84">
       <c r="A84" s="3" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>17</v>
@@ -2744,7 +2787,7 @@
     </row>
     <row r="85">
       <c r="A85" s="6" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>58</v>
@@ -2759,7 +2802,7 @@
     </row>
     <row r="86">
       <c r="A86" s="3" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>8</v>
@@ -2777,12 +2820,12 @@
         <v>19</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="3" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>17</v>
@@ -2800,12 +2843,12 @@
         <v>19</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="3" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>8</v>
@@ -2823,12 +2866,12 @@
         <v>12</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="6" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>17</v>
@@ -2846,12 +2889,12 @@
         <v>19</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="6" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>17</v>
@@ -2869,12 +2912,12 @@
         <v>19</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="6" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>8</v>
@@ -2888,23 +2931,27 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="B92" s="4" t="s">
+      <c r="A92" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="B92" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C92" s="4"/>
-      <c r="D92" s="4"/>
-      <c r="E92" s="4"/>
-      <c r="F92" s="4"/>
-      <c r="G92" s="3" t="s">
-        <v>59</v>
+      <c r="C92" s="11"/>
+      <c r="D92" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E92" s="11"/>
+      <c r="F92" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G92" s="12" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="6" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>17</v>
@@ -2914,12 +2961,12 @@
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="3" t="s">
-        <v>59</v>
+        <v>92</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="6" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>17</v>
@@ -2942,7 +2989,7 @@
     </row>
     <row r="95">
       <c r="A95" s="3" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>8</v>
@@ -2960,12 +3007,12 @@
         <v>19</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="6" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>17</v>
@@ -2983,12 +3030,12 @@
         <v>19</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="6" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>17</v>
@@ -2998,12 +3045,12 @@
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="3" t="s">
-        <v>59</v>
+        <v>92</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="6" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>8</v>
@@ -3013,12 +3060,12 @@
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="3" t="s">
-        <v>59</v>
+        <v>92</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="6" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>8</v>
@@ -3028,12 +3075,12 @@
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="3" t="s">
-        <v>59</v>
+        <v>92</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="3" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>17</v>
@@ -3051,12 +3098,12 @@
         <v>12</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="3" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>17</v>
@@ -3079,7 +3126,7 @@
     </row>
     <row r="102">
       <c r="A102" s="3" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>8</v>
@@ -3097,12 +3144,12 @@
         <v>12</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="3" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>8</v>
@@ -3120,12 +3167,12 @@
         <v>12</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="3" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>17</v>
@@ -3143,12 +3190,12 @@
         <v>12</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="6" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B105" s="4" t="s">
         <v>17</v>
@@ -3171,7 +3218,7 @@
     </row>
     <row r="106">
       <c r="A106" s="6" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B106" s="4" t="s">
         <v>8</v>
@@ -3189,7 +3236,7 @@
         <v>19</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="107">

--- a/Game Boy Printer Emulator - Games Support.xlsx
+++ b/Game Boy Printer Emulator - Games Support.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="210">
   <si>
     <t>Title</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Alice in Wonderland (never released in Japan)</t>
   </si>
   <si>
-    <t>One palette for the image (0xD2), another for the footer (0x47). Eur version has no printing feature, only USA.</t>
+    <t>Palette 0xD2 for the image, 0x47 for the footer. Eur version has no printing feature, only USA.</t>
   </si>
   <si>
     <t>Animal Breeder 3 (あにまるぶりーだー3)</t>
@@ -75,25 +75,25 @@
     <t>Standard</t>
   </si>
   <si>
-    <t>Palette 0xE4</t>
+    <t>Palette 0xE4, average images to print</t>
   </si>
   <si>
     <t>Animal Breeder 4 (あにまるぶり〜だ〜4)</t>
   </si>
   <si>
-    <t>Very cute images to print</t>
+    <t>Palette 0xE4, very cute images to print</t>
   </si>
   <si>
     <t>Aqualife (アクアライフ)</t>
   </si>
   <si>
-    <t>You can print fish information from the tank menu, not from the encyclopedia</t>
+    <t>Palette 0xE4, you can print fish information from the tank menu, not from the encyclopedia</t>
   </si>
   <si>
     <t>Asteroids (never released in Japan)</t>
   </si>
   <si>
-    <t>One certificate at the end of game only (can be reached with cheat code). Enter "CHEATONX" as a password. Then while playing the game, press Select to display a cheat menu. Press Up or Down to select a level or Left or Right to select a zone. Press A for invincibility (001 will appear if done correctly).</t>
+    <t>Palette 0xE4. One certificate at the end of game only (can be reached with cheat code). Enter "CHEATONX" as a password. Then while playing the game, press Select to display a cheat menu. Press Up or Down to select a level or Left or Right to select a zone. Press A for invincibility (001 will appear if done correctly).</t>
   </si>
   <si>
     <t>Austin Powers: Oh, Behave! (never released in Japan)</t>
@@ -108,16 +108,19 @@
     <t>Cardcaptor Sakura: Itsumo Sakura-chan to Issho! (カードキャプターさくら 〜いつもさくらちゃんと一緒〜)</t>
   </si>
   <si>
+    <t>Palette 0xE4, you can print custom banners.</t>
+  </si>
+  <si>
     <t>Cardcaptor Sakura: Tomoe Shōgakkō Daiundōkai (カードキャプターさくら 〜友枝小学校大運動会〜)</t>
   </si>
   <si>
-    <t>Palette 0x1B, you can print fun banners</t>
+    <t>Palette 0x1B, you can print custom banners.</t>
   </si>
   <si>
     <t>Chee-Chai Alien (ちっちゃいエイリアン)</t>
   </si>
   <si>
-    <t>You have to catch monster #10 (Kirako, キラコ) of the last "pheromone" list or level (about 3 hours required), play with it the minigame with printer connected and something weird happens...</t>
+    <t>Palette 0xE4. You have to catch monster #10 (Kirako, キラコ) of the last "pheromone" list or level (about 3 hours required), play with it the minigame with printer connected and something weird happens...</t>
   </si>
   <si>
     <t>Cross Hunter - Monster Hunter Version (クロスハンター モンスター・ハンター・バージョン)</t>
@@ -135,37 +138,43 @@
     <t>Daa! Daa! Daa! Totsuzen ★ Card de Battle de Uranai de!? (だぁ!だぁ!だぁ! とつぜん★カードでバトルで占いで!?)</t>
   </si>
   <si>
+    <t>Palette 0xE4, you can print your character profile.</t>
+  </si>
+  <si>
     <t>Daikaijuu Monogatari: The Miracle of the Zone II (大貝獣物語 ザ・ミラクル オブ ザ・ゾーンII)</t>
   </si>
   <si>
-    <t>Very complete printing features. You can print your card deck nearly from the beginning.</t>
+    <t>Palette 0xE4. Very complete printing features. You can print your card deck nearly from the beginning.</t>
   </si>
   <si>
     <t>Dejiko no Mahjong Party (でじこの麻雀パーティー)</t>
   </si>
   <si>
-    <t>I'm currently unable to unlock something</t>
+    <t>Palette 0xE4, I had to manipulate the wram with BGB to get infinite money to unlock things</t>
   </si>
   <si>
     <t>Densha de GO! 2 (電車でGO!2)</t>
   </si>
   <si>
-    <t>You can print train images from the beginning</t>
+    <t>Palette 0xE4. You can print train images from the beginning</t>
   </si>
   <si>
     <t>Dino Breeder 3 - Gaia Fukkatsu (ディノブリーダー3 〜ガイア復活〜)</t>
   </si>
   <si>
-    <t>Uses a margin of 2 lines instead of 3 usually</t>
+    <t>Palette 0xE4. Uses a margin of 2 lines instead of 3 usually</t>
   </si>
   <si>
     <t>Disney's Dinosaur (never released in Japan)</t>
   </si>
   <si>
+    <t>Palette 0xE4, you can print... dinosaurs unlocked by playing.</t>
+  </si>
+  <si>
     <t>Disney's Tarzan (ディズニーズ ターザン)</t>
   </si>
   <si>
-    <t>Wrong palette, is 0xE1, must be 0xD2 (LG and DG inverted)</t>
+    <t>Palette 0xE1, must be 0xD2 (LG and DG inverted)</t>
   </si>
   <si>
     <t>Donkey Kong Country (ドンキーコング2001)</t>
@@ -177,13 +186,13 @@
     <t>Doraemon Kart 2 (ドラえもんカート2)</t>
   </si>
   <si>
-    <t>Poor kart game. You can print the time records</t>
+    <t>Palette 0xE4. Poor kart game. You can print the time records</t>
   </si>
   <si>
     <t>Doraemon Memories - Nobita no Omoide Daibouken (ドラえもんメモリーズ のび太の想い出大冒険)</t>
   </si>
   <si>
-    <t>44 images to unlock</t>
+    <t>Palette 0xE4. 44 images to unlock</t>
   </si>
   <si>
     <t>Doraemon no Game Boy de Asobouyo Deluxe 10 (ドラえもんのGBであそぼうよ デラックス10)</t>
@@ -192,54 +201,63 @@
     <t>GB</t>
   </si>
   <si>
-    <t>You can print your scores at minigames.</t>
+    <t>Palette 0xE4. You can print your scores at minigames.</t>
   </si>
   <si>
     <t>Doraemon no Quiz Boy (ドラえもんのクイズボーイ)</t>
   </si>
   <si>
+    <t>Palette 0xE4. You have to beat the entire game to print a diploma. Honestly impossible to beat without emulator. No border at the end of image...</t>
+  </si>
+  <si>
     <t>Dungeon Savior (ダンジョンセイバー)</t>
   </si>
   <si>
-    <t>You can print the characters of your team after their recruitment (it's a dungeon keeper game)</t>
+    <t>Palette 0xE4. You can print the characters of your team after their recruitment (it's a dungeon keeper game)</t>
   </si>
   <si>
     <t>E.T.: Digital Companion (never released in Japan)</t>
   </si>
   <si>
-    <t>Lazy end of printing with blank packets rather than standard protocol (use of margins)</t>
+    <t>Palette 0xE4. Lazy end of printing with blank packets rather than standard protocol (use of margins)</t>
   </si>
   <si>
     <t>Fairy Kitty no Kaiun Jiten: Yousei no Kuni no Uranai Shugyou (フェアリーキティの開運辞典 妖精の国の占い修行)</t>
   </si>
   <si>
-    <t>Poor gameplay</t>
+    <t>Palette 0xE4. Poor gameplay, you can print small stories.</t>
   </si>
   <si>
     <t>Fisher-Price Rescue Heroes: Fire Frenzy (never released in Japan)</t>
   </si>
   <si>
+    <t>Palette 0xE4, you can print special badges by playing levels.</t>
+  </si>
+  <si>
     <t>Game Boy Camera (ポケットカメラ)</t>
   </si>
   <si>
-    <t>One of the best game with the printer</t>
+    <t>Palette 0xE4. One of the best game with the printer.</t>
   </si>
   <si>
     <t>Golf Ou: The King of Golf (ゴルフ王)</t>
   </si>
   <si>
-    <t>You can print your ranking</t>
+    <t>Palette 0xE4. You can print your ranking, even if you loose.</t>
   </si>
   <si>
     <t>Hamster Club (ハムスター倶楽部)</t>
   </si>
   <si>
-    <t>88 different images to print !</t>
+    <t>Palette 0xE4. 88 different images to print, but boring as shit to unlock !</t>
   </si>
   <si>
     <t>Hamster Paradise (ハムスターパラダイス)</t>
   </si>
   <si>
+    <t>Palette 0xE4, lots of average hamster images to print. Custom borders.</t>
+  </si>
+  <si>
     <t>Hamster Paradise 2 (ハムスターパラダイス2)</t>
   </si>
   <si>
@@ -252,7 +270,7 @@
     <t>Hello Kitty no Beads Koubou (ハローキティのビーズ工房)</t>
   </si>
   <si>
-    <t>You have to complete some puzzle rounds to allow printing something</t>
+    <t>Palette 0xE4. You have to complete some puzzle rounds to allow printing something</t>
   </si>
   <si>
     <t>Hello Kitty no magical museum (ハローキティのマジカルミュージアム)</t>
@@ -261,58 +279,73 @@
     <t>Partial</t>
   </si>
   <si>
-    <t>Crashes before sending the print command</t>
+    <t>Palette 0xE4. Crashes before sending the print command</t>
   </si>
   <si>
     <t>Hello Kitty Pocket Camera (Japan, unreleased)</t>
   </si>
   <si>
+    <t>Palette 0xE4, same as Game Boy Camera.</t>
+  </si>
+  <si>
     <t>Jinsei Game Tomodachi takusan Tsukurou Yo! (人生ゲーム 友達たくさんつくろうよ!)</t>
   </si>
   <si>
+    <t>Palette 0x00, you can print you character file from the main menu.</t>
+  </si>
+  <si>
     <t>Kakurenbo Battle Monster Tactics (モンスタータクティクス)</t>
   </si>
   <si>
-    <t>You have to beat 2 bosses (easy) and discuss with people until an underground passage opens on top rigth of the map (just on top of your beginning room). The underground room with "M" in front of it contains the printer feature. Warning, the surface room with "M" in front is not the good one.</t>
+    <t>Palette 0xE4. You have to beat 2 bosses (easy) and discuss with people until an underground passage opens on top rigth of the map (just on top of your beginning room). The underground room with "M" in front of it contains the printer feature. Warning, the surface room with "M" in front is not the good one.</t>
   </si>
   <si>
     <t>Kanji Boy (漢字BOY)</t>
   </si>
   <si>
+    <t>Palette 0xE4. You can print your scores after a long quiz (second in the main menu) whatever the results</t>
+  </si>
+  <si>
     <t>Karamuchou wa Oosawagi!: Porinkiis to Okashina Nakamatachi (カラムー町は大さわぎ! 〜ポリンキーズとおかしな仲間たち〜)</t>
   </si>
   <si>
+    <t>Palette 0xE4, you can print artworks from the main character.</t>
+  </si>
+  <si>
     <t>Kaseki Sousei Reborn II: Monster Digger (化石創世リボーン2 〜モンスターティガー〜)</t>
   </si>
   <si>
-    <t>Palette 0xE8</t>
+    <t>Palette 0xE8, you can print your chimeras.</t>
   </si>
   <si>
     <t>Kettou Transformers Beast Wars - Beast Senshi Saikyou Ketteisen (決闘トランスフォーマービーストウォーズ ビースト戦士最強決定戦)</t>
   </si>
   <si>
-    <t>Not tested yet</t>
+    <t>Palette 0x1B, you can print the special moves by pressing select in the adequate menu</t>
   </si>
   <si>
     <t>Kidou Senkan Nadesico - Ruri Ruri Mahjong (機動戦艦ナデシコ ルリルリ麻雀)</t>
   </si>
   <si>
+    <t>Palette 0xE4, I had to manipulate the wram with BGB to unlock pictures</t>
+  </si>
+  <si>
     <t>Kisekae Monogatari (きせかえ物語)</t>
   </si>
   <si>
-    <t>There is a kind of "paint" tool to play with the main character girl that you can access from beginning</t>
+    <t>Palette 0xE4. There is a kind of "paint" tool to play with the main character girl that you can access from beginning</t>
   </si>
   <si>
     <t>Klax (never released in Japan)</t>
   </si>
   <si>
-    <t>You can print password and an easter egg : The feature is accessed by selecting green alien, green alien, red circle, blue square. After skipping the found minigame page, a picture of a head attached to a body will display with an option to print. The heads can be selected with the D-Pad.</t>
+    <t>Palette 0xE4. You can print password and an easter egg : The feature is accessed by selecting green alien, green alien, red circle, blue square. After skipping the found minigame page, a picture of a head attached to a body will display with an option to print. The heads can be selected with the D-Pad.</t>
   </si>
   <si>
     <t>Konchuu Hakase 2 (昆虫博士2)</t>
   </si>
   <si>
-    <t>You can print your insect catched</t>
+    <t>Palette 0xE4. You can print your insect catched. The net is given by an old man close to your house.</t>
   </si>
   <si>
     <t>Little Nicky (never released in Japan)</t>
@@ -330,37 +363,49 @@
     <t>Love Hina Pocket (ラブ ひな)</t>
   </si>
   <si>
-    <t>There is a TON of content to print (borders, stickers, sprites art)</t>
+    <t>Palette 0xE4. There is a TON of content to print (borders, stickers, sprites art). Printer emulator must be disconnected between prints, for unknown reasons.</t>
   </si>
   <si>
     <t>Magical Drop (never released in Japan)</t>
   </si>
   <si>
+    <t>Palette 0xE4, you can print the high scores.</t>
+  </si>
+  <si>
     <t>Mary-Kate and Ashley Pocket Planner (never released in Japan)</t>
   </si>
   <si>
     <t>McDonald's Monogatari : Honobono Tenchou Ikusei Game (マクドナルド物語)</t>
   </si>
   <si>
+    <t>Palette 0x30. You can print the result from the cashier minigame, but it crashes with error #4 before sendind the print command</t>
+  </si>
+  <si>
     <t>Mickey's Racing Adventure (never released in Japan)</t>
   </si>
   <si>
+    <t>Palette 0xE4, some nice artworks to unlock and print by winning courses.</t>
+  </si>
+  <si>
     <t>Mickey's Speedway USA (never released in Japan)</t>
   </si>
   <si>
     <t>Mission: Impossible (never released in Japan)</t>
   </si>
   <si>
+    <t>Palette 0xE4, you can print your notes.</t>
+  </si>
+  <si>
     <t>Monster ★ Race 2 (もんすたあ★レース2)</t>
   </si>
   <si>
-    <t>You have to unlock the passage to the south (forest) from the first village to get a kind of pokedex that serves as printing feature (after about one hour of gameplay)</t>
+    <t>Palette 0xE4. You have to unlock the passage to the south (forest) from the first village to get a kind of pokedex that serves as printing feature (after about one hour of gameplay)</t>
   </si>
   <si>
     <t>Monster ★ Race Okawari (もんすたあ★レース おかわり)</t>
   </si>
   <si>
-    <t>You can rapidely print something after choosing your starter (after about 10 minutes of gameplay), from your individual menu</t>
+    <t>Palette 0xE4. You can rapidely print something after choosing your starter (after about 10 minutes of gameplay), from your individual menu</t>
   </si>
   <si>
     <t>Nakayoshi Cooking Series 1 - Oishii Cake-ya-san (なかよしクッキングシリーズ1 おいしいケーキ屋さん)</t>
@@ -375,7 +420,7 @@
     <t>Nakayoshi Cooking Series 3 - Tanoshii Obentou (なかよしクッキングシリーズ3 たのしいお弁当)</t>
   </si>
   <si>
-    <t>Palette 0x1B, weird protocol but works</t>
+    <t>Palette 0x1B, weird protocol but works, you can print recipes and food images.</t>
   </si>
   <si>
     <t>Nakayoshi Cooking Series 4 - Tanoshii Dessert (なかよしクッキングシリーズ4 たのしいデザート)</t>
@@ -384,10 +429,13 @@
     <t>Nakayoshi Cooking Series 5 - Cake Wo Tsukurou (なかよしクッキングシリーズ5 こむぎちゃんのケーキをつくろう!)</t>
   </si>
   <si>
+    <t>Palette 0x1B, weird protocol but works, you can print images of ingredients and characters when the game is completed at 100% only !</t>
+  </si>
+  <si>
     <t>Nakayoshi Pet Series 1: Kawaii Hamster (なかよしペットシリーズ1 かわいいハムスター)</t>
   </si>
   <si>
-    <t>Palette 0x1B</t>
+    <t>Palette 0x1B, nice pixel art images to print are unlocked each time you do something new.</t>
   </si>
   <si>
     <t>Nakayoshi Pet Series 2: Kawaii Usagi (なかよしペットシリーズ2 かわいいウサギ)</t>
@@ -399,15 +447,21 @@
     <t>NFL Blitz (never released in Japan)</t>
   </si>
   <si>
+    <t>Palette 0xE4, you can print your team statistics</t>
+  </si>
+  <si>
     <t>Nintama Rantarou GB: Eawase Challenge Puzzle (忍たま乱太郎GB えあわせチャレンジパズル)</t>
   </si>
   <si>
-    <t>You can unlock many cute "seals" by playing minigames or entering cheatcodes. Enter ZEEN, ININ, WINS, CUBE, ITEM, PAZA, PAZB, PAZC, STOM in the code zone to unlock seals and puzzles to print.</t>
+    <t>Palette 0xE4. You can unlock many cute "seals" by playing minigames or entering cheatcodes. Enter ZEEN then STOM in the code zone to unlock ton of seals and puzzles to print.</t>
   </si>
   <si>
     <t>Ojarumaru: Mitsunegai Jinja no Ennichi de Ojaru! (おじゃる丸 〜満願神社は縁日でおじゃる!)</t>
   </si>
   <si>
+    <t>Palette 0x1B, you have to mash the A button at the "Cold Sai and Ko-chan's fortune-telling" stand at the top center of the minimap to play and print the fortune messages.</t>
+  </si>
+  <si>
     <t>Pachinko Data Card - Chou Ataru-kun (Pachinko Data Card ちょ〜あたる君)</t>
   </si>
   <si>
@@ -417,34 +471,40 @@
     <t>Perfect Dark (never released in Japan)</t>
   </si>
   <si>
-    <t>Each level completed unlock an image</t>
+    <t>Palette 0xE4. Each level completed unlock an image</t>
   </si>
   <si>
     <t>Pocket Family 2 (ポケットファミリーGB2)</t>
   </si>
   <si>
-    <t>Cannot be emulated, original cartridge mandatory, HuC-3 mapper</t>
+    <t>Palette unknown. Original cartridge mandatory, HuC-3 mapper.</t>
   </si>
   <si>
     <t>Pocket Puyo Puyo-n (ぽけっとぷよぷよ〜ん)</t>
   </si>
   <si>
-    <t>No borders at the end of printings</t>
+    <t>Palette 0xE4. No borders at the end of printings</t>
   </si>
   <si>
     <t>Pokémon Card GB2: Great Rocket-Dan Sanjō! (ポケモンカードGB2 GR団参上!)</t>
   </si>
   <si>
+    <t>Palette 0xE4, you can print your individual deck cards and the list of cards.</t>
+  </si>
+  <si>
     <t>Pokémon Crystal (ポケットモンスター クリスタルバージョン)</t>
   </si>
   <si>
+    <t>Palette 0xE4, you can print images from Pokédex.</t>
+  </si>
+  <si>
     <t>Pokémon Gold (ポケットモンスター 金)</t>
   </si>
   <si>
     <t>Pokémon Picross (ポケモンピクロス, unreleased)</t>
   </si>
   <si>
-    <t>palette 0x00, acts as 0xE4 (documented in pandocs)</t>
+    <t>Palette 0x00, acts as 0xE4 (documented in pandocs). You can print the Pokédex.</t>
   </si>
   <si>
     <t>Pokémon Pinball (ポケモンピンボール)</t>
@@ -465,6 +525,9 @@
     <t>Purikura Pocket 3 - Talent Debut Daisakusen (プリクラポケット3 〜タレントデビュー大作戦〜)</t>
   </si>
   <si>
+    <t>Palette 0xD2, the printer menu is hidden into the main in-game menu where you choose your day planning : press START to make it appear.</t>
+  </si>
+  <si>
     <t>Puzzled (never released in Japan)</t>
   </si>
   <si>
@@ -474,7 +537,7 @@
     <t>Quest for Camelot (never released in Japan)</t>
   </si>
   <si>
-    <t>Press Select on cartoon animations to print screen</t>
+    <t>Palette 0xE4. Press Select on cartoon animations to print screen</t>
   </si>
   <si>
     <t>Roadsters Trophy (never released in Japan)</t>
@@ -486,7 +549,7 @@
     <t>Sanrio Timenet: Kako Hen (サンリオタイムネット 過去編)</t>
   </si>
   <si>
-    <t>You can print from the Hello Kitty "Pokecenter" or from character menu</t>
+    <t>Palette 0xE4. You can print from the Hello Kitty "Pokecenter" or from character menu</t>
   </si>
   <si>
     <t>Sanrio Timenet: Mirai Hen (サンリオタイムネット 未来編)</t>
@@ -498,48 +561,72 @@
     <t>SMARTCOM (never released in Japan)</t>
   </si>
   <si>
-    <t>Invalid logo, cannot boot on original hardware</t>
+    <t>Palette 0xE4. Use Furrtek hack and restore the Nintendo logo to boot on real hardware</t>
   </si>
   <si>
     <t>Sōko-ban Densetsu: Hikari to Yami no Kuni (倉庫番伝説 光と闇の国)</t>
   </si>
   <si>
+    <t>Palette 0x00, you can print the little animation in options by pressing A during it.</t>
+  </si>
+  <si>
     <t>Super Black Bass Pocket 3 (スーパーブラックバスポケット3)</t>
   </si>
   <si>
+    <t>Palette 0xE4. You can print your catches but fishing in this game is horribly frustrating.</t>
+  </si>
+  <si>
     <t>Super Mario Bros. Deluxe (スーパーマリオブラザーズデラックス)</t>
   </si>
   <si>
-    <t>Very nice printing features</t>
+    <t>Palette 0xE4. Very nice printing features to unlock by completing challenges</t>
   </si>
   <si>
     <t>Sweet Angel (スウィートアンジェ)</t>
   </si>
   <si>
-    <t>You can print your profile and exchange it by serial cable</t>
+    <t>Palette 0xE4. You can print your profile and exchange it by serial cable</t>
   </si>
   <si>
     <t>Sylvanian Families - Otogi no Kuni no Pendant (シルバニアファミリー 〜おとぎの国のペンダント)</t>
   </si>
   <si>
+    <t>Palette 0xE4. You can print the interior of your room (where you spawn initially) by pressing SELECT.</t>
+  </si>
+  <si>
     <t>Sylvanian Families 2 - Irozuku Mori no Fantasy (シルバニアファミリー2～色づく森のファンタジー)</t>
   </si>
   <si>
     <t>Sylvanian Families 3 - Hoshi Furu Yoru no Sunadokei (シルバニアファミリー３　星ふる夜のすなどけい)</t>
   </si>
   <si>
+    <t>Palette 0xE4. You can print the flowerpots in your own menu (into the book) by pressing SELECT</t>
+  </si>
+  <si>
     <t>Tales of Phantasia: Nakiri's Dungeon (テイルズ オブ ファンタジア なりきりダンジョン)</t>
   </si>
   <si>
+    <t>Palette 0x00, acts as 0xE4 (documented in pandocs). You can print images of your team characters</t>
+  </si>
+  <si>
     <t>The Legend of Zelda: Link's Awakening DX (ゼルダの伝説 夢をみる島DX)</t>
   </si>
   <si>
+    <t>Palette 0xE4, You can print the photograph picture book.</t>
+  </si>
+  <si>
     <t>The Little Mermaid 2: Pinball Frenzy (never released in Japan)</t>
   </si>
   <si>
+    <t>Palette 0x1B, you can print your score after a game.</t>
+  </si>
+  <si>
     <t>Tony Hawk's Pro Skater 2 (never released in Japan)</t>
   </si>
   <si>
+    <t>Palette 0x1B, some images to unlock by completing the levels.</t>
+  </si>
+  <si>
     <t>Trade &amp; Battle: Card Hero (トレード&amp;バトル カードヒーロー)</t>
   </si>
   <si>
@@ -549,10 +636,13 @@
     <t>Tsuri Sensei 2 (釣り先生2)</t>
   </si>
   <si>
+    <t>Palette 0xE4, you can print your catches.</t>
+  </si>
+  <si>
     <t>VS Lemmings (VS.レミングス)</t>
   </si>
   <si>
-    <t>Lemmings (USA) has no printer support but it is the same game without VS mode</t>
+    <t>Palette 0xE4. Lemmings (USA) has no printer support but it is the same game without VS mode</t>
   </si>
 </sst>
 </file>
@@ -587,7 +677,7 @@
       <name val="Consolas"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -612,12 +702,6 @@
         <bgColor rgb="FFF3F3F3"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE06666"/>
-        <bgColor rgb="FFE06666"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border/>
@@ -625,7 +709,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="10">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -650,20 +734,11 @@
     <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1162,12 +1237,12 @@
         <v>19</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>8</v>
@@ -1185,12 +1260,12 @@
         <v>12</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>8</v>
@@ -1208,12 +1283,12 @@
         <v>19</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>8</v>
@@ -1231,12 +1306,12 @@
         <v>12</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>8</v>
@@ -1254,12 +1329,12 @@
         <v>12</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>8</v>
@@ -1277,12 +1352,12 @@
         <v>12</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>8</v>
@@ -1300,12 +1375,12 @@
         <v>19</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>17</v>
@@ -1323,27 +1398,35 @@
         <v>19</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
+      <c r="C18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="G18" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>8</v>
@@ -1361,12 +1444,12 @@
         <v>19</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>17</v>
@@ -1384,12 +1467,12 @@
         <v>19</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>8</v>
@@ -1407,12 +1490,12 @@
         <v>19</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="3" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>8</v>
@@ -1430,12 +1513,12 @@
         <v>12</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="3" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>8</v>
@@ -1453,12 +1536,12 @@
         <v>19</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>17</v>
@@ -1476,12 +1559,12 @@
         <v>19</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>17</v>
@@ -1499,15 +1582,15 @@
         <v>19</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>9</v>
@@ -1522,27 +1605,35 @@
         <v>19</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
+      <c r="C27" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="G27" s="3" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="6" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>17</v>
@@ -1560,12 +1651,12 @@
         <v>19</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="3" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>8</v>
@@ -1583,12 +1674,12 @@
         <v>19</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="6" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>17</v>
@@ -1606,12 +1697,12 @@
         <v>19</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="3" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>8</v>
@@ -1629,15 +1720,15 @@
         <v>19</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>20</v>
+        <v>72</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="3" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>9</v>
@@ -1652,12 +1743,12 @@
         <v>19</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="6" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>17</v>
@@ -1675,12 +1766,12 @@
         <v>19</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="3" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>17</v>
@@ -1698,12 +1789,12 @@
         <v>19</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="3" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>17</v>
@@ -1721,12 +1812,12 @@
         <v>19</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>20</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="3" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>8</v>
@@ -1744,12 +1835,12 @@
         <v>19</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>20</v>
+        <v>80</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="3" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>17</v>
@@ -1767,12 +1858,12 @@
         <v>12</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="6" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>17</v>
@@ -1790,18 +1881,18 @@
         <v>19</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="3" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>10</v>
@@ -1809,17 +1900,19 @@
       <c r="E39" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F39" s="4"/>
+      <c r="F39" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="G39" s="3" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="6" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>9</v>
@@ -1834,27 +1927,35 @@
         <v>19</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>20</v>
+        <v>90</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="3" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
+      <c r="C41" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="G41" s="3" t="s">
-        <v>43</v>
+        <v>92</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="3" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>8</v>
@@ -1872,27 +1973,35 @@
         <v>19</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="6" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
+      <c r="C43" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="G43" s="3" t="s">
-        <v>43</v>
+        <v>96</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="6" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>17</v>
@@ -1910,12 +2019,12 @@
         <v>19</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>20</v>
+        <v>98</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="6" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>17</v>
@@ -1933,42 +2042,58 @@
         <v>12</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="6" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
+      <c r="C46" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="G46" s="3" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="3" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
+      <c r="C47" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="G47" s="3" t="s">
-        <v>43</v>
+        <v>104</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="6" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>17</v>
@@ -1986,12 +2111,12 @@
         <v>19</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="3" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>8</v>
@@ -2009,12 +2134,12 @@
         <v>19</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="6" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>17</v>
@@ -2032,12 +2157,12 @@
         <v>19</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="3" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>8</v>
@@ -2055,12 +2180,12 @@
         <v>12</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="3" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>8</v>
@@ -2078,12 +2203,12 @@
         <v>19</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="6" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>8</v>
@@ -2101,12 +2226,12 @@
         <v>19</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="3" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>8</v>
@@ -2124,12 +2249,12 @@
         <v>19</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>20</v>
+        <v>118</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="3" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>17</v>
@@ -2147,27 +2272,35 @@
         <v>19</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="3" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
-      <c r="E56" s="4"/>
-      <c r="F56" s="4"/>
+      <c r="C56" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="G56" s="3" t="s">
-        <v>92</v>
+        <v>121</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="3" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>8</v>
@@ -2185,12 +2318,12 @@
         <v>19</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>20</v>
+        <v>123</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="3" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>8</v>
@@ -2208,12 +2341,12 @@
         <v>19</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>20</v>
+        <v>123</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="3" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>8</v>
@@ -2231,12 +2364,12 @@
         <v>19</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>20</v>
+        <v>126</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="3" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>17</v>
@@ -2254,15 +2387,15 @@
         <v>19</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="3" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>9</v>
@@ -2277,18 +2410,18 @@
         <v>19</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="6" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D62" s="4" t="s">
         <v>10</v>
@@ -2300,18 +2433,18 @@
         <v>12</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="6" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D63" s="4" t="s">
         <v>10</v>
@@ -2323,12 +2456,12 @@
         <v>12</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="6" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>8</v>
@@ -2346,12 +2479,12 @@
         <v>12</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="6" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>8</v>
@@ -2369,27 +2502,35 @@
         <v>12</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="9" t="s">
-        <v>122</v>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="66" ht="17.25" customHeight="1">
+      <c r="A66" s="8" t="s">
+        <v>137</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C66" s="8"/>
-      <c r="D66" s="8"/>
-      <c r="E66" s="8"/>
-      <c r="F66" s="8"/>
+      <c r="C66" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="G66" s="3" t="s">
-        <v>43</v>
+        <v>138</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="6" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>17</v>
@@ -2407,12 +2548,12 @@
         <v>12</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="6" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>17</v>
@@ -2430,12 +2571,12 @@
         <v>12</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="5" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>8</v>
@@ -2453,12 +2594,12 @@
         <v>12</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="3" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>17</v>
@@ -2476,15 +2617,15 @@
         <v>19</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>20</v>
+        <v>144</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="6" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>9</v>
@@ -2499,30 +2640,38 @@
         <v>19</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="3" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C72" s="4"/>
-      <c r="D72" s="4"/>
-      <c r="E72" s="4"/>
-      <c r="F72" s="4"/>
+      <c r="C72" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="G72" s="3" t="s">
-        <v>92</v>
+        <v>148</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="6" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>9</v>
@@ -2537,12 +2686,12 @@
         <v>12</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="3" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>8</v>
@@ -2560,27 +2709,27 @@
         <v>19</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="9" t="s">
-        <v>135</v>
+      <c r="A75" s="8" t="s">
+        <v>153</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="C75" s="4"/>
-      <c r="D75" s="8"/>
-      <c r="E75" s="8"/>
-      <c r="F75" s="8"/>
+      <c r="D75" s="9"/>
+      <c r="E75" s="9"/>
+      <c r="F75" s="9"/>
       <c r="G75" s="3" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="6" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>8</v>
@@ -2598,12 +2747,12 @@
         <v>19</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="3" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>17</v>
@@ -2621,12 +2770,12 @@
         <v>19</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>20</v>
+        <v>158</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="3" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>8</v>
@@ -2644,12 +2793,12 @@
         <v>19</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>20</v>
+        <v>160</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="3" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>17</v>
@@ -2667,12 +2816,12 @@
         <v>19</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>20</v>
+        <v>160</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="6" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>17</v>
@@ -2690,12 +2839,12 @@
         <v>12</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="3" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>17</v>
@@ -2713,12 +2862,12 @@
         <v>19</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="6" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>17</v>
@@ -2736,12 +2885,12 @@
         <v>19</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>20</v>
+        <v>158</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="3" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>17</v>
@@ -2759,12 +2908,12 @@
         <v>19</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>20</v>
+        <v>158</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="3" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>17</v>
@@ -2782,27 +2931,35 @@
         <v>19</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>20</v>
+        <v>160</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="6" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C85" s="8"/>
-      <c r="D85" s="8"/>
-      <c r="E85" s="8"/>
-      <c r="F85" s="8"/>
+        <v>61</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F85" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="G85" s="3" t="s">
-        <v>43</v>
+        <v>170</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="3" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>8</v>
@@ -2820,12 +2977,12 @@
         <v>19</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="3" t="s">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>17</v>
@@ -2843,12 +3000,12 @@
         <v>19</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>153</v>
+        <v>174</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="3" t="s">
-        <v>154</v>
+        <v>175</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>8</v>
@@ -2866,12 +3023,12 @@
         <v>12</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="6" t="s">
-        <v>156</v>
+        <v>177</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>17</v>
@@ -2889,12 +3046,12 @@
         <v>19</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>157</v>
+        <v>178</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="6" t="s">
-        <v>158</v>
+        <v>179</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>17</v>
@@ -2912,61 +3069,81 @@
         <v>19</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>157</v>
+        <v>178</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="6" t="s">
-        <v>159</v>
+        <v>180</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C91" s="4"/>
-      <c r="D91" s="4"/>
-      <c r="E91" s="4"/>
-      <c r="F91" s="4"/>
+      <c r="C91" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="G91" s="3" t="s">
-        <v>43</v>
+        <v>104</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="B92" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="C92" s="11"/>
-      <c r="D92" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E92" s="11"/>
-      <c r="F92" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G92" s="12" t="s">
-        <v>161</v>
+      <c r="A92" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E92" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F92" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G92" s="3" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="6" t="s">
-        <v>162</v>
+        <v>183</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C93" s="8"/>
-      <c r="D93" s="8"/>
-      <c r="E93" s="8"/>
-      <c r="F93" s="8"/>
+      <c r="C93" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F93" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="G93" s="3" t="s">
-        <v>92</v>
+        <v>184</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="6" t="s">
-        <v>163</v>
+        <v>185</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>17</v>
@@ -2984,12 +3161,12 @@
         <v>19</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>20</v>
+        <v>186</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="3" t="s">
-        <v>164</v>
+        <v>187</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>8</v>
@@ -3007,12 +3184,12 @@
         <v>19</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>165</v>
+        <v>188</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="6" t="s">
-        <v>166</v>
+        <v>189</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>17</v>
@@ -3030,57 +3207,81 @@
         <v>19</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>167</v>
+        <v>190</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="6" t="s">
-        <v>168</v>
+        <v>191</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C97" s="8"/>
-      <c r="D97" s="8"/>
-      <c r="E97" s="8"/>
-      <c r="F97" s="8"/>
+      <c r="C97" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E97" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F97" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="G97" s="3" t="s">
-        <v>92</v>
+        <v>192</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="6" t="s">
-        <v>169</v>
+        <v>193</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C98" s="8"/>
-      <c r="D98" s="8"/>
-      <c r="E98" s="8"/>
-      <c r="F98" s="8"/>
+      <c r="C98" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E98" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F98" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="G98" s="3" t="s">
-        <v>92</v>
+        <v>192</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="6" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C99" s="8"/>
-      <c r="D99" s="8"/>
-      <c r="E99" s="8"/>
-      <c r="F99" s="8"/>
+      <c r="C99" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E99" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F99" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="G99" s="3" t="s">
-        <v>92</v>
+        <v>195</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="3" t="s">
-        <v>171</v>
+        <v>196</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>17</v>
@@ -3098,12 +3299,12 @@
         <v>12</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>143</v>
+        <v>197</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="3" t="s">
-        <v>172</v>
+        <v>198</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>17</v>
@@ -3121,12 +3322,12 @@
         <v>19</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>20</v>
+        <v>199</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="3" t="s">
-        <v>173</v>
+        <v>200</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>8</v>
@@ -3144,12 +3345,12 @@
         <v>12</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>124</v>
+        <v>201</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="3" t="s">
-        <v>174</v>
+        <v>202</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>8</v>
@@ -3167,12 +3368,12 @@
         <v>12</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="104">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="104" ht="16.5" customHeight="1">
       <c r="A104" s="3" t="s">
-        <v>175</v>
+        <v>204</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>17</v>
@@ -3190,12 +3391,12 @@
         <v>12</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="105">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="105" ht="17.25" customHeight="1">
       <c r="A105" s="6" t="s">
-        <v>177</v>
+        <v>206</v>
       </c>
       <c r="B105" s="4" t="s">
         <v>17</v>
@@ -3213,12 +3414,12 @@
         <v>19</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>20</v>
+        <v>207</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="6" t="s">
-        <v>178</v>
+        <v>208</v>
       </c>
       <c r="B106" s="4" t="s">
         <v>8</v>
@@ -3236,7 +3437,7 @@
         <v>19</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>179</v>
+        <v>209</v>
       </c>
     </row>
     <row r="107">
@@ -3288,6 +3489,7 @@
   <autoFilter ref="$A$1:$G$106">
     <sortState ref="A1:G106">
       <sortCondition ref="A1:A106"/>
+      <sortCondition ref="F1:F106"/>
       <sortCondition descending="1" ref="C1:C106"/>
       <sortCondition ref="G1:G106"/>
       <sortCondition ref="E1:E106"/>

--- a/Game Boy Printer Emulator - Games Support.xlsx
+++ b/Game Boy Printer Emulator - Games Support.xlsx
@@ -6,14 +6,14 @@
     <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$G$106</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$G$108</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="213">
   <si>
     <t>Title</t>
   </si>
@@ -306,12 +306,15 @@
     <t>Palette 0xE4. You can print your scores after a long quiz (second in the main menu) whatever the results</t>
   </si>
   <si>
+    <t>Karamuchou wa Oosawagi!: Okawari! (カラムー町は大さわぎ！おかわりっ！)</t>
+  </si>
+  <si>
+    <t>Palette 0xE4, you can print artworks from the main character.</t>
+  </si>
+  <si>
     <t>Karamuchou wa Oosawagi!: Porinkiis to Okashina Nakamatachi (カラムー町は大さわぎ! 〜ポリンキーズとおかしな仲間たち〜)</t>
   </si>
   <si>
-    <t>Palette 0xE4, you can print artworks from the main character.</t>
-  </si>
-  <si>
     <t>Kaseki Sousei Reborn II: Monster Digger (化石創世リボーン2 〜モンスターティガー〜)</t>
   </si>
   <si>
@@ -520,6 +523,12 @@
   </si>
   <si>
     <t>Pokémon Yellow: Special Pikachu Edition (ポケットモンスター ピカチュウ)</t>
+  </si>
+  <si>
+    <t>Pro Mahjong Tsuwamono GB (プロ麻雀兵 GB)</t>
+  </si>
+  <si>
+    <t>Palette 0xE4, you can print statistics from the players. 0 margin protocol.</t>
   </si>
   <si>
     <t>Purikura Pocket 3 - Talent Debut Daisakusen (プリクラポケット3 〜タレントデビュー大作戦〜)</t>
@@ -2039,15 +2048,15 @@
         <v>11</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>17</v>
@@ -2056,7 +2065,7 @@
         <v>9</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>11</v>
@@ -2065,214 +2074,214 @@
         <v>12</v>
       </c>
       <c r="G46" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="6" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="3" t="s">
+      <c r="B47" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G47" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B47" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G47" s="3" t="s">
+    </row>
+    <row r="48">
+      <c r="A48" s="3" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="6" t="s">
+      <c r="B48" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G48" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B48" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G48" s="3" t="s">
+    </row>
+    <row r="49">
+      <c r="A49" s="6" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="3" t="s">
+      <c r="B49" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G49" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B49" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F49" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G49" s="3" t="s">
+    </row>
+    <row r="50">
+      <c r="A50" s="3" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="6" t="s">
+      <c r="B50" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G50" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B50" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D50" s="4" t="s">
+    </row>
+    <row r="51">
+      <c r="A51" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E50" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F50" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G50" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="3" t="s">
+      <c r="E51" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G51" s="3" t="s">
         <v>111</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G51" s="3" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G52" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B52" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F52" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G52" s="3" t="s">
+    </row>
+    <row r="53">
+      <c r="A53" s="3" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="6" t="s">
+      <c r="B53" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G53" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="B53" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D53" s="4" t="s">
+    </row>
+    <row r="54">
+      <c r="A54" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E53" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F53" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G53" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="3" t="s">
+      <c r="E54" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G54" s="3" t="s">
         <v>117</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E54" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F54" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G55" s="3" t="s">
         <v>119</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E55" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F55" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G55" s="3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="56">
@@ -2280,68 +2289,68 @@
         <v>120</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>87</v>
+        <v>9</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E56" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>121</v>
+        <v>68</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G57" s="3" t="s">
         <v>122</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E57" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F57" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G58" s="3" t="s">
         <v>124</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E58" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F58" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="59">
@@ -2364,81 +2373,81 @@
         <v>19</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G60" s="3" t="s">
         <v>127</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E60" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F60" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G61" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B61" s="4" t="s">
+    </row>
+    <row r="62">
+      <c r="A62" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B62" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C61" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E61" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F61" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G61" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="6" t="s">
+      <c r="C62" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G62" s="3" t="s">
         <v>131</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E62" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F62" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>8</v>
@@ -2456,7 +2465,7 @@
         <v>12</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="64">
@@ -2467,7 +2476,7 @@
         <v>8</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>9</v>
+        <v>87</v>
       </c>
       <c r="D64" s="4" t="s">
         <v>10</v>
@@ -2479,12 +2488,12 @@
         <v>12</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>8</v>
@@ -2502,11 +2511,11 @@
         <v>12</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="66" ht="17.25" customHeight="1">
-      <c r="A66" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="6" t="s">
         <v>137</v>
       </c>
       <c r="B66" s="4" t="s">
@@ -2525,15 +2534,15 @@
         <v>12</v>
       </c>
       <c r="G66" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="67" ht="17.25" customHeight="1">
+      <c r="A67" s="8" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="6" t="s">
-        <v>139</v>
-      </c>
       <c r="B67" s="4" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>9</v>
@@ -2548,12 +2557,12 @@
         <v>12</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>17</v>
@@ -2571,15 +2580,15 @@
         <v>12</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="5" t="s">
+      <c r="A69" s="6" t="s">
         <v>142</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>9</v>
@@ -2594,15 +2603,15 @@
         <v>12</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="3" t="s">
+      <c r="A70" s="5" t="s">
         <v>143</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>9</v>
@@ -2614,64 +2623,64 @@
         <v>11</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G70" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="3" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="6" t="s">
+      <c r="B71" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G71" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="B71" s="4" t="s">
+    </row>
+    <row r="72">
+      <c r="A72" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B72" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C71" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D71" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E71" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F71" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G71" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="3" t="s">
+      <c r="C72" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G72" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="B72" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D72" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E72" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F72" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G72" s="3" t="s">
+    </row>
+    <row r="73">
+      <c r="A73" s="3" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="6" t="s">
-        <v>149</v>
-      </c>
       <c r="B73" s="4" t="s">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>9</v>
@@ -2686,141 +2695,141 @@
         <v>12</v>
       </c>
       <c r="G73" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="6" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="3" t="s">
+      <c r="B74" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G74" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="B74" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D74" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E74" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F74" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G74" s="3" t="s">
+    </row>
+    <row r="75">
+      <c r="A75" s="3" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="8" t="s">
+      <c r="B75" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G75" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="B75" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C75" s="4"/>
-      <c r="D75" s="9"/>
-      <c r="E75" s="9"/>
-      <c r="F75" s="9"/>
-      <c r="G75" s="3" t="s">
+    </row>
+    <row r="76">
+      <c r="A76" s="8" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="6" t="s">
+      <c r="B76" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C76" s="4"/>
+      <c r="D76" s="9"/>
+      <c r="E76" s="9"/>
+      <c r="F76" s="9"/>
+      <c r="G76" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="B76" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D76" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E76" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F76" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G76" s="3" t="s">
+    </row>
+    <row r="77">
+      <c r="A77" s="6" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="3" t="s">
+      <c r="B77" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G77" s="3" t="s">
         <v>157</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D77" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E77" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F77" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G77" s="3" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G78" s="3" t="s">
         <v>159</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D78" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E78" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F78" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G78" s="3" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G79" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="B79" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D79" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E79" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F79" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G79" s="3" t="s">
-        <v>160</v>
-      </c>
     </row>
     <row r="80">
-      <c r="A80" s="6" t="s">
+      <c r="A80" s="3" t="s">
         <v>162</v>
       </c>
       <c r="B80" s="4" t="s">
@@ -2836,60 +2845,60 @@
         <v>11</v>
       </c>
       <c r="F80" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F81" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G80" s="3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="3" t="s">
+      <c r="G81" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="B81" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D81" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E81" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F81" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G81" s="3" t="s">
+    </row>
+    <row r="82">
+      <c r="A82" s="3" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="6" t="s">
+      <c r="B82" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F82" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G82" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="B82" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D82" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E82" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F82" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G82" s="3" t="s">
-        <v>158</v>
-      </c>
     </row>
     <row r="83">
-      <c r="A83" s="3" t="s">
+      <c r="A83" s="6" t="s">
         <v>167</v>
       </c>
       <c r="B83" s="4" t="s">
@@ -2902,13 +2911,13 @@
         <v>10</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F83" s="4" t="s">
         <v>19</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="84">
@@ -2925,151 +2934,151 @@
         <v>10</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F84" s="4" t="s">
         <v>19</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="6" t="s">
+      <c r="A85" s="3" t="s">
         <v>169</v>
       </c>
       <c r="B85" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F85" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G85" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F86" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G86" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="B87" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C85" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D85" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E85" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F85" s="4" t="s">
+      <c r="C87" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F87" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G85" s="3" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D86" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E86" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F86" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G86" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="3" t="s">
+      <c r="G87" s="3" t="s">
         <v>173</v>
-      </c>
-      <c r="B87" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D87" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E87" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F87" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G87" s="3" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F88" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G88" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="B88" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C88" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D88" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E88" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F88" s="4" t="s">
+    </row>
+    <row r="89">
+      <c r="A89" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F89" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F90" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G88" s="3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D89" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E89" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F89" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="6" t="s">
+      <c r="G90" s="3" t="s">
         <v>179</v>
-      </c>
-      <c r="B90" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D90" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E90" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F90" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G90" s="3" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="91">
@@ -3077,7 +3086,7 @@
         <v>180</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C91" s="4" t="s">
         <v>9</v>
@@ -3092,30 +3101,30 @@
         <v>19</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>104</v>
+        <v>181</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="8" t="s">
+      <c r="A92" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E92" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F92" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G92" s="3" t="s">
         <v>181</v>
-      </c>
-      <c r="B92" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D92" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E92" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F92" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G92" s="3" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="93">
@@ -3123,7 +3132,7 @@
         <v>183</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C93" s="4" t="s">
         <v>9</v>
@@ -3135,87 +3144,87 @@
         <v>11</v>
       </c>
       <c r="F93" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G93" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E94" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F94" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E95" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F95" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G93" s="3" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="B94" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D94" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E94" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F94" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="3" t="s">
+      <c r="G95" s="3" t="s">
         <v>187</v>
-      </c>
-      <c r="B95" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C95" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D95" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E95" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F95" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G95" s="3" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E96" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F96" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G96" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="B96" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D96" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E96" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F96" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G96" s="3" t="s">
+    </row>
+    <row r="97">
+      <c r="A97" s="3" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="6" t="s">
-        <v>191</v>
-      </c>
       <c r="B97" s="4" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C97" s="4" t="s">
         <v>9</v>
@@ -3230,30 +3239,30 @@
         <v>19</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E98" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F98" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G98" s="3" t="s">
         <v>193</v>
-      </c>
-      <c r="B98" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C98" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D98" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E98" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F98" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G98" s="3" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="99">
@@ -3261,7 +3270,7 @@
         <v>194</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C99" s="4" t="s">
         <v>9</v>
@@ -3280,11 +3289,11 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="3" t="s">
+      <c r="A100" s="6" t="s">
         <v>196</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C100" s="4" t="s">
         <v>9</v>
@@ -3293,21 +3302,21 @@
         <v>10</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G100" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="6" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="3" t="s">
-        <v>198</v>
-      </c>
       <c r="B101" s="4" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C101" s="4" t="s">
         <v>9</v>
@@ -3322,15 +3331,15 @@
         <v>19</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C102" s="4" t="s">
         <v>9</v>
@@ -3339,21 +3348,21 @@
         <v>10</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F102" s="4" t="s">
         <v>12</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C103" s="4" t="s">
         <v>9</v>
@@ -3365,18 +3374,18 @@
         <v>11</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G103" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="3" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="104" ht="16.5" customHeight="1">
-      <c r="A104" s="3" t="s">
-        <v>204</v>
-      </c>
       <c r="B104" s="4" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C104" s="4" t="s">
         <v>9</v>
@@ -3391,72 +3400,100 @@
         <v>12</v>
       </c>
       <c r="G104" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="3" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="105" ht="17.25" customHeight="1">
-      <c r="A105" s="6" t="s">
+      <c r="B105" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E105" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F105" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G105" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="B105" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C105" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D105" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E105" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F105" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G105" s="3" t="s">
+    </row>
+    <row r="106" ht="16.5" customHeight="1">
+      <c r="A106" s="3" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="6" t="s">
+      <c r="B106" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E106" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F106" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G106" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="B106" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C106" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D106" s="4" t="s">
+    </row>
+    <row r="107" ht="17.25" customHeight="1">
+      <c r="A107" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E107" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F107" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G107" s="3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D108" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E106" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F106" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G106" s="3" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="6"/>
-      <c r="B107" s="4"/>
-      <c r="C107" s="4"/>
-      <c r="D107" s="4"/>
-      <c r="E107" s="4"/>
-      <c r="F107" s="4"/>
-      <c r="G107" s="3"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="6"/>
-      <c r="B108" s="4"/>
-      <c r="C108" s="4"/>
-      <c r="D108" s="4"/>
-      <c r="E108" s="4"/>
-      <c r="F108" s="4"/>
-      <c r="G108" s="3"/>
+      <c r="E108" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F108" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G108" s="3" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="6"/>
@@ -3485,52 +3522,70 @@
       <c r="F111" s="4"/>
       <c r="G111" s="3"/>
     </row>
+    <row r="112">
+      <c r="A112" s="6"/>
+      <c r="B112" s="4"/>
+      <c r="C112" s="4"/>
+      <c r="D112" s="4"/>
+      <c r="E112" s="4"/>
+      <c r="F112" s="4"/>
+      <c r="G112" s="3"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="6"/>
+      <c r="B113" s="4"/>
+      <c r="C113" s="4"/>
+      <c r="D113" s="4"/>
+      <c r="E113" s="4"/>
+      <c r="F113" s="4"/>
+      <c r="G113" s="3"/>
+    </row>
   </sheetData>
-  <autoFilter ref="$A$1:$G$106">
-    <sortState ref="A1:G106">
-      <sortCondition ref="A1:A106"/>
-      <sortCondition ref="F1:F106"/>
-      <sortCondition descending="1" ref="C1:C106"/>
-      <sortCondition ref="G1:G106"/>
-      <sortCondition ref="E1:E106"/>
-      <sortCondition ref="D1:D106"/>
-      <sortCondition ref="B1:B106"/>
+  <autoFilter ref="$A$1:$G$108">
+    <sortState ref="A1:G108">
+      <sortCondition ref="A1:A108"/>
+      <sortCondition ref="F1:F108"/>
+      <sortCondition descending="1" ref="C1:C108"/>
+      <sortCondition ref="G1:G108"/>
+      <sortCondition ref="E1:E108"/>
+      <sortCondition ref="D1:D108"/>
+      <sortCondition ref="B1:B108"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="B1:C111">
+  <conditionalFormatting sqref="B1:C113">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:C111">
+  <conditionalFormatting sqref="B1:C113">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:C111">
+  <conditionalFormatting sqref="B1:C113">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"Partial"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:G111">
+  <conditionalFormatting sqref="A1:G113">
     <cfRule type="expression" dxfId="3" priority="4">
       <formula>ISEVEN(ROW())</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" sqref="F2:F111">
+    <dataValidation type="list" allowBlank="1" sqref="F2:F113">
       <formula1>"Standard,Inverted,Custom"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="B2:B111">
+    <dataValidation type="list" allowBlank="1" sqref="B2:B113">
       <formula1>"GB,GB/GBC,GBC"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E2:E111">
+    <dataValidation type="list" allowBlank="1" sqref="E2:E113">
       <formula1>"No,Yes"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D2:D111">
+    <dataValidation type="list" allowBlank="1" sqref="D2:D113">
       <formula1>"Normal,Double"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="C2:C111">
+    <dataValidation type="list" allowBlank="1" sqref="C2:C113">
       <formula1>"Yes,Partial,No"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Game Boy Printer Emulator - Games Support.xlsx
+++ b/Game Boy Printer Emulator - Games Support.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="213">
   <si>
     <t>Title</t>
   </si>
@@ -162,7 +162,7 @@
     <t>Dino Breeder 3 - Gaia Fukkatsu (ディノブリーダー3 〜ガイア復活〜)</t>
   </si>
   <si>
-    <t>Palette 0xE4. Uses a margin of 2 lines instead of 3 usually</t>
+    <t>Palette 0xE4. Uses a margin of 2 lines instead of 3 usually, you can print the ennemy that you have beaten in a kinf of death march but the game is horribly difficult and confusing.</t>
   </si>
   <si>
     <t>Disney's Dinosaur (never released in Japan)</t>
@@ -480,7 +480,7 @@
     <t>Pocket Family 2 (ポケットファミリーGB2)</t>
   </si>
   <si>
-    <t>Palette unknown. Original cartridge mandatory, HuC-3 mapper.</t>
+    <t>Palette 0x4C. Original cartridge mandatory, HuC-3 mapper. You can print family pictures with the game title.</t>
   </si>
   <si>
     <t>Pocket Puyo Puyo-n (ぽけっとぷよぷよ〜ん)</t>
@@ -615,7 +615,7 @@
     <t>Tales of Phantasia: Nakiri's Dungeon (テイルズ オブ ファンタジア なりきりダンジョン)</t>
   </si>
   <si>
-    <t>Palette 0x00, acts as 0xE4 (documented in pandocs). You can print images of your team characters</t>
+    <t>Palette 0x00, acts as 0xE4 (documented in pandocs). You can print images of your team characters but printing loops infinitely. On real printer it's OK.</t>
   </si>
   <si>
     <t>The Legend of Zelda: Link's Awakening DX (ゼルダの伝説 夢をみる島DX)</t>
@@ -627,7 +627,7 @@
     <t>The Little Mermaid 2: Pinball Frenzy (never released in Japan)</t>
   </si>
   <si>
-    <t>Palette 0x1B, you can print your score after a game.</t>
+    <t>Palette 0x1B, you can print your scores and some images by playing minigames unlocked on tables.</t>
   </si>
   <si>
     <t>Tony Hawk's Pro Skater 2 (never released in Japan)</t>
@@ -651,7 +651,7 @@
     <t>VS Lemmings (VS.レミングス)</t>
   </si>
   <si>
-    <t>Palette 0xE4. Lemmings (USA) has no printer support but it is the same game without VS mode</t>
+    <t>Palette 0xE4. Lemmings (USA) has no printer support but it is the same game without VS mode (it is a downgraded version from VS Lemmings).</t>
   </si>
 </sst>
 </file>
@@ -718,7 +718,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -745,9 +745,6 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2751,10 +2748,18 @@
       <c r="B76" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C76" s="4"/>
-      <c r="D76" s="9"/>
-      <c r="E76" s="9"/>
-      <c r="F76" s="9"/>
+      <c r="C76" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="G76" s="3" t="s">
         <v>155</v>
       </c>
@@ -3342,7 +3347,7 @@
         <v>17</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>9</v>
+        <v>87</v>
       </c>
       <c r="D102" s="4" t="s">
         <v>10</v>

--- a/Game Boy Printer Emulator - Games Support.xlsx
+++ b/Game Boy Printer Emulator - Games Support.xlsx
@@ -381,7 +381,7 @@
     <t>McDonald's Monogatari : Honobono Tenchou Ikusei Game (マクドナルド物語)</t>
   </si>
   <si>
-    <t>Palette 0x30. You can print the result from the cashier minigame, but it crashes with error #4 before sendind the print command</t>
+    <t>Palette 0x30 (2 colors). You can print the result from the cashier minigame, but it crashes with error #4 before sendind the print command</t>
   </si>
   <si>
     <t>Mickey's Racing Adventure (never released in Japan)</t>
@@ -1953,7 +1953,7 @@
         <v>11</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>92</v>

--- a/Game Boy Printer Emulator - Games Support.xlsx
+++ b/Game Boy Printer Emulator - Games Support.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="214">
   <si>
     <t>Title</t>
   </si>
@@ -387,16 +387,19 @@
     <t>Mickey's Racing Adventure (never released in Japan)</t>
   </si>
   <si>
+    <t>Palette 0xE4, some nice artworks to unlock and print by winning courses. Margin = 0.</t>
+  </si>
+  <si>
+    <t>Mickey's Speedway USA (never released in Japan)</t>
+  </si>
+  <si>
     <t>Palette 0xE4, some nice artworks to unlock and print by winning courses.</t>
   </si>
   <si>
-    <t>Mickey's Speedway USA (never released in Japan)</t>
-  </si>
-  <si>
     <t>Mission: Impossible (never released in Japan)</t>
   </si>
   <si>
-    <t>Palette 0xE4, you can print your notes.</t>
+    <t>Palette 0xE4, you can print your notes. Instead of margin, send a white packet with 0x00 as palette.</t>
   </si>
   <si>
     <t>Monster ★ Race 2 (もんすたあ★レース2)</t>
@@ -513,7 +516,7 @@
     <t>Pokémon Pinball (ポケモンピンボール)</t>
   </si>
   <si>
-    <t>Palette 0xE4, you can print the highscores</t>
+    <t>Palette 0xE0, you can print the highscores only</t>
   </si>
   <si>
     <t>Pokémon Silver (ポケットモンスター 銀)</t>
@@ -2370,12 +2373,12 @@
         <v>19</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>8</v>
@@ -2393,12 +2396,12 @@
         <v>19</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>17</v>
@@ -2416,12 +2419,12 @@
         <v>19</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>61</v>
@@ -2439,12 +2442,12 @@
         <v>19</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="6" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>8</v>
@@ -2462,12 +2465,12 @@
         <v>12</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>8</v>
@@ -2485,12 +2488,12 @@
         <v>12</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>8</v>
@@ -2508,12 +2511,12 @@
         <v>12</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>8</v>
@@ -2531,12 +2534,12 @@
         <v>12</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="67" ht="17.25" customHeight="1">
       <c r="A67" s="8" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>8</v>
@@ -2554,12 +2557,12 @@
         <v>12</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>17</v>
@@ -2577,12 +2580,12 @@
         <v>12</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="6" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>17</v>
@@ -2600,12 +2603,12 @@
         <v>12</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="5" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>8</v>
@@ -2623,12 +2626,12 @@
         <v>12</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>17</v>
@@ -2646,12 +2649,12 @@
         <v>19</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="6" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>61</v>
@@ -2669,12 +2672,12 @@
         <v>19</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>17</v>
@@ -2692,12 +2695,12 @@
         <v>12</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="6" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>61</v>
@@ -2715,12 +2718,12 @@
         <v>12</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>8</v>
@@ -2738,12 +2741,12 @@
         <v>19</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="8" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>8</v>
@@ -2761,12 +2764,12 @@
         <v>12</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="6" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>8</v>
@@ -2784,12 +2787,12 @@
         <v>19</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>17</v>
@@ -2807,12 +2810,12 @@
         <v>19</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>8</v>
@@ -2830,35 +2833,35 @@
         <v>19</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F80" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G80" s="3" t="s">
         <v>162</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D80" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E80" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F80" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G80" s="3" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="6" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>17</v>
@@ -2876,12 +2879,12 @@
         <v>12</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>17</v>
@@ -2896,15 +2899,15 @@
         <v>11</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="6" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>17</v>
@@ -2922,12 +2925,12 @@
         <v>19</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>17</v>
@@ -2945,12 +2948,12 @@
         <v>19</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>17</v>
@@ -2968,12 +2971,12 @@
         <v>19</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>17</v>
@@ -2991,12 +2994,12 @@
         <v>19</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>61</v>
@@ -3014,12 +3017,12 @@
         <v>12</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>8</v>
@@ -3037,12 +3040,12 @@
         <v>19</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>17</v>
@@ -3060,12 +3063,12 @@
         <v>19</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>8</v>
@@ -3083,12 +3086,12 @@
         <v>12</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>17</v>
@@ -3106,35 +3109,35 @@
         <v>19</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E92" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F92" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G92" s="3" t="s">
         <v>182</v>
-      </c>
-      <c r="B92" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D92" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E92" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F92" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G92" s="3" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="6" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>8</v>
@@ -3157,7 +3160,7 @@
     </row>
     <row r="94">
       <c r="A94" s="8" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>61</v>
@@ -3175,12 +3178,12 @@
         <v>19</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="6" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>17</v>
@@ -3198,12 +3201,12 @@
         <v>12</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="6" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>17</v>
@@ -3221,12 +3224,12 @@
         <v>19</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>8</v>
@@ -3244,12 +3247,12 @@
         <v>19</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="6" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>17</v>
@@ -3267,12 +3270,12 @@
         <v>19</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="6" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>17</v>
@@ -3290,35 +3293,35 @@
         <v>19</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F100" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G100" s="3" t="s">
         <v>196</v>
-      </c>
-      <c r="B100" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C100" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D100" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E100" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F100" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="6" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>8</v>
@@ -3336,12 +3339,12 @@
         <v>19</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>17</v>
@@ -3359,12 +3362,12 @@
         <v>12</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>17</v>
@@ -3382,12 +3385,12 @@
         <v>19</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>8</v>
@@ -3405,12 +3408,12 @@
         <v>12</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B105" s="4" t="s">
         <v>8</v>
@@ -3428,12 +3431,12 @@
         <v>12</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="106" ht="16.5" customHeight="1">
       <c r="A106" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B106" s="4" t="s">
         <v>17</v>
@@ -3451,12 +3454,12 @@
         <v>12</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="107" ht="17.25" customHeight="1">
       <c r="A107" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B107" s="4" t="s">
         <v>17</v>
@@ -3474,12 +3477,12 @@
         <v>19</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="6" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B108" s="4" t="s">
         <v>8</v>
@@ -3497,7 +3500,7 @@
         <v>19</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="109">

--- a/Game Boy Printer Emulator - Games Support.xlsx
+++ b/Game Boy Printer Emulator - Games Support.xlsx
@@ -516,7 +516,7 @@
     <t>Pokémon Pinball (ポケモンピンボール)</t>
   </si>
   <si>
-    <t>Palette 0xE0, you can print the highscores only</t>
+    <t>Palette 0xE0 (3 colors), you can print the highscores only...</t>
   </si>
   <si>
     <t>Pokémon Silver (ポケットモンスター 銀)</t>
@@ -3553,11 +3553,11 @@
     <sortState ref="A1:G108">
       <sortCondition ref="A1:A108"/>
       <sortCondition ref="F1:F108"/>
+      <sortCondition ref="D1:D108"/>
+      <sortCondition ref="B1:B108"/>
       <sortCondition descending="1" ref="C1:C108"/>
       <sortCondition ref="G1:G108"/>
       <sortCondition ref="E1:E108"/>
-      <sortCondition ref="D1:D108"/>
-      <sortCondition ref="B1:B108"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="B1:C113">

--- a/Game Boy Printer Emulator - Games Support.xlsx
+++ b/Game Boy Printer Emulator - Games Support.xlsx
@@ -1,23 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
-  <bookViews>
-    <workbookView xWindow="270" yWindow="540" windowWidth="18615" windowHeight="11190"/>
-  </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$108</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$H$108</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="218">
   <si>
     <t>Title</t>
   </si>
@@ -64,7 +60,7 @@
     <t>Automatic</t>
   </si>
   <si>
-    <t>Palette 0x03 (2 colors) on purpose (unique known case). You can print scores every 4 levels or at game over</t>
+    <t>Palette 0x03 (2 colors) on purpose. You can print scores every 4 levels or at game over</t>
   </si>
   <si>
     <t>Alice in Wonderland (never released in Japan)</t>
@@ -115,6 +111,18 @@
     <t>Austin Powers: Welcome to My Underground Lair! (never released in Japan)</t>
   </si>
   <si>
+    <t>Cardcaptor Sakura: Itsumo Sakura-chan to Issho! (カードキャプターさくら 〜いつもさくらちゃんと一緒〜)</t>
+  </si>
+  <si>
+    <t>Palette 0xE4, you can print custom banners.</t>
+  </si>
+  <si>
+    <t>Cardcaptor Sakura: Tomoe Shōgakkō Daiundōkai (カードキャプターさくら 〜友枝小学校大運動会〜)</t>
+  </si>
+  <si>
+    <t>Palette 0x1B, you can print custom banners.</t>
+  </si>
+  <si>
     <t>Chee-Chai Alien (ちっちゃいエイリアン)</t>
   </si>
   <si>
@@ -175,6 +183,15 @@
     <t>Palette 0xE1, must be 0xD2 (LG and DG inverted)</t>
   </si>
   <si>
+    <t>Donkey Kong Country (ドンキーコング2001)</t>
+  </si>
+  <si>
+    <t>Both</t>
+  </si>
+  <si>
+    <t>Palette 0xE4, you can print an alphabet and some images unlocked with level completed</t>
+  </si>
+  <si>
     <t>Doraemon Kart 2 (ドラえもんカート2)</t>
   </si>
   <si>
@@ -208,6 +225,15 @@
     <t>Palette 0xE4. You can print the characters of your team after their recruitment (it's a dungeon keeper game)</t>
   </si>
   <si>
+    <t>E.T.: Digital Companion (never released in Japan)</t>
+  </si>
+  <si>
+    <t>Manual</t>
+  </si>
+  <si>
+    <t>Palette 0xE4. Lazy end of printing with blank packets rather than standard protocol (use of margins)</t>
+  </si>
+  <si>
     <t>Fairy Kitty no Kaiun Jiten: Yousei no Kuni no Uranai Shugyou (フェアリーキティの開運辞典 妖精の国の占い修行)</t>
   </si>
   <si>
@@ -259,6 +285,12 @@
     <t>Palette 0xE4. You have to complete some puzzle rounds to allow printing something</t>
   </si>
   <si>
+    <t>Hello Kitty no Magical museum (ハローキティのマジカルミュージアム)</t>
+  </si>
+  <si>
+    <t>Palette 0xE4. You can print about 45 cute images after completing puzzle games.</t>
+  </si>
+  <si>
     <t>Hello Kitty Pocket Camera (ハローキティのポケットカメラ)</t>
   </si>
   <si>
@@ -352,6 +384,15 @@
     <t>Palette 0xE4, you can print the high scores.</t>
   </si>
   <si>
+    <t>Mary-Kate and Ashley Pocket Planner (never released in Japan)</t>
+  </si>
+  <si>
+    <t>McDonald's Monogatari : Honobono Tenchou Ikusei Game (マクドナルド物語)</t>
+  </si>
+  <si>
+    <t>Palette 0x30 (2 colors). You can print the result from the cashier minigame.</t>
+  </si>
+  <si>
     <t>Mickey's Racing Adventure (never released in Japan)</t>
   </si>
   <si>
@@ -382,6 +423,33 @@
     <t>Palette 0xE4. You can rapidely print something after choosing your starter (after about 10 minutes of gameplay), from your individual menu</t>
   </si>
   <si>
+    <t>Nakayoshi Cooking Series 1 - Oishii Cake-ya-san (なかよしクッキングシリーズ1 おいしいケーキ屋さん)</t>
+  </si>
+  <si>
+    <t>Palette 0x07 (2 colors), you can print recipes..</t>
+  </si>
+  <si>
+    <t>Nakayoshi Cooking Series 2 - Oishii Panya-san (なかよしクッキングシリーズ2 おいしいパン屋さん)</t>
+  </si>
+  <si>
+    <t>Palette 0x07 (2 colors), you can print recipes.</t>
+  </si>
+  <si>
+    <t>Nakayoshi Cooking Series 3 - Tanoshii Obentou (なかよしクッキングシリーズ3 たのしいお弁当)</t>
+  </si>
+  <si>
+    <t>Palette 0x1B, weird protocol but works, you can print recipes and food images.</t>
+  </si>
+  <si>
+    <t>Nakayoshi Cooking Series 4 - Tanoshii Dessert (なかよしクッキングシリーズ4 たのしいデザート)</t>
+  </si>
+  <si>
+    <t>Nakayoshi Cooking Series 5 - Cake Wo Tsukurou (なかよしクッキングシリーズ5 こむぎちゃんのケーキをつくろう!)</t>
+  </si>
+  <si>
+    <t>Palette 0x1B, weird protocol but works, you can print images of ingredients and characters when the game is completed at 100% only !</t>
+  </si>
+  <si>
     <t>Nakayoshi Pet Series 1: Kawaii Hamster (なかよしペットシリーズ1 かわいいハムスター)</t>
   </si>
   <si>
@@ -400,6 +468,12 @@
     <t>Palette 0xE4, you can print your team statistics</t>
   </si>
   <si>
+    <t>Nintama Rantarou GB: Eawase Challenge Puzzle (忍たま乱太郎GB えあわせチャレンジパズル)</t>
+  </si>
+  <si>
+    <t>Palette 0xE4. You can unlock many cute "seals" by playing minigames or entering cheatcodes. Enter ZEEN then STOM in the code zone to unlock ton of seals and puzzles to print.</t>
+  </si>
+  <si>
     <t>Ojarumaru: Mitsunegai Jinja no Ennichi de Ojaru! (おじゃる丸 〜満願神社は縁日でおじゃる!)</t>
   </si>
   <si>
@@ -526,6 +600,12 @@
     <t>Palette 0xE4. You can print your catches but fishing in this game is horribly frustrating.</t>
   </si>
   <si>
+    <t>Super Mario Bros. Deluxe (スーパーマリオブラザーズデラックス)</t>
+  </si>
+  <si>
+    <t>Palette 0xE4. Very nice printing features to unlock by completing challenges</t>
+  </si>
+  <si>
     <t>Sweet Angel (スウィートアンジェ)</t>
   </si>
   <si>
@@ -550,7 +630,7 @@
     <t>Tales of Phantasia: Nakiri's Dungeon (テイルズ オブ ファンタジア なりきりダンジョン)</t>
   </si>
   <si>
-    <t>Palette 0x00, acts as 0xE4 (documented in pandocs). You can print images of your team characters but printing loops infinitely. On real printer it's OK.</t>
+    <t>Palette 0x00, acts as 0xE4 (documented in pandocs). You can print images of your team characters in diffrent costumes. Printing protocol spams 0F commands but works.</t>
   </si>
   <si>
     <t>The Legend of Zelda: Link's Awakening DX (ゼルダの伝説 夢をみる島DX)</t>
@@ -587,122 +667,41 @@
   </si>
   <si>
     <t>Palette 0xE4. Lemmings (USA) has no printer support but it is the same game without VS mode (it is a downgraded version from VS Lemmings).</t>
-  </si>
-  <si>
-    <t>Cardcaptor Sakura: Itsumo Sakura-chan to Issho! (カードキャプターさくら 〜いつもさくらちゃんと一緒〜)</t>
-  </si>
-  <si>
-    <t>Both</t>
-  </si>
-  <si>
-    <t>Palette 0xE4, you can print custom banners.</t>
-  </si>
-  <si>
-    <t>Cardcaptor Sakura: Tomoe Shōgakkō Daiundōkai (カードキャプターさくら 〜友枝小学校大運動会〜)</t>
-  </si>
-  <si>
-    <t>Palette 0x1B, you can print custom banners.</t>
-  </si>
-  <si>
-    <t>Donkey Kong Country (ドンキーコング2001)</t>
-  </si>
-  <si>
-    <t>Palette 0xE4, you can print an alphabet and some images unlocked with level completed</t>
-  </si>
-  <si>
-    <t>Super Mario Bros. Deluxe (スーパーマリオブラザーズデラックス)</t>
-  </si>
-  <si>
-    <t>Palette 0xE4. Very nice printing features to unlock by completing challenges</t>
-  </si>
-  <si>
-    <t>E.T.: Digital Companion (never released in Japan)</t>
-  </si>
-  <si>
-    <t>Manual</t>
-  </si>
-  <si>
-    <t>Palette 0xE4. Lazy end of printing with blank packets rather than standard protocol (use of margins)</t>
-  </si>
-  <si>
-    <t>Hello Kitty no Magical museum (ハローキティのマジカルミュージアム)</t>
-  </si>
-  <si>
-    <t>Palette 0xE4. Crashes before sending the print command</t>
-  </si>
-  <si>
-    <t>Mary-Kate and Ashley Pocket Planner (never released in Japan)</t>
-  </si>
-  <si>
-    <t>McDonald's Monogatari : Honobono Tenchou Ikusei Game (マクドナルド物語)</t>
-  </si>
-  <si>
-    <t>Palette 0x30 (2 colors). You can print the result from the cashier minigame, but it crashes with error #4 before sendind the print command</t>
-  </si>
-  <si>
-    <t>Nakayoshi Cooking Series 1 - Oishii Cake-ya-san (なかよしクッキングシリーズ1 おいしいケーキ屋さん)</t>
-  </si>
-  <si>
-    <t>Palette 0x07 (2 colors) just send a white packet (full of 0xFFs) when trying to print a recipe.</t>
-  </si>
-  <si>
-    <t>Nakayoshi Cooking Series 2 - Oishii Panya-san (なかよしクッキングシリーズ2 おいしいパン屋さん)</t>
-  </si>
-  <si>
-    <t>Nakayoshi Cooking Series 3 - Tanoshii Obentou (なかよしクッキングシリーズ3 たのしいお弁当)</t>
-  </si>
-  <si>
-    <t>Palette 0x1B, weird protocol but works, you can print recipes and food images.</t>
-  </si>
-  <si>
-    <t>Nakayoshi Cooking Series 4 - Tanoshii Dessert (なかよしクッキングシリーズ4 たのしいデザート)</t>
-  </si>
-  <si>
-    <t>Nakayoshi Cooking Series 5 - Cake Wo Tsukurou (なかよしクッキングシリーズ5 こむぎちゃんのケーキをつくろう!)</t>
-  </si>
-  <si>
-    <t>Palette 0x1B, weird protocol but works, you can print images of ingredients and characters when the game is completed at 100% only !</t>
-  </si>
-  <si>
-    <t>Nintama Rantarou GB: Eawase Challenge Puzzle (忍たま乱太郎GB えあわせチャレンジパズル)</t>
-  </si>
-  <si>
-    <t>Palette 0xE4. You can unlock many cute "seals" by playing minigames or entering cheatcodes. Enter ZEEN then STOM in the code zone to unlock ton of seals and puzzles to print.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <fonts count="6">
     <font>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color rgb="FFFFFFFF"/>
       <name val="Consolas"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color theme="1"/>
       <name val="Consolas"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="Docs-Consolas"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color rgb="FF333333"/>
       <name val="Consolas"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="Consolas"/>
     </font>
@@ -712,7 +711,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -734,87 +733,100 @@
     </fill>
   </fills>
   <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
   <cellXfs count="11">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
   <dxfs count="4">
     <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEA9999"/>
+          <bgColor rgb="FFEA9999"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFE599"/>
+          <bgColor rgb="FFFFE599"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFF3F3F3"/>
           <bgColor rgb="FFF3F3F3"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFE599"/>
-          <bgColor rgb="FFFFE599"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEA9999"/>
-          <bgColor rgb="FFEA9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
+      <border/>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1004,35 +1016,32 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H113"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="70.42578125" customWidth="1"/>
-    <col min="2" max="4" width="15.85546875" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" customWidth="1"/>
-    <col min="7" max="7" width="30.28515625" customWidth="1"/>
-    <col min="8" max="8" width="64.42578125" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="70.43"/>
+    <col customWidth="1" min="2" max="4" width="15.86"/>
+    <col customWidth="1" min="5" max="5" width="16.71"/>
+    <col customWidth="1" min="6" max="6" width="19.57"/>
+    <col customWidth="1" min="7" max="7" width="30.29"/>
+    <col customWidth="1" min="8" max="8" width="64.43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15">
+    <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1058,7 +1067,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15">
+    <row r="2">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
@@ -1084,7 +1093,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15">
+    <row r="3">
       <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
@@ -1110,7 +1119,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15">
+    <row r="4">
       <c r="A4" s="6" t="s">
         <v>18</v>
       </c>
@@ -1136,7 +1145,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15">
+    <row r="5">
       <c r="A5" s="6" t="s">
         <v>23</v>
       </c>
@@ -1162,7 +1171,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15">
+    <row r="6">
       <c r="A6" s="7" t="s">
         <v>25</v>
       </c>
@@ -1188,7 +1197,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15">
+    <row r="7">
       <c r="A7" s="3" t="s">
         <v>27</v>
       </c>
@@ -1214,7 +1223,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15">
+    <row r="8">
       <c r="A8" s="3" t="s">
         <v>29</v>
       </c>
@@ -1240,7 +1249,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15">
+    <row r="9">
       <c r="A9" s="3" t="s">
         <v>31</v>
       </c>
@@ -1266,9 +1275,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15">
+    <row r="10">
       <c r="A10" s="3" t="s">
-        <v>190</v>
+        <v>32</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>19</v>
@@ -1285,16 +1294,16 @@
       <c r="F10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="10" t="s">
-        <v>191</v>
+      <c r="G10" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="15">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="3" t="s">
-        <v>193</v>
+        <v>34</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>9</v>
@@ -1311,16 +1320,16 @@
       <c r="F11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="10" t="s">
-        <v>191</v>
+      <c r="G11" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="15">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>9</v>
@@ -1341,12 +1350,12 @@
         <v>14</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="15">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="7" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>9</v>
@@ -1367,12 +1376,12 @@
         <v>14</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="15">
-      <c r="A14" s="7" t="s">
-        <v>36</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="6" t="s">
+        <v>40</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>9</v>
@@ -1393,12 +1402,12 @@
         <v>14</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="15">
-      <c r="A15" s="6" t="s">
-        <v>37</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>9</v>
@@ -1419,12 +1428,12 @@
         <v>14</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="15">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="7" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>9</v>
@@ -1444,13 +1453,13 @@
       <c r="G16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H16" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="15">
-      <c r="A17" s="7" t="s">
-        <v>40</v>
+      <c r="H16" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="6" t="s">
+        <v>44</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>19</v>
@@ -1471,12 +1480,12 @@
         <v>14</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="15">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="3" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>9</v>
@@ -1497,12 +1506,12 @@
         <v>14</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="15">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="7" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>9</v>
@@ -1523,12 +1532,12 @@
         <v>14</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="15">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="7" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>19</v>
@@ -1549,12 +1558,12 @@
         <v>14</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="15">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="3" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>9</v>
@@ -1575,12 +1584,12 @@
         <v>14</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="15">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="3" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>9</v>
@@ -1601,12 +1610,12 @@
         <v>14</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="15">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="3" t="s">
-        <v>195</v>
+        <v>56</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>9</v>
@@ -1623,16 +1632,16 @@
       <c r="F23" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G23" s="10" t="s">
-        <v>191</v>
+      <c r="G23" s="8" t="s">
+        <v>57</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="15">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="7" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>19</v>
@@ -1653,12 +1662,12 @@
         <v>14</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="15">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="7" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>19</v>
@@ -1679,15 +1688,15 @@
         <v>14</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="15">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="7" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>10</v>
@@ -1705,12 +1714,12 @@
         <v>14</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="15">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="7" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>9</v>
@@ -1731,12 +1740,12 @@
         <v>14</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="15">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="7" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>19</v>
@@ -1757,12 +1766,12 @@
         <v>14</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="15">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="3" t="s">
-        <v>199</v>
+        <v>70</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>9</v>
@@ -1779,16 +1788,16 @@
       <c r="F29" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G29" s="10" t="s">
-        <v>200</v>
+      <c r="G29" s="8" t="s">
+        <v>71</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="15">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="7" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>19</v>
@@ -1809,42 +1818,42 @@
         <v>14</v>
       </c>
       <c r="H30" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B32" s="4" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" ht="15">
-      <c r="A31" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="15">
-      <c r="A32" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>57</v>
-      </c>
       <c r="C32" s="4" t="s">
         <v>10</v>
       </c>
@@ -1861,12 +1870,12 @@
         <v>14</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="15">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="7" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>19</v>
@@ -1887,12 +1896,12 @@
         <v>14</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="15">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="3" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>19</v>
@@ -1913,12 +1922,12 @@
         <v>14</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="15">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="3" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>19</v>
@@ -1939,12 +1948,12 @@
         <v>14</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="15">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="3" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>9</v>
@@ -1965,12 +1974,12 @@
         <v>14</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="15">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="3" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>19</v>
@@ -1991,12 +2000,12 @@
         <v>14</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="15">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="7" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>19</v>
@@ -2017,12 +2026,12 @@
         <v>14</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="15">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="3" t="s">
-        <v>202</v>
+        <v>90</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>19</v>
@@ -2039,19 +2048,19 @@
       <c r="F39" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G39" s="10" t="s">
-        <v>200</v>
+      <c r="G39" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="15">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="7" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>10</v>
@@ -2069,12 +2078,12 @@
         <v>14</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="15">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="3" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>19</v>
@@ -2095,12 +2104,12 @@
         <v>14</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="15">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="3" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>9</v>
@@ -2121,12 +2130,12 @@
         <v>14</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="15">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="7" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>19</v>
@@ -2147,12 +2156,12 @@
         <v>14</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="15">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="7" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>19</v>
@@ -2173,12 +2182,12 @@
         <v>14</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="15">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="7" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>19</v>
@@ -2199,12 +2208,12 @@
         <v>14</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="15">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="7" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>19</v>
@@ -2225,12 +2234,12 @@
         <v>14</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="15">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="7" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>19</v>
@@ -2251,12 +2260,12 @@
         <v>14</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="15">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="3" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>9</v>
@@ -2277,12 +2286,12 @@
         <v>14</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="15">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="7" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>19</v>
@@ -2303,12 +2312,12 @@
         <v>14</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="15">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="3" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>9</v>
@@ -2329,12 +2338,12 @@
         <v>14</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="15">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="7" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>19</v>
@@ -2355,12 +2364,12 @@
         <v>14</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="15">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="3" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>9</v>
@@ -2381,12 +2390,12 @@
         <v>14</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="15">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="3" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>9</v>
@@ -2407,12 +2416,12 @@
         <v>14</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="15">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="7" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>9</v>
@@ -2433,12 +2442,12 @@
         <v>14</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="15">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="3" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>9</v>
@@ -2459,12 +2468,12 @@
         <v>14</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="15">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="3" t="s">
-        <v>204</v>
+        <v>123</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>19</v>
@@ -2481,16 +2490,16 @@
       <c r="F56" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G56" s="10" t="s">
-        <v>200</v>
+      <c r="G56" s="8" t="s">
+        <v>71</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="15">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="3" t="s">
-        <v>205</v>
+        <v>124</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>9</v>
@@ -2507,16 +2516,16 @@
       <c r="F57" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G57" s="10" t="s">
-        <v>200</v>
+      <c r="G57" s="8" t="s">
+        <v>71</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="15">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="3" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>9</v>
@@ -2537,12 +2546,12 @@
         <v>14</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="15">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="59">
       <c r="A59" s="3" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>9</v>
@@ -2563,12 +2572,12 @@
         <v>14</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="15">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="3" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>9</v>
@@ -2589,12 +2598,12 @@
         <v>14</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" ht="15">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="61">
       <c r="A61" s="3" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>19</v>
@@ -2615,15 +2624,15 @@
         <v>14</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" ht="15">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="62">
       <c r="A62" s="3" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>10</v>
@@ -2641,12 +2650,12 @@
         <v>14</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" ht="15">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="63">
       <c r="A63" s="7" t="s">
-        <v>207</v>
+        <v>136</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>9</v>
@@ -2663,16 +2672,16 @@
       <c r="F63" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G63" s="10" t="s">
-        <v>200</v>
+      <c r="G63" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" ht="15">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="64">
       <c r="A64" s="7" t="s">
-        <v>209</v>
+        <v>138</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>9</v>
@@ -2689,16 +2698,16 @@
       <c r="F64" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G64" s="10" t="s">
-        <v>200</v>
+      <c r="G64" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" ht="15">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="65">
       <c r="A65" s="7" t="s">
-        <v>210</v>
+        <v>140</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>9</v>
@@ -2715,16 +2724,16 @@
       <c r="F65" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G65" s="10" t="s">
-        <v>200</v>
+      <c r="G65" s="8" t="s">
+        <v>71</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" ht="15">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="66">
       <c r="A66" s="7" t="s">
-        <v>212</v>
+        <v>142</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>9</v>
@@ -2741,16 +2750,16 @@
       <c r="F66" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G66" s="10" t="s">
-        <v>200</v>
+      <c r="G66" s="8" t="s">
+        <v>71</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" ht="17.25" customHeight="1">
-      <c r="A67" s="9" t="s">
-        <v>213</v>
+        <v>141</v>
+      </c>
+    </row>
+    <row r="67" ht="17.25" customHeight="1">
+      <c r="A67" s="10" t="s">
+        <v>143</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>9</v>
@@ -2767,16 +2776,16 @@
       <c r="F67" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G67" s="10" t="s">
-        <v>200</v>
+      <c r="G67" s="8" t="s">
+        <v>71</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" ht="15">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="68">
       <c r="A68" s="7" t="s">
-        <v>121</v>
+        <v>145</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>19</v>
@@ -2797,12 +2806,12 @@
         <v>14</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" ht="15">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="69">
       <c r="A69" s="7" t="s">
-        <v>123</v>
+        <v>147</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>19</v>
@@ -2823,12 +2832,12 @@
         <v>14</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" ht="15">
-      <c r="A70" s="7" t="s">
-        <v>124</v>
+        <v>146</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="6" t="s">
+        <v>148</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>9</v>
@@ -2849,12 +2858,12 @@
         <v>14</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" ht="15">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="71">
       <c r="A71" s="3" t="s">
-        <v>125</v>
+        <v>149</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>19</v>
@@ -2875,15 +2884,15 @@
         <v>14</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" ht="15">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="72">
       <c r="A72" s="7" t="s">
-        <v>215</v>
+        <v>151</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>10</v>
@@ -2897,16 +2906,16 @@
       <c r="F72" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G72" s="10" t="s">
-        <v>200</v>
+      <c r="G72" s="8" t="s">
+        <v>71</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" ht="15">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="73">
       <c r="A73" s="3" t="s">
-        <v>127</v>
+        <v>153</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>19</v>
@@ -2927,15 +2936,15 @@
         <v>14</v>
       </c>
       <c r="H73" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" ht="15">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="74">
       <c r="A74" s="7" t="s">
-        <v>129</v>
+        <v>155</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>10</v>
@@ -2953,12 +2962,12 @@
         <v>14</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" ht="15">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="75">
       <c r="A75" s="3" t="s">
-        <v>131</v>
+        <v>157</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>9</v>
@@ -2979,12 +2988,12 @@
         <v>14</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" ht="15">
-      <c r="A76" s="9" t="s">
-        <v>133</v>
+        <v>158</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="10" t="s">
+        <v>159</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>9</v>
@@ -3005,12 +3014,12 @@
         <v>14</v>
       </c>
       <c r="H76" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" ht="15">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="77">
       <c r="A77" s="7" t="s">
-        <v>135</v>
+        <v>161</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>9</v>
@@ -3031,12 +3040,12 @@
         <v>14</v>
       </c>
       <c r="H77" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" ht="15">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="78">
       <c r="A78" s="3" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>19</v>
@@ -3057,12 +3066,12 @@
         <v>14</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" ht="15">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="79">
       <c r="A79" s="3" t="s">
-        <v>139</v>
+        <v>165</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>9</v>
@@ -3083,12 +3092,12 @@
         <v>14</v>
       </c>
       <c r="H79" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" ht="15">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="80">
       <c r="A80" s="3" t="s">
-        <v>141</v>
+        <v>167</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>19</v>
@@ -3109,12 +3118,12 @@
         <v>14</v>
       </c>
       <c r="H80" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" ht="15">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="81">
       <c r="A81" s="7" t="s">
-        <v>142</v>
+        <v>168</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>19</v>
@@ -3135,12 +3144,12 @@
         <v>14</v>
       </c>
       <c r="H81" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" ht="15">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="82">
       <c r="A82" s="3" t="s">
-        <v>144</v>
+        <v>170</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>19</v>
@@ -3161,12 +3170,12 @@
         <v>14</v>
       </c>
       <c r="H82" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" ht="15">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="83">
       <c r="A83" s="7" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>19</v>
@@ -3187,12 +3196,12 @@
         <v>14</v>
       </c>
       <c r="H83" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" ht="15">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="84">
       <c r="A84" s="3" t="s">
-        <v>147</v>
+        <v>173</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>19</v>
@@ -3213,12 +3222,12 @@
         <v>14</v>
       </c>
       <c r="H84" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" ht="15">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="85">
       <c r="A85" s="3" t="s">
-        <v>148</v>
+        <v>174</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>19</v>
@@ -3239,12 +3248,12 @@
         <v>14</v>
       </c>
       <c r="H85" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" ht="15">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="86">
       <c r="A86" s="7" t="s">
-        <v>149</v>
+        <v>175</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>19</v>
@@ -3265,15 +3274,15 @@
         <v>14</v>
       </c>
       <c r="H86" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" ht="15">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="87">
       <c r="A87" s="7" t="s">
-        <v>151</v>
+        <v>177</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>10</v>
@@ -3291,12 +3300,12 @@
         <v>14</v>
       </c>
       <c r="H87" s="3" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" ht="15">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="88">
       <c r="A88" s="3" t="s">
-        <v>153</v>
+        <v>179</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>9</v>
@@ -3317,12 +3326,12 @@
         <v>14</v>
       </c>
       <c r="H88" s="3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" ht="15">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="89">
       <c r="A89" s="3" t="s">
-        <v>155</v>
+        <v>181</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>19</v>
@@ -3343,12 +3352,12 @@
         <v>14</v>
       </c>
       <c r="H89" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" ht="15">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="90">
       <c r="A90" s="3" t="s">
-        <v>157</v>
+        <v>183</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>9</v>
@@ -3369,12 +3378,12 @@
         <v>14</v>
       </c>
       <c r="H90" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" ht="15">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="91">
       <c r="A91" s="7" t="s">
-        <v>159</v>
+        <v>185</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>19</v>
@@ -3395,12 +3404,12 @@
         <v>14</v>
       </c>
       <c r="H91" s="3" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" ht="15">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="92">
       <c r="A92" s="7" t="s">
-        <v>161</v>
+        <v>187</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>19</v>
@@ -3421,12 +3430,12 @@
         <v>14</v>
       </c>
       <c r="H92" s="3" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" ht="15">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="93">
       <c r="A93" s="7" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>9</v>
@@ -3447,15 +3456,15 @@
         <v>14</v>
       </c>
       <c r="H93" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" ht="15">
-      <c r="A94" s="9" t="s">
-        <v>163</v>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="10" t="s">
+        <v>189</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="C94" s="4" t="s">
         <v>10</v>
@@ -3473,12 +3482,12 @@
         <v>14</v>
       </c>
       <c r="H94" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" ht="15">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="95">
       <c r="A95" s="7" t="s">
-        <v>165</v>
+        <v>191</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>19</v>
@@ -3499,12 +3508,12 @@
         <v>14</v>
       </c>
       <c r="H95" s="3" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" ht="15">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="96">
       <c r="A96" s="7" t="s">
-        <v>167</v>
+        <v>193</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>19</v>
@@ -3525,12 +3534,12 @@
         <v>14</v>
       </c>
       <c r="H96" s="3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" ht="15">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="97">
       <c r="A97" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>9</v>
@@ -3547,42 +3556,42 @@
       <c r="F97" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G97" s="10" t="s">
-        <v>191</v>
+      <c r="G97" s="8" t="s">
+        <v>57</v>
       </c>
       <c r="H97" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E98" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F98" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G98" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H98" s="3" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="15">
-      <c r="A98" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="B98" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C98" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D98" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E98" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F98" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G98" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H98" s="3" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" ht="15">
+    <row r="99">
       <c r="A99" s="7" t="s">
-        <v>171</v>
+        <v>199</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>19</v>
@@ -3603,12 +3612,12 @@
         <v>14</v>
       </c>
       <c r="H99" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" ht="15">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="100">
       <c r="A100" s="7" t="s">
-        <v>173</v>
+        <v>201</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>9</v>
@@ -3629,12 +3638,12 @@
         <v>14</v>
       </c>
       <c r="H100" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" ht="15">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="101">
       <c r="A101" s="7" t="s">
-        <v>174</v>
+        <v>202</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>9</v>
@@ -3655,12 +3664,12 @@
         <v>14</v>
       </c>
       <c r="H101" s="3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" ht="15">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="102">
       <c r="A102" s="3" t="s">
-        <v>176</v>
+        <v>204</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>19</v>
@@ -3681,12 +3690,12 @@
         <v>14</v>
       </c>
       <c r="H102" s="3" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" ht="15">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="103">
       <c r="A103" s="3" t="s">
-        <v>178</v>
+        <v>206</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>19</v>
@@ -3707,12 +3716,12 @@
         <v>14</v>
       </c>
       <c r="H103" s="3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" ht="15">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="104">
       <c r="A104" s="3" t="s">
-        <v>180</v>
+        <v>208</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>9</v>
@@ -3733,12 +3742,12 @@
         <v>14</v>
       </c>
       <c r="H104" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" ht="15">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="105">
       <c r="A105" s="3" t="s">
-        <v>182</v>
+        <v>210</v>
       </c>
       <c r="B105" s="4" t="s">
         <v>9</v>
@@ -3759,12 +3768,12 @@
         <v>14</v>
       </c>
       <c r="H105" s="3" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" ht="16.5" customHeight="1">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="106" ht="16.5" customHeight="1">
       <c r="A106" s="3" t="s">
-        <v>184</v>
+        <v>212</v>
       </c>
       <c r="B106" s="4" t="s">
         <v>19</v>
@@ -3785,12 +3794,12 @@
         <v>14</v>
       </c>
       <c r="H106" s="3" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" ht="17.25" customHeight="1">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="107" ht="17.25" customHeight="1">
       <c r="A107" s="7" t="s">
-        <v>186</v>
+        <v>214</v>
       </c>
       <c r="B107" s="4" t="s">
         <v>19</v>
@@ -3811,12 +3820,12 @@
         <v>14</v>
       </c>
       <c r="H107" s="3" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" ht="15">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="108">
       <c r="A108" s="7" t="s">
-        <v>188</v>
+        <v>216</v>
       </c>
       <c r="B108" s="4" t="s">
         <v>9</v>
@@ -3837,10 +3846,10 @@
         <v>14</v>
       </c>
       <c r="H108" s="3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" ht="15">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="109">
       <c r="A109" s="7"/>
       <c r="B109" s="4"/>
       <c r="C109" s="4"/>
@@ -3850,7 +3859,7 @@
       <c r="G109" s="3"/>
       <c r="H109" s="3"/>
     </row>
-    <row r="110" spans="1:8" ht="15">
+    <row r="110">
       <c r="A110" s="7"/>
       <c r="B110" s="4"/>
       <c r="C110" s="4"/>
@@ -3860,7 +3869,7 @@
       <c r="G110" s="3"/>
       <c r="H110" s="3"/>
     </row>
-    <row r="111" spans="1:8" ht="15">
+    <row r="111">
       <c r="A111" s="7"/>
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
@@ -3870,7 +3879,7 @@
       <c r="G111" s="3"/>
       <c r="H111" s="3"/>
     </row>
-    <row r="112" spans="1:8" ht="15">
+    <row r="112">
       <c r="A112" s="7"/>
       <c r="B112" s="4"/>
       <c r="C112" s="4"/>
@@ -3880,7 +3889,7 @@
       <c r="G112" s="3"/>
       <c r="H112" s="3"/>
     </row>
-    <row r="113" spans="1:8" ht="15">
+    <row r="113">
       <c r="A113" s="7"/>
       <c r="B113" s="4"/>
       <c r="C113" s="4"/>
@@ -3891,32 +3900,39 @@
       <c r="H113" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H108">
-    <sortState ref="A2:H108">
+  <autoFilter ref="$A$1:$H$108">
+    <sortState ref="A1:H108">
       <sortCondition ref="A1:A108"/>
+      <sortCondition ref="G1:G108"/>
+      <sortCondition ref="F1:F108"/>
+      <sortCondition ref="D1:D108"/>
+      <sortCondition ref="B1:B108"/>
+      <sortCondition descending="1" ref="C1:C108"/>
+      <sortCondition ref="H1:H108"/>
+      <sortCondition ref="E1:E108"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="B1:C113">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:C113">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:C113">
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"Partial"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:H113">
-    <cfRule type="expression" dxfId="0" priority="4">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>ISEVEN(ROW())</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="6">
+  <dataValidations>
     <dataValidation type="list" allowBlank="1" sqref="F2:F113">
       <formula1>"Standard,Inverted,Custom"</formula1>
     </dataValidation>
@@ -3936,8 +3952,9 @@
       <formula1>"Automatic,Manual,Both"</formula1>
     </dataValidation>
   </dataValidations>
-  <printOptions horizontalCentered="1" gridLines="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="9" fitToHeight="0" pageOrder="overThenDown" orientation="landscape" cellComments="atEnd"/>
+  <printOptions gridLines="1" horizontalCentered="1"/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup fitToHeight="0" paperSize="9" cellComments="atEnd" orientation="landscape" pageOrder="overThenDown"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Game Boy Printer Emulator - Games Support.xlsx
+++ b/Game Boy Printer Emulator - Games Support.xlsx
@@ -648,7 +648,7 @@
     <t>Tony Hawk's Pro Skater 2 (never released in Japan)</t>
   </si>
   <si>
-    <t>Palette 0x1B, some images to unlock by completing the levels.</t>
+    <t>Palette 0x1B, some images to unlock by completing the levels. Password BT!!3T!!!!!! unlocks everything.</t>
   </si>
   <si>
     <t>Trade &amp; Battle: Card Hero (トレード&amp;バトル カードヒーロー)</t>

--- a/Game Boy Printer Emulator - Games Support.xlsx
+++ b/Game Boy Printer Emulator - Games Support.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="219">
   <si>
     <t>Title</t>
   </si>
@@ -453,13 +453,16 @@
     <t>Nakayoshi Pet Series 1: Kawaii Hamster (なかよしペットシリーズ1 かわいいハムスター)</t>
   </si>
   <si>
-    <t>Palette 0x1B, nice pixel art images to print are unlocked each time you do something new.</t>
+    <t>Palette 0x1B, nice pixel art images to print are unlocked each time you do something new. 042-8DF-91A Game Genie code to unlock debug menu with printer features</t>
   </si>
   <si>
     <t>Nakayoshi Pet Series 2: Kawaii Usagi (なかよしペットシリーズ2 かわいいウサギ)</t>
   </si>
   <si>
     <t>Nakayoshi Pet Series 3: Kawaii koinu (なかよしペットシリーズ3 かわいい仔犬)</t>
+  </si>
+  <si>
+    <t>Palette 0x1B, nice pixel art images to print are unlocked each time you do something new. 002-D2F-F7E Game Genie code to unlock debug menu with printer features</t>
   </si>
   <si>
     <t>NFL Blitz (never released in Japan)</t>
@@ -2858,12 +2861,12 @@
         <v>14</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>19</v>
@@ -2884,12 +2887,12 @@
         <v>14</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>64</v>
@@ -2910,12 +2913,12 @@
         <v>71</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>19</v>
@@ -2936,12 +2939,12 @@
         <v>14</v>
       </c>
       <c r="H73" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>64</v>
@@ -2962,12 +2965,12 @@
         <v>14</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>9</v>
@@ -2988,12 +2991,12 @@
         <v>14</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="10" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>9</v>
@@ -3014,12 +3017,12 @@
         <v>14</v>
       </c>
       <c r="H76" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>9</v>
@@ -3040,12 +3043,12 @@
         <v>14</v>
       </c>
       <c r="H77" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>19</v>
@@ -3066,12 +3069,12 @@
         <v>14</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>9</v>
@@ -3092,38 +3095,38 @@
         <v>14</v>
       </c>
       <c r="H79" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F80" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G80" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H80" s="3" t="s">
         <v>167</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D80" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E80" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F80" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G80" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H80" s="3" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>19</v>
@@ -3144,12 +3147,12 @@
         <v>14</v>
       </c>
       <c r="H81" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>19</v>
@@ -3170,12 +3173,12 @@
         <v>14</v>
       </c>
       <c r="H82" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>19</v>
@@ -3196,12 +3199,12 @@
         <v>14</v>
       </c>
       <c r="H83" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>19</v>
@@ -3222,12 +3225,12 @@
         <v>14</v>
       </c>
       <c r="H84" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>19</v>
@@ -3248,12 +3251,12 @@
         <v>14</v>
       </c>
       <c r="H85" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>19</v>
@@ -3274,12 +3277,12 @@
         <v>14</v>
       </c>
       <c r="H86" s="3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>64</v>
@@ -3300,12 +3303,12 @@
         <v>14</v>
       </c>
       <c r="H87" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>9</v>
@@ -3326,12 +3329,12 @@
         <v>14</v>
       </c>
       <c r="H88" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>19</v>
@@ -3352,12 +3355,12 @@
         <v>14</v>
       </c>
       <c r="H89" s="3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>9</v>
@@ -3378,12 +3381,12 @@
         <v>14</v>
       </c>
       <c r="H90" s="3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>19</v>
@@ -3404,38 +3407,38 @@
         <v>14</v>
       </c>
       <c r="H91" s="3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E92" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F92" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G92" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H92" s="3" t="s">
         <v>187</v>
-      </c>
-      <c r="B92" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D92" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E92" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F92" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G92" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H92" s="3" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>9</v>
@@ -3461,7 +3464,7 @@
     </row>
     <row r="94">
       <c r="A94" s="10" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>64</v>
@@ -3482,12 +3485,12 @@
         <v>14</v>
       </c>
       <c r="H94" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>19</v>
@@ -3508,12 +3511,12 @@
         <v>14</v>
       </c>
       <c r="H95" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>19</v>
@@ -3534,12 +3537,12 @@
         <v>14</v>
       </c>
       <c r="H96" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>9</v>
@@ -3560,12 +3563,12 @@
         <v>57</v>
       </c>
       <c r="H97" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>19</v>
@@ -3586,12 +3589,12 @@
         <v>14</v>
       </c>
       <c r="H98" s="3" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>19</v>
@@ -3612,38 +3615,38 @@
         <v>14</v>
       </c>
       <c r="H99" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F100" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G100" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H100" s="3" t="s">
         <v>201</v>
-      </c>
-      <c r="B100" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C100" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D100" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E100" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F100" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G100" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>9</v>
@@ -3664,12 +3667,12 @@
         <v>14</v>
       </c>
       <c r="H101" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>19</v>
@@ -3690,12 +3693,12 @@
         <v>14</v>
       </c>
       <c r="H102" s="3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>19</v>
@@ -3716,12 +3719,12 @@
         <v>14</v>
       </c>
       <c r="H103" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>9</v>
@@ -3742,12 +3745,12 @@
         <v>14</v>
       </c>
       <c r="H104" s="3" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="3" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B105" s="4" t="s">
         <v>9</v>
@@ -3768,12 +3771,12 @@
         <v>14</v>
       </c>
       <c r="H105" s="3" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="106" ht="16.5" customHeight="1">
       <c r="A106" s="3" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B106" s="4" t="s">
         <v>19</v>
@@ -3794,12 +3797,12 @@
         <v>14</v>
       </c>
       <c r="H106" s="3" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="107" ht="17.25" customHeight="1">
       <c r="A107" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B107" s="4" t="s">
         <v>19</v>
@@ -3820,12 +3823,12 @@
         <v>14</v>
       </c>
       <c r="H107" s="3" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B108" s="4" t="s">
         <v>9</v>
@@ -3846,7 +3849,7 @@
         <v>14</v>
       </c>
       <c r="H108" s="3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="109">
@@ -3903,9 +3906,9 @@
   <autoFilter ref="$A$1:$H$108">
     <sortState ref="A1:H108">
       <sortCondition ref="A1:A108"/>
+      <sortCondition ref="D1:D108"/>
       <sortCondition ref="G1:G108"/>
       <sortCondition ref="F1:F108"/>
-      <sortCondition ref="D1:D108"/>
       <sortCondition ref="B1:B108"/>
       <sortCondition descending="1" ref="C1:C108"/>
       <sortCondition ref="H1:H108"/>

--- a/Game Boy Printer Emulator - Games Support.xlsx
+++ b/Game Boy Printer Emulator - Games Support.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="218">
   <si>
     <t>Title</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Custom</t>
   </si>
   <si>
-    <t>Automatic</t>
+    <t>Margin</t>
   </si>
   <si>
     <t>Palette 0x03 (2 colors) on purpose. You can print scores every 4 levels or at game over</t>
@@ -186,9 +186,6 @@
     <t>Donkey Kong Country (ドンキーコング2001)</t>
   </si>
   <si>
-    <t>Both</t>
-  </si>
-  <si>
     <t>Palette 0xE4, you can print an alphabet and some images unlocked with level completed</t>
   </si>
   <si>
@@ -228,7 +225,7 @@
     <t>E.T.: Digital Companion (never released in Japan)</t>
   </si>
   <si>
-    <t>Manual</t>
+    <t>Timeout</t>
   </si>
   <si>
     <t>Palette 0xE4. Lazy end of printing with blank packets rather than standard protocol (use of margins)</t>
@@ -676,7 +673,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -696,16 +693,11 @@
     <font>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
-      <name val="Docs-Consolas"/>
+      <name val="Consolas"/>
     </font>
     <font>
       <sz val="11.0"/>
       <color rgb="FF333333"/>
-      <name val="Consolas"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <color rgb="FF000000"/>
       <name val="Consolas"/>
     </font>
   </fonts>
@@ -741,7 +733,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -766,10 +758,7 @@
     <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1297,7 +1286,7 @@
       <c r="F10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H10" s="3" t="s">
@@ -1323,7 +1312,7 @@
       <c r="F11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="G11" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H11" s="3" t="s">
@@ -1456,7 +1445,7 @@
       <c r="G16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H16" s="9" t="s">
+      <c r="H16" s="8" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1635,16 +1624,16 @@
       <c r="F23" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G23" s="8" t="s">
+      <c r="G23" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>19</v>
@@ -1665,220 +1654,220 @@
         <v>14</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="C26" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H26" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H27" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H28" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G29" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G29" s="8" t="s">
+      <c r="H29" s="3" t="s">
         <v>71</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H30" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H31" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H32" s="3" t="s">
         <v>77</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G32" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>19</v>
@@ -1899,12 +1888,12 @@
         <v>14</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>19</v>
@@ -1925,38 +1914,38 @@
         <v>14</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H35" s="3" t="s">
         <v>83</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>9</v>
@@ -1977,12 +1966,12 @@
         <v>14</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>19</v>
@@ -2003,90 +1992,90 @@
         <v>14</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H38" s="3" t="s">
         <v>88</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G38" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H38" s="3" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H39" s="3" t="s">
         <v>90</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G39" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H39" s="3" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H40" s="3" t="s">
         <v>92</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G40" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H40" s="3" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>19</v>
@@ -2107,12 +2096,12 @@
         <v>14</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>9</v>
@@ -2133,38 +2122,38 @@
         <v>14</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H43" s="3" t="s">
         <v>98</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G43" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>19</v>
@@ -2185,12 +2174,12 @@
         <v>14</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>19</v>
@@ -2211,12 +2200,12 @@
         <v>14</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>19</v>
@@ -2237,12 +2226,12 @@
         <v>14</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>19</v>
@@ -2263,90 +2252,90 @@
         <v>14</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H48" s="3" t="s">
         <v>107</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G48" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H49" s="3" t="s">
         <v>109</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F49" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G49" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H50" s="3" t="s">
         <v>111</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F50" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G50" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H50" s="3" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>19</v>
@@ -2367,12 +2356,12 @@
         <v>14</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>9</v>
@@ -2393,38 +2382,38 @@
         <v>14</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H53" s="3" t="s">
         <v>117</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F53" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G53" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H53" s="3" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>9</v>
@@ -2445,38 +2434,38 @@
         <v>14</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H55" s="3" t="s">
         <v>121</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E55" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F55" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G55" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H55" s="3" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>19</v>
@@ -2493,16 +2482,16 @@
       <c r="F56" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G56" s="8" t="s">
+      <c r="G56" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H56" s="3" t="s">
         <v>71</v>
-      </c>
-      <c r="H56" s="3" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>9</v>
@@ -2519,146 +2508,146 @@
       <c r="F57" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G57" s="8" t="s">
-        <v>71</v>
+      <c r="G57" s="5" t="s">
+        <v>70</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G58" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H58" s="3" t="s">
         <v>126</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E58" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F58" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G58" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H59" s="3" t="s">
         <v>128</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E59" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F59" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G59" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G60" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H60" s="3" t="s">
         <v>130</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E60" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F60" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G60" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G61" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H61" s="3" t="s">
         <v>132</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E61" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F61" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G61" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H61" s="3" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G62" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H62" s="3" t="s">
         <v>134</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E62" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F62" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G62" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>9</v>
@@ -2675,16 +2664,16 @@
       <c r="F63" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G63" s="8" t="s">
+      <c r="G63" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>9</v>
@@ -2701,16 +2690,16 @@
       <c r="F64" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G64" s="8" t="s">
+      <c r="G64" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>9</v>
@@ -2727,16 +2716,16 @@
       <c r="F65" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G65" s="8" t="s">
-        <v>71</v>
+      <c r="G65" s="5" t="s">
+        <v>70</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>9</v>
@@ -2753,16 +2742,16 @@
       <c r="F66" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G66" s="8" t="s">
-        <v>71</v>
+      <c r="G66" s="5" t="s">
+        <v>70</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="67" ht="17.25" customHeight="1">
-      <c r="A67" s="10" t="s">
-        <v>143</v>
+      <c r="A67" s="9" t="s">
+        <v>142</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>9</v>
@@ -2779,16 +2768,16 @@
       <c r="F67" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G67" s="8" t="s">
-        <v>71</v>
+      <c r="G67" s="5" t="s">
+        <v>70</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>19</v>
@@ -2809,12 +2798,12 @@
         <v>14</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>19</v>
@@ -2835,12 +2824,12 @@
         <v>14</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>9</v>
@@ -2861,64 +2850,64 @@
         <v>14</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G71" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H71" s="3" t="s">
         <v>150</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D71" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E71" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F71" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G71" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H71" s="3" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G72" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H72" s="3" t="s">
         <v>152</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D72" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E72" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F72" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G72" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>19</v>
@@ -2939,15 +2928,15 @@
         <v>14</v>
       </c>
       <c r="H73" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>10</v>
@@ -2965,38 +2954,38 @@
         <v>14</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G75" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H75" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="B75" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D75" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E75" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F75" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G75" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H75" s="3" t="s">
+    </row>
+    <row r="76">
+      <c r="A76" s="9" t="s">
         <v>159</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="10" t="s">
-        <v>160</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>9</v>
@@ -3017,90 +3006,90 @@
         <v>14</v>
       </c>
       <c r="H76" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G77" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H77" s="3" t="s">
         <v>162</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D77" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E77" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F77" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G77" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H77" s="3" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G78" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H78" s="3" t="s">
         <v>164</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D78" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E78" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F78" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G78" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H78" s="3" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G79" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H79" s="3" t="s">
         <v>166</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D79" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E79" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F79" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G79" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H79" s="3" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>19</v>
@@ -3121,12 +3110,12 @@
         <v>14</v>
       </c>
       <c r="H80" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>19</v>
@@ -3147,12 +3136,12 @@
         <v>14</v>
       </c>
       <c r="H81" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>19</v>
@@ -3173,12 +3162,12 @@
         <v>14</v>
       </c>
       <c r="H82" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>19</v>
@@ -3199,12 +3188,12 @@
         <v>14</v>
       </c>
       <c r="H83" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>19</v>
@@ -3225,12 +3214,12 @@
         <v>14</v>
       </c>
       <c r="H84" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>19</v>
@@ -3251,41 +3240,41 @@
         <v>14</v>
       </c>
       <c r="H85" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F86" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G86" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H86" s="3" t="s">
         <v>176</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D86" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E86" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F86" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G86" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H86" s="3" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>10</v>
@@ -3303,64 +3292,64 @@
         <v>14</v>
       </c>
       <c r="H87" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F88" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G88" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H88" s="3" t="s">
         <v>180</v>
-      </c>
-      <c r="B88" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C88" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D88" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E88" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F88" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G88" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H88" s="3" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F89" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G89" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H89" s="3" t="s">
         <v>182</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D89" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E89" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F89" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G89" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>9</v>
@@ -3381,38 +3370,38 @@
         <v>14</v>
       </c>
       <c r="H90" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G91" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H91" s="3" t="s">
         <v>186</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C91" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D91" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E91" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F91" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G91" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>19</v>
@@ -3433,64 +3422,64 @@
         <v>14</v>
       </c>
       <c r="H92" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F93" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G93" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H93" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="B93" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D93" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E93" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F93" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G93" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H93" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="10" t="s">
+      <c r="B94" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E94" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F94" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G94" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H94" s="3" t="s">
         <v>190</v>
-      </c>
-      <c r="B94" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D94" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E94" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F94" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G94" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>19</v>
@@ -3511,12 +3500,12 @@
         <v>14</v>
       </c>
       <c r="H95" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>19</v>
@@ -3537,12 +3526,12 @@
         <v>14</v>
       </c>
       <c r="H96" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>9</v>
@@ -3559,42 +3548,42 @@
       <c r="F97" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G97" s="8" t="s">
-        <v>57</v>
+      <c r="G97" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="H97" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E98" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F98" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G98" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H98" s="3" t="s">
         <v>198</v>
-      </c>
-      <c r="B98" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C98" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D98" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E98" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F98" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G98" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H98" s="3" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>19</v>
@@ -3615,12 +3604,12 @@
         <v>14</v>
       </c>
       <c r="H99" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>9</v>
@@ -3641,12 +3630,12 @@
         <v>14</v>
       </c>
       <c r="H100" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>9</v>
@@ -3667,12 +3656,12 @@
         <v>14</v>
       </c>
       <c r="H101" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>19</v>
@@ -3693,12 +3682,12 @@
         <v>14</v>
       </c>
       <c r="H102" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>19</v>
@@ -3719,12 +3708,12 @@
         <v>14</v>
       </c>
       <c r="H103" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>9</v>
@@ -3745,12 +3734,12 @@
         <v>14</v>
       </c>
       <c r="H104" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B105" s="4" t="s">
         <v>9</v>
@@ -3771,12 +3760,12 @@
         <v>14</v>
       </c>
       <c r="H105" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="106" ht="16.5" customHeight="1">
       <c r="A106" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B106" s="4" t="s">
         <v>19</v>
@@ -3797,38 +3786,38 @@
         <v>14</v>
       </c>
       <c r="H106" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="107" ht="17.25" customHeight="1">
       <c r="A107" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E107" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F107" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G107" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H107" s="3" t="s">
         <v>215</v>
-      </c>
-      <c r="B107" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C107" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D107" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E107" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F107" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G107" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H107" s="3" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B108" s="4" t="s">
         <v>9</v>
@@ -3849,7 +3838,7 @@
         <v>14</v>
       </c>
       <c r="H108" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="109">
@@ -3952,7 +3941,7 @@
       <formula1>"Yes,Partial,No"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="G2:G108">
-      <formula1>"Automatic,Manual,Both"</formula1>
+      <formula1>"Margin,Timeout"</formula1>
     </dataValidation>
   </dataValidations>
   <printOptions gridLines="1" horizontalCentered="1"/>

--- a/Game Boy Printer Emulator - Games Support.xlsx
+++ b/Game Boy Printer Emulator - Games Support.xlsx
@@ -6,14 +6,14 @@
     <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$H$108</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$H$111</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="224">
   <si>
     <t>Title</t>
   </si>
@@ -102,6 +102,18 @@
     <t>Palette 0xE4. One certificate at the end of game only (can be reached with cheat code). Enter "CHEATONX" as a password. Then while playing the game, press Select to display a cheat menu. Press Up or Down to select a level or Left or Right to select a zone. Press A for invincibility (001 will appear if done correctly).</t>
   </si>
   <si>
+    <t>Austin Power Episode 3 - Yeah Baby Yeah (unreleased rom CGBBA3P0.3)</t>
+  </si>
+  <si>
+    <t>Palette 0xE4 for "Shagulator", 0x1B text printing</t>
+  </si>
+  <si>
+    <t>Austin Power Episode 4 - Why Make Millions (unreleased rom CGBBA4P0.0)</t>
+  </si>
+  <si>
+    <t>Palette 0xE4 for "Frickulator", 0x1B text printing</t>
+  </si>
+  <si>
     <t>Austin Powers: Oh, Behave! (never released in Japan)</t>
   </si>
   <si>
@@ -252,7 +264,7 @@
     <t>Golf Ou: The King of Golf (ゴルフ王)</t>
   </si>
   <si>
-    <t>Palette 0xE4. You can print your ranking, even if you loose.</t>
+    <t>Palette 0xE4. You can print your ranking, even if you loose. Leaked rom prototypes Golf Robot (rom DMGBGRE0.1) and Golf King (rom DMGBGRP0.2) have no printer support despite being the same game.</t>
   </si>
   <si>
     <t>Hamster Club (ハムスター倶楽部)</t>
@@ -288,7 +300,7 @@
     <t>Palette 0xE4. You can print about 45 cute images after completing puzzle games.</t>
   </si>
   <si>
-    <t>Hello Kitty Pocket Camera (ハローキティのポケットカメラ)</t>
+    <t>Hello Kitty Pocket Camera (ハローキティのポケットカメラ, unreleased rom GBDHKAJ0.2)</t>
   </si>
   <si>
     <t>Palette 0xE4, same as Game Boy Camera.</t>
@@ -498,6 +510,12 @@
     <t>Palette 0x4C. Original cartridge mandatory, HuC-3 mapper. You can print family pictures with the game title.</t>
   </si>
   <si>
+    <t xml:space="preserve">Pocket Kanjirou (ポケット漢字郎) </t>
+  </si>
+  <si>
+    <t>Palette 0xE4, you can print your scores</t>
+  </si>
+  <si>
     <t>Pocket Puyo Puyo-n (ぽけっとぷよぷよ〜ん)</t>
   </si>
   <si>
@@ -519,7 +537,7 @@
     <t>Pokémon Gold (ポケットモンスター 金)</t>
   </si>
   <si>
-    <t>Pokémon Picross (ポケモンピクロス, unreleased)</t>
+    <t>Pokémon Picross (ポケモンピクロス, unreleased rom DMGAKVJ0.1)</t>
   </si>
   <si>
     <t>Palette 0x00, acts as 0xE4 (documented in pandocs). You can print the Pokédex.</t>
@@ -1216,7 +1234,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -1242,7 +1260,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="7" t="s">
         <v>31</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -1264,15 +1282,15 @@
         <v>14</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>10</v>
@@ -1284,18 +1302,18 @@
         <v>12</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>9</v>
@@ -1316,7 +1334,7 @@
         <v>14</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12">
@@ -1324,7 +1342,7 @@
         <v>36</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>10</v>
@@ -1346,7 +1364,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -1356,7 +1374,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>12</v>
@@ -1372,7 +1390,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="3" t="s">
         <v>40</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -1382,24 +1400,24 @@
         <v>10</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>9</v>
@@ -1420,12 +1438,12 @@
         <v>14</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="7" t="s">
-        <v>42</v>
+      <c r="A16" s="6" t="s">
+        <v>44</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>9</v>
@@ -1440,43 +1458,43 @@
         <v>12</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H16" s="8" t="s">
+      <c r="H16" s="3" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="6" t="s">
-        <v>44</v>
+      <c r="A17" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="7" t="s">
         <v>46</v>
       </c>
       <c r="B18" s="4" t="s">
@@ -1486,7 +1504,7 @@
         <v>10</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>12</v>
@@ -1497,22 +1515,22 @@
       <c r="G18" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="H18" s="8" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="6" t="s">
         <v>48</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>12</v>
@@ -1528,20 +1546,20 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="3" t="s">
         <v>50</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>21</v>
@@ -1554,7 +1572,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="7" t="s">
         <v>52</v>
       </c>
       <c r="B21" s="4" t="s">
@@ -1564,7 +1582,7 @@
         <v>10</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>12</v>
@@ -1580,23 +1598,23 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="7" t="s">
         <v>54</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G22" s="5" t="s">
         <v>14</v>
@@ -1632,23 +1650,23 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="3" t="s">
         <v>58</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G24" s="5" t="s">
         <v>14</v>
@@ -1658,11 +1676,11 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="3" t="s">
         <v>60</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>10</v>
@@ -1688,59 +1706,59 @@
         <v>62</v>
       </c>
       <c r="B26" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H26" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H27" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B28" s="4" t="s">
         <v>67</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>19</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>10</v>
@@ -1762,7 +1780,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="7" t="s">
         <v>69</v>
       </c>
       <c r="B29" s="4" t="s">
@@ -1781,70 +1799,70 @@
         <v>21</v>
       </c>
       <c r="G29" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H29" s="3" t="s">
         <v>70</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H30" s="3" t="s">
         <v>72</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G31" s="5" t="s">
         <v>74</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>14</v>
       </c>
       <c r="H31" s="3" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="7" t="s">
         <v>76</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>10</v>
@@ -1866,20 +1884,20 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="7" t="s">
+      <c r="A33" s="3" t="s">
         <v>78</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F33" s="4" t="s">
         <v>21</v>
@@ -1896,13 +1914,13 @@
         <v>80</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>12</v>
@@ -1918,7 +1936,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="7" t="s">
         <v>82</v>
       </c>
       <c r="B35" s="4" t="s">
@@ -1928,10 +1946,10 @@
         <v>10</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F35" s="4" t="s">
         <v>21</v>
@@ -1948,7 +1966,7 @@
         <v>84</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>10</v>
@@ -1966,12 +1984,12 @@
         <v>14</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>19</v>
@@ -1986,39 +2004,39 @@
         <v>12</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G37" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="7" t="s">
+      <c r="A38" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H38" s="3" t="s">
         <v>87</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G38" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H38" s="3" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="39">
@@ -2038,10 +2056,10 @@
         <v>12</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="H39" s="3" t="s">
         <v>90</v>
@@ -2052,7 +2070,7 @@
         <v>91</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>10</v>
@@ -2090,27 +2108,27 @@
         <v>12</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="7" t="s">
         <v>95</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>12</v>
@@ -2126,7 +2144,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="7" t="s">
+      <c r="A43" s="3" t="s">
         <v>97</v>
       </c>
       <c r="B43" s="4" t="s">
@@ -2142,7 +2160,7 @@
         <v>12</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G43" s="5" t="s">
         <v>14</v>
@@ -2152,11 +2170,11 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="7" t="s">
+      <c r="A44" s="3" t="s">
         <v>99</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>10</v>
@@ -2188,7 +2206,7 @@
         <v>10</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>12</v>
@@ -2200,12 +2218,12 @@
         <v>14</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>19</v>
@@ -2220,59 +2238,59 @@
         <v>12</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G46" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H47" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B47" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F47" s="4" t="s">
+    </row>
+    <row r="48">
+      <c r="A48" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F48" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="G47" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="G48" s="5" t="s">
         <v>14</v>
@@ -2298,7 +2316,7 @@
         <v>12</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G49" s="5" t="s">
         <v>14</v>
@@ -2344,7 +2362,7 @@
         <v>10</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>12</v>
@@ -2376,7 +2394,7 @@
         <v>12</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G52" s="5" t="s">
         <v>14</v>
@@ -2386,17 +2404,17 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="3" t="s">
+      <c r="A53" s="7" t="s">
         <v>116</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>12</v>
@@ -2412,7 +2430,7 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="7" t="s">
+      <c r="A54" s="3" t="s">
         <v>118</v>
       </c>
       <c r="B54" s="4" t="s">
@@ -2422,13 +2440,13 @@
         <v>10</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G54" s="5" t="s">
         <v>14</v>
@@ -2464,17 +2482,17 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="3" t="s">
+      <c r="A56" s="7" t="s">
         <v>122</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E56" s="4" t="s">
         <v>12</v>
@@ -2483,15 +2501,15 @@
         <v>21</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>71</v>
+        <v>123</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>9</v>
@@ -2500,27 +2518,27 @@
         <v>10</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E57" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>10</v>
@@ -2535,10 +2553,10 @@
         <v>21</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>126</v>
+        <v>75</v>
       </c>
     </row>
     <row r="59">
@@ -2552,16 +2570,16 @@
         <v>10</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>128</v>
@@ -2598,7 +2616,7 @@
         <v>131</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>10</v>
@@ -2624,7 +2642,7 @@
         <v>133</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>10</v>
@@ -2646,11 +2664,11 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="7" t="s">
+      <c r="A63" s="3" t="s">
         <v>135</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>10</v>
@@ -2662,7 +2680,7 @@
         <v>12</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G63" s="5" t="s">
         <v>14</v>
@@ -2672,11 +2690,11 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="7" t="s">
+      <c r="A64" s="3" t="s">
         <v>137</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>10</v>
@@ -2688,7 +2706,7 @@
         <v>12</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G64" s="5" t="s">
         <v>14</v>
@@ -2717,7 +2735,7 @@
         <v>13</v>
       </c>
       <c r="G65" s="5" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="H65" s="3" t="s">
         <v>140</v>
@@ -2743,15 +2761,15 @@
         <v>13</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="67" ht="17.25" customHeight="1">
-      <c r="A67" s="9" t="s">
-        <v>142</v>
+      <c r="A67" s="7" t="s">
+        <v>143</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>9</v>
@@ -2769,18 +2787,18 @@
         <v>13</v>
       </c>
       <c r="G67" s="5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>10</v>
@@ -2795,18 +2813,18 @@
         <v>13</v>
       </c>
       <c r="G68" s="5" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="7" t="s">
+      <c r="A69" s="9" t="s">
         <v>146</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>10</v>
@@ -2821,18 +2839,18 @@
         <v>13</v>
       </c>
       <c r="G69" s="5" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="6" t="s">
-        <v>147</v>
+      <c r="A70" s="7" t="s">
+        <v>148</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>10</v>
@@ -2850,41 +2868,41 @@
         <v>14</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="3" t="s">
+      <c r="A71" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G71" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H71" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B71" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D71" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E71" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F71" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G71" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H71" s="3" t="s">
-        <v>150</v>
-      </c>
     </row>
     <row r="72">
-      <c r="A72" s="7" t="s">
+      <c r="A72" s="6" t="s">
         <v>151</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>10</v>
@@ -2896,10 +2914,10 @@
         <v>12</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G72" s="5" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>152</v>
@@ -2922,7 +2940,7 @@
         <v>12</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G73" s="5" t="s">
         <v>14</v>
@@ -2936,7 +2954,7 @@
         <v>155</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>10</v>
@@ -2948,10 +2966,10 @@
         <v>12</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G74" s="5" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="H74" s="3" t="s">
         <v>156</v>
@@ -2962,7 +2980,7 @@
         <v>157</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>10</v>
@@ -2974,7 +2992,7 @@
         <v>12</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G75" s="5" t="s">
         <v>14</v>
@@ -2984,11 +3002,11 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="9" t="s">
+      <c r="A76" s="7" t="s">
         <v>159</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>10</v>
@@ -3010,7 +3028,7 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="7" t="s">
+      <c r="A77" s="3" t="s">
         <v>161</v>
       </c>
       <c r="B77" s="4" t="s">
@@ -3036,11 +3054,11 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="3" t="s">
+      <c r="A78" s="9" t="s">
         <v>163</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>10</v>
@@ -3049,10 +3067,10 @@
         <v>11</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G78" s="5" t="s">
         <v>14</v>
@@ -3062,11 +3080,11 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="3" t="s">
+      <c r="A79" s="7" t="s">
         <v>165</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>10</v>
@@ -3088,11 +3106,11 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="3" t="s">
+      <c r="A80" s="7" t="s">
         <v>167</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>10</v>
@@ -3110,12 +3128,12 @@
         <v>14</v>
       </c>
       <c r="H80" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="7" t="s">
-        <v>168</v>
+      <c r="A81" s="3" t="s">
+        <v>169</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>19</v>
@@ -3127,24 +3145,24 @@
         <v>11</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G81" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H81" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>10</v>
@@ -3156,70 +3174,70 @@
         <v>12</v>
       </c>
       <c r="F82" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G82" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H82" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F83" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G83" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F84" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G82" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H82" s="3" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D83" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E83" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F83" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G83" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="B84" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D84" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E84" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F84" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="G84" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H84" s="3" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>19</v>
@@ -3234,18 +3252,18 @@
         <v>12</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G85" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H85" s="3" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>19</v>
@@ -3266,15 +3284,15 @@
         <v>14</v>
       </c>
       <c r="H86" s="3" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="7" t="s">
-        <v>177</v>
+      <c r="A87" s="3" t="s">
+        <v>179</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>10</v>
@@ -3283,24 +3301,24 @@
         <v>11</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G87" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H87" s="3" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>10</v>
@@ -3318,11 +3336,11 @@
         <v>14</v>
       </c>
       <c r="H88" s="3" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="3" t="s">
+      <c r="A89" s="7" t="s">
         <v>181</v>
       </c>
       <c r="B89" s="4" t="s">
@@ -3348,11 +3366,11 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="3" t="s">
+      <c r="A90" s="7" t="s">
         <v>183</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="C90" s="4" t="s">
         <v>10</v>
@@ -3374,11 +3392,11 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="7" t="s">
+      <c r="A91" s="3" t="s">
         <v>185</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C91" s="4" t="s">
         <v>10</v>
@@ -3400,7 +3418,7 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="7" t="s">
+      <c r="A92" s="3" t="s">
         <v>187</v>
       </c>
       <c r="B92" s="4" t="s">
@@ -3422,12 +3440,12 @@
         <v>14</v>
       </c>
       <c r="H92" s="3" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="7" t="s">
-        <v>188</v>
+      <c r="A93" s="3" t="s">
+        <v>189</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>9</v>
@@ -3442,21 +3460,21 @@
         <v>12</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G93" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H93" s="3" t="s">
-        <v>107</v>
+        <v>190</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="9" t="s">
-        <v>189</v>
+      <c r="A94" s="7" t="s">
+        <v>191</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="C94" s="4" t="s">
         <v>10</v>
@@ -3474,12 +3492,12 @@
         <v>14</v>
       </c>
       <c r="H94" s="3" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>19</v>
@@ -3494,7 +3512,7 @@
         <v>12</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G95" s="5" t="s">
         <v>14</v>
@@ -3505,16 +3523,16 @@
     </row>
     <row r="96">
       <c r="A96" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C96" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E96" s="4" t="s">
         <v>12</v>
@@ -3526,21 +3544,21 @@
         <v>14</v>
       </c>
       <c r="H96" s="3" t="s">
-        <v>194</v>
+        <v>111</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="3" t="s">
+      <c r="A97" s="9" t="s">
         <v>195</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="C97" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E97" s="4" t="s">
         <v>12</v>
@@ -3572,7 +3590,7 @@
         <v>12</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G98" s="5" t="s">
         <v>14</v>
@@ -3608,7 +3626,7 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="7" t="s">
+      <c r="A100" s="3" t="s">
         <v>201</v>
       </c>
       <c r="B100" s="4" t="s">
@@ -3618,7 +3636,7 @@
         <v>10</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E100" s="4" t="s">
         <v>12</v>
@@ -3630,105 +3648,105 @@
         <v>14</v>
       </c>
       <c r="H100" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C101" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D101" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E101" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F101" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G101" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D102" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E101" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F101" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G101" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="B102" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C102" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D102" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="E102" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G102" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H102" s="3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="3" t="s">
+      <c r="A103" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E103" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F103" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G103" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H103" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="B103" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C103" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D103" s="4" t="s">
+    </row>
+    <row r="104">
+      <c r="A104" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D104" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E103" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F103" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G103" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H103" s="3" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="B104" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C104" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D104" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="E104" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G104" s="5" t="s">
         <v>14</v>
@@ -3742,16 +3760,16 @@
         <v>210</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C105" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F105" s="4" t="s">
         <v>13</v>
@@ -3763,7 +3781,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="106" ht="16.5" customHeight="1">
+    <row r="106" ht="17.25" customHeight="1">
       <c r="A106" s="3" t="s">
         <v>212</v>
       </c>
@@ -3774,13 +3792,13 @@
         <v>10</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E106" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G106" s="5" t="s">
         <v>14</v>
@@ -3790,11 +3808,11 @@
       </c>
     </row>
     <row r="107" ht="17.25" customHeight="1">
-      <c r="A107" s="7" t="s">
+      <c r="A107" s="3" t="s">
         <v>214</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C107" s="4" t="s">
         <v>10</v>
@@ -3806,7 +3824,7 @@
         <v>12</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G107" s="5" t="s">
         <v>14</v>
@@ -3816,7 +3834,7 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="7" t="s">
+      <c r="A108" s="3" t="s">
         <v>216</v>
       </c>
       <c r="B108" s="4" t="s">
@@ -3832,7 +3850,7 @@
         <v>12</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G108" s="5" t="s">
         <v>14</v>
@@ -3842,34 +3860,82 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="7"/>
-      <c r="B109" s="4"/>
-      <c r="C109" s="4"/>
-      <c r="D109" s="4"/>
-      <c r="E109" s="4"/>
-      <c r="F109" s="4"/>
-      <c r="G109" s="3"/>
-      <c r="H109" s="3"/>
+      <c r="A109" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D109" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E109" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F109" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G109" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H109" s="3" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="110">
-      <c r="A110" s="7"/>
-      <c r="B110" s="4"/>
-      <c r="C110" s="4"/>
-      <c r="D110" s="4"/>
-      <c r="E110" s="4"/>
-      <c r="F110" s="4"/>
-      <c r="G110" s="3"/>
-      <c r="H110" s="3"/>
+      <c r="A110" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D110" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E110" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F110" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G110" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H110" s="3" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="111">
-      <c r="A111" s="7"/>
-      <c r="B111" s="4"/>
-      <c r="C111" s="4"/>
-      <c r="D111" s="4"/>
-      <c r="E111" s="4"/>
-      <c r="F111" s="4"/>
-      <c r="G111" s="3"/>
-      <c r="H111" s="3"/>
+      <c r="A111" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D111" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E111" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F111" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G111" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H111" s="3" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="7"/>
@@ -3891,56 +3957,96 @@
       <c r="G113" s="3"/>
       <c r="H113" s="3"/>
     </row>
+    <row r="114">
+      <c r="A114" s="7"/>
+      <c r="B114" s="4"/>
+      <c r="C114" s="4"/>
+      <c r="D114" s="4"/>
+      <c r="E114" s="4"/>
+      <c r="F114" s="4"/>
+      <c r="G114" s="3"/>
+      <c r="H114" s="3"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="7"/>
+      <c r="B115" s="4"/>
+      <c r="C115" s="4"/>
+      <c r="D115" s="4"/>
+      <c r="E115" s="4"/>
+      <c r="F115" s="4"/>
+      <c r="G115" s="3"/>
+      <c r="H115" s="3"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="7"/>
+      <c r="B116" s="4"/>
+      <c r="C116" s="4"/>
+      <c r="D116" s="4"/>
+      <c r="E116" s="4"/>
+      <c r="F116" s="4"/>
+      <c r="G116" s="3"/>
+      <c r="H116" s="3"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="7"/>
+      <c r="B117" s="4"/>
+      <c r="C117" s="4"/>
+      <c r="D117" s="4"/>
+      <c r="E117" s="4"/>
+      <c r="F117" s="4"/>
+      <c r="G117" s="3"/>
+      <c r="H117" s="3"/>
+    </row>
   </sheetData>
-  <autoFilter ref="$A$1:$H$108">
-    <sortState ref="A1:H108">
-      <sortCondition ref="A1:A108"/>
-      <sortCondition ref="D1:D108"/>
-      <sortCondition ref="G1:G108"/>
-      <sortCondition ref="F1:F108"/>
-      <sortCondition ref="B1:B108"/>
-      <sortCondition descending="1" ref="C1:C108"/>
-      <sortCondition ref="H1:H108"/>
-      <sortCondition ref="E1:E108"/>
+  <autoFilter ref="$A$1:$H$111">
+    <sortState ref="A1:H111">
+      <sortCondition ref="A1:A111"/>
+      <sortCondition ref="D1:D111"/>
+      <sortCondition ref="G1:G111"/>
+      <sortCondition ref="F1:F111"/>
+      <sortCondition ref="B1:B111"/>
+      <sortCondition descending="1" ref="C1:C111"/>
+      <sortCondition ref="H1:H111"/>
+      <sortCondition ref="E1:E111"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="B1:C113">
+  <conditionalFormatting sqref="B1:C117">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:C113">
+  <conditionalFormatting sqref="B1:C117">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:C113">
+  <conditionalFormatting sqref="B1:C117">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"Partial"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:H113">
+  <conditionalFormatting sqref="A1:H117">
     <cfRule type="expression" dxfId="3" priority="4">
       <formula>ISEVEN(ROW())</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" sqref="F2:F113">
+    <dataValidation type="list" allowBlank="1" sqref="F2:F117">
       <formula1>"Standard,Inverted,Custom"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="B2:B113">
+    <dataValidation type="list" allowBlank="1" sqref="B2:B117">
       <formula1>"GB,GB/GBC,GBC"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E2:E113">
+    <dataValidation type="list" allowBlank="1" sqref="E2:E117">
       <formula1>"No,Yes"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D2:D113">
+    <dataValidation type="list" allowBlank="1" sqref="D2:D117">
       <formula1>"Normal,Double"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="C2:C113">
+    <dataValidation type="list" allowBlank="1" sqref="C2:C117">
       <formula1>"Yes,Partial,No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G2:G108">
+    <dataValidation type="list" allowBlank="1" sqref="G2:G111">
       <formula1>"Margin,Timeout"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Game Boy Printer Emulator - Games Support.xlsx
+++ b/Game Boy Printer Emulator - Games Support.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="223">
   <si>
     <t>Title</t>
   </si>
@@ -435,13 +435,10 @@
     <t>Nakayoshi Cooking Series 1 - Oishii Cake-ya-san (なかよしクッキングシリーズ1 おいしいケーキ屋さん)</t>
   </si>
   <si>
-    <t>Palette 0x07 (2 colors), you can print recipes..</t>
+    <t>Palette 0x07 (2 colors), you can print recipes.</t>
   </si>
   <si>
     <t>Nakayoshi Cooking Series 2 - Oishii Panya-san (なかよしクッキングシリーズ2 おいしいパン屋さん)</t>
-  </si>
-  <si>
-    <t>Palette 0x07 (2 colors), you can print recipes.</t>
   </si>
   <si>
     <t>Nakayoshi Cooking Series 3 - Tanoshii Obentou (なかよしクッキングシリーズ3 たのしいお弁当)</t>
@@ -2764,12 +2761,12 @@
         <v>14</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="67" ht="17.25" customHeight="1">
       <c r="A67" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>9</v>
@@ -2790,12 +2787,12 @@
         <v>74</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>9</v>
@@ -2816,12 +2813,12 @@
         <v>74</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>9</v>
@@ -2842,12 +2839,12 @@
         <v>74</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>19</v>
@@ -2868,12 +2865,12 @@
         <v>14</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>19</v>
@@ -2894,12 +2891,12 @@
         <v>14</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>9</v>
@@ -2920,38 +2917,38 @@
         <v>14</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G73" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H73" s="3" t="s">
         <v>153</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D73" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E73" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F73" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G73" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H73" s="3" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>67</v>
@@ -2972,12 +2969,12 @@
         <v>74</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>19</v>
@@ -2998,12 +2995,12 @@
         <v>14</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>67</v>
@@ -3024,38 +3021,38 @@
         <v>14</v>
       </c>
       <c r="H76" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G77" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H77" s="3" t="s">
         <v>161</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D77" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E77" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F77" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G77" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H77" s="3" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>9</v>
@@ -3076,12 +3073,12 @@
         <v>14</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>67</v>
@@ -3102,90 +3099,90 @@
         <v>14</v>
       </c>
       <c r="H79" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F80" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G80" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H80" s="3" t="s">
         <v>167</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D80" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E80" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F80" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G80" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H80" s="3" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G81" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H81" s="3" t="s">
         <v>169</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D81" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E81" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F81" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G81" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F82" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G82" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H82" s="3" t="s">
         <v>171</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D82" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E82" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F82" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G82" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H82" s="3" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>19</v>
@@ -3206,12 +3203,12 @@
         <v>14</v>
       </c>
       <c r="H83" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>19</v>
@@ -3232,12 +3229,12 @@
         <v>14</v>
       </c>
       <c r="H84" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>19</v>
@@ -3258,12 +3255,12 @@
         <v>14</v>
       </c>
       <c r="H85" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>19</v>
@@ -3284,12 +3281,12 @@
         <v>14</v>
       </c>
       <c r="H86" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>19</v>
@@ -3310,12 +3307,12 @@
         <v>14</v>
       </c>
       <c r="H87" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>19</v>
@@ -3336,38 +3333,38 @@
         <v>14</v>
       </c>
       <c r="H88" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F89" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G89" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H89" s="3" t="s">
         <v>181</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D89" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E89" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F89" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G89" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>67</v>
@@ -3388,64 +3385,64 @@
         <v>14</v>
       </c>
       <c r="H90" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G91" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H91" s="3" t="s">
         <v>185</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C91" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D91" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E91" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F91" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G91" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E92" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F92" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G92" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H92" s="3" t="s">
         <v>187</v>
-      </c>
-      <c r="B92" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D92" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E92" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F92" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G92" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H92" s="3" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>9</v>
@@ -3466,38 +3463,38 @@
         <v>14</v>
       </c>
       <c r="H93" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E94" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F94" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G94" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H94" s="3" t="s">
         <v>191</v>
-      </c>
-      <c r="B94" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D94" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E94" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F94" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G94" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>19</v>
@@ -3518,12 +3515,12 @@
         <v>14</v>
       </c>
       <c r="H95" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>9</v>
@@ -3549,7 +3546,7 @@
     </row>
     <row r="97">
       <c r="A97" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>67</v>
@@ -3570,12 +3567,12 @@
         <v>14</v>
       </c>
       <c r="H97" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>19</v>
@@ -3596,12 +3593,12 @@
         <v>14</v>
       </c>
       <c r="H98" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>19</v>
@@ -3622,12 +3619,12 @@
         <v>14</v>
       </c>
       <c r="H99" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>9</v>
@@ -3648,38 +3645,38 @@
         <v>14</v>
       </c>
       <c r="H100" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E101" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F101" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G101" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H101" s="3" t="s">
         <v>203</v>
-      </c>
-      <c r="B101" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C101" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D101" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E101" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F101" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G101" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>19</v>
@@ -3700,12 +3697,12 @@
         <v>14</v>
       </c>
       <c r="H102" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>9</v>
@@ -3726,12 +3723,12 @@
         <v>14</v>
       </c>
       <c r="H103" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>9</v>
@@ -3752,12 +3749,12 @@
         <v>14</v>
       </c>
       <c r="H104" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B105" s="4" t="s">
         <v>19</v>
@@ -3778,12 +3775,12 @@
         <v>14</v>
       </c>
       <c r="H105" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="106" ht="17.25" customHeight="1">
       <c r="A106" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B106" s="4" t="s">
         <v>19</v>
@@ -3804,12 +3801,12 @@
         <v>14</v>
       </c>
       <c r="H106" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="107" ht="17.25" customHeight="1">
       <c r="A107" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B107" s="4" t="s">
         <v>9</v>
@@ -3830,12 +3827,12 @@
         <v>14</v>
       </c>
       <c r="H107" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B108" s="4" t="s">
         <v>9</v>
@@ -3856,12 +3853,12 @@
         <v>14</v>
       </c>
       <c r="H108" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B109" s="4" t="s">
         <v>19</v>
@@ -3882,38 +3879,38 @@
         <v>14</v>
       </c>
       <c r="H109" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D110" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E110" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F110" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G110" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H110" s="3" t="s">
         <v>220</v>
-      </c>
-      <c r="B110" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C110" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D110" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E110" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F110" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G110" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H110" s="3" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B111" s="4" t="s">
         <v>9</v>
@@ -3934,7 +3931,7 @@
         <v>14</v>
       </c>
       <c r="H111" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="112">
